--- a/pyMaster_loads_tool - Copy.xlsx
+++ b/pyMaster_loads_tool - Copy.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28020"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlec-my.sharepoint.com/personal/mwo_woodthilsted_com/Documents/Professional/5_PYTHON/pyMasterLoadsTool/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E09CBC-4833-4086-A2A9-BBF6BBD7A7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_98CCA4703EFB52D5144BAB39A1830355F8498056" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="858" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,21 +25,10 @@
     <definedName name="SheetVersion">#REF!</definedName>
     <definedName name="VersionStatus">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -195,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="259">
   <si>
     <t>Basic case no.</t>
   </si>
@@ -433,81 +417,6 @@
     <t>Non-linear solver input solver number</t>
   </si>
   <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>DL+</t>
-  </si>
-  <si>
-    <t>ULS_A_LL_ALL_1</t>
-  </si>
-  <si>
-    <t>ULS_A_LL_ALL_2</t>
-  </si>
-  <si>
-    <t>ULS_A_LL_ALL_3</t>
-  </si>
-  <si>
-    <t>ULS_B_WRUG_210N</t>
-  </si>
-  <si>
-    <t>ULS_B_WRUG_240N</t>
-  </si>
-  <si>
-    <t>ULS_B_WRUG_270N</t>
-  </si>
-  <si>
-    <t>ULS_B_WRUG_300N</t>
-  </si>
-  <si>
-    <t>ULS_B_WRUG_330N</t>
-  </si>
-  <si>
-    <t>ALS_B_WRL_210N</t>
-  </si>
-  <si>
-    <t>ALS_B_WRL_240N</t>
-  </si>
-  <si>
-    <t>ALS_B_WRL_270N</t>
-  </si>
-  <si>
-    <t>ALS_B_WRL_300N</t>
-  </si>
-  <si>
-    <t>ALS_B_WRL_330N</t>
-  </si>
-  <si>
-    <t>SLS_A_SW</t>
-  </si>
-  <si>
-    <t>SLS_A_SW+</t>
-  </si>
-  <si>
-    <t>SLS_A_QPR_DL_LL_1</t>
-  </si>
-  <si>
-    <t>SLS_A_QPR_DL_LL_2</t>
-  </si>
-  <si>
-    <t>SLS_QPR_DL_LL_3</t>
-  </si>
-  <si>
-    <t>SLS_QPR_WRUG_210N</t>
-  </si>
-  <si>
-    <t>SLS_QPR_WRUG_240N</t>
-  </si>
-  <si>
-    <t>SLS_QPR_WRUG_270N</t>
-  </si>
-  <si>
-    <t>SLS_QPR_WRUG_300N</t>
-  </si>
-  <si>
-    <t>SLS_QPR_WRUG_330N</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -518,60 +427,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>ULS</t>
-  </si>
-  <si>
-    <t>DL+_HG_Walkway</t>
-  </si>
-  <si>
-    <t>DL+_HG_Laydown</t>
-  </si>
-  <si>
-    <t>ULS_A_LL_ALL_1_HG_Walkway</t>
-  </si>
-  <si>
-    <t>ULS_A_LL_ALL_2_HG_Walkway</t>
-  </si>
-  <si>
-    <t>ULS_A_LL_ALL_3_HG_Walkway</t>
-  </si>
-  <si>
-    <t>ULS_A_LL_ALL_1_HG_Laydown</t>
-  </si>
-  <si>
-    <t>ULS_A_LL_ALL_2_HG_Laydown</t>
-  </si>
-  <si>
-    <t>ULS_A_LL_ALL_3_HG_Laydown</t>
-  </si>
-  <si>
-    <t>SLS</t>
-  </si>
-  <si>
-    <t>SLS_A_SW+_HG_Walkway</t>
-  </si>
-  <si>
-    <t>SLS_A_SW+_HG_Laydown</t>
-  </si>
-  <si>
-    <t>SLS_A_QPR_DL_LL_1_HG_Walkway</t>
-  </si>
-  <si>
-    <t>SLS_A_QPR_DL_LL_2_HG_Walkway</t>
-  </si>
-  <si>
-    <t>SLS_QPR_DL_LL_3_HG_Walkway</t>
-  </si>
-  <si>
-    <t>SLS_A_QPR_DL_LL_1_HG_Laydown</t>
-  </si>
-  <si>
-    <t>SLS_A_QPR_DL_LL_2_HG_Laydown</t>
-  </si>
-  <si>
-    <t>SLS_QPR_DL_LL_3_HG_Laydown</t>
   </si>
   <si>
     <t>Display settings</t>
@@ -1043,6 +898,72 @@
   </si>
   <si>
     <t>LaTeX Code</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>ULS</t>
+  </si>
+  <si>
+    <t>DL+</t>
+  </si>
+  <si>
+    <t>ULS_A_LL_ALL_1</t>
+  </si>
+  <si>
+    <t>ULS_A_LL_ALL_2</t>
+  </si>
+  <si>
+    <t>ULS_A_LL_ALL_3</t>
+  </si>
+  <si>
+    <t>ULS_B_WRUG_210N</t>
+  </si>
+  <si>
+    <t>ULS_B_WRUG_240N</t>
+  </si>
+  <si>
+    <t>ULS_B_WRUG_270N</t>
+  </si>
+  <si>
+    <t>ULS_B_WRUG_300N</t>
+  </si>
+  <si>
+    <t>ULS_B_WRUG_330N</t>
+  </si>
+  <si>
+    <t>ALS_B_WRL_210N</t>
+  </si>
+  <si>
+    <t>ALS_B_WRL_240N</t>
+  </si>
+  <si>
+    <t>ALS_B_WRL_270N</t>
+  </si>
+  <si>
+    <t>ALS_B_WRL_300N</t>
+  </si>
+  <si>
+    <t>ALS_B_WRL_330N</t>
+  </si>
+  <si>
+    <t>SLS_A_SW</t>
+  </si>
+  <si>
+    <t>SLS</t>
+  </si>
+  <si>
+    <t>SLS_A_SW+</t>
+  </si>
+  <si>
+    <t>SLS_A_QPR_DL_LL_1</t>
+  </si>
+  <si>
+    <t>SLS_A_QPR_DL_LL_2</t>
+  </si>
+  <si>
+    <t>SLS_QPR_DL_LL_3</t>
   </si>
 </sst>
 </file>
@@ -1956,14 +1877,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1974,23 +1904,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1998,7 +1913,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -4992,8 +4913,8 @@
     <col min="31" max="31" width="28.28515625" style="19" customWidth="1"/>
     <col min="32" max="32" width="8.7109375" style="19" customWidth="1"/>
     <col min="33" max="36" width="8.7109375" customWidth="1"/>
-    <col min="37" max="45" width="8.7109375" style="19" customWidth="1"/>
-    <col min="46" max="16384" width="8.7109375" style="19"/>
+    <col min="37" max="46" width="8.7109375" style="19" customWidth="1"/>
+    <col min="47" max="16384" width="8.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.1" customHeight="1">
@@ -5025,7 +4946,7 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
-      <c r="AB1" s="171" t="s">
+      <c r="AB1" s="174" t="s">
         <v>52</v>
       </c>
       <c r="AC1" s="185"/>
@@ -5042,19 +4963,19 @@
       <c r="C2" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="174"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="171"/>
       <c r="G2" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="175" t="s">
+      <c r="H2" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="167" t="s">
+      <c r="I2" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="168" t="s">
+      <c r="J2" s="167" t="s">
         <v>55</v>
       </c>
       <c r="K2" s="185"/>
@@ -5098,12 +5019,12 @@
       <c r="G3" s="183"/>
       <c r="H3" s="187"/>
       <c r="I3" s="183"/>
-      <c r="J3" s="169" t="s">
+      <c r="J3" s="168" t="s">
         <v>61</v>
       </c>
       <c r="K3" s="190"/>
       <c r="L3" s="191"/>
-      <c r="M3" s="172" t="s">
+      <c r="M3" s="175" t="s">
         <v>62</v>
       </c>
       <c r="N3" s="190"/>
@@ -5240,12 +5161,12 @@
       <c r="G7" s="184"/>
       <c r="H7" s="192"/>
       <c r="I7" s="184"/>
-      <c r="J7" s="168" t="s">
+      <c r="J7" s="167" t="s">
         <v>68</v>
       </c>
       <c r="K7" s="185"/>
       <c r="L7" s="186"/>
-      <c r="M7" s="168" t="s">
+      <c r="M7" s="167" t="s">
         <v>69</v>
       </c>
       <c r="N7" s="185"/>
@@ -5253,7 +5174,7 @@
       <c r="P7" s="192"/>
       <c r="Q7" s="182"/>
       <c r="R7" s="193"/>
-      <c r="S7" s="168" t="s">
+      <c r="S7" s="167" t="s">
         <v>70</v>
       </c>
       <c r="T7" s="185"/>
@@ -5271,9 +5192,9 @@
     <row r="8" spans="1:31">
       <c r="A8" s="153"/>
       <c r="B8" s="159"/>
-      <c r="C8" s="93" t="e">
+      <c r="C8" s="93" t="str">
         <f>VLOOKUP(A8,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="94" t="s">
@@ -5281,7 +5202,7 @@
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="20" t="str">
-        <f t="shared" ref="G8:G39" si="0">IF(ISBLANK(B8),"",TEXT(A8,0)&amp;":"&amp;B8)</f>
+        <f>IF(ISBLANK(B8),"",TEXT(A8,0)&amp;":"&amp;B8)</f>
         <v/>
       </c>
       <c r="H8" s="108"/>
@@ -5313,9 +5234,9 @@
     <row r="9" spans="1:31">
       <c r="A9" s="154"/>
       <c r="B9" s="159"/>
-      <c r="C9" s="93" t="e">
+      <c r="C9" s="93" t="str">
         <f>VLOOKUP(A9,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="94" t="s">
@@ -5323,7 +5244,7 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B9),"",TEXT(A9,0)&amp;":"&amp;B9)</f>
         <v/>
       </c>
       <c r="H9" s="67"/>
@@ -5355,15 +5276,15 @@
     <row r="10" spans="1:31">
       <c r="A10" s="154"/>
       <c r="B10" s="159"/>
-      <c r="C10" s="93" t="e">
+      <c r="C10" s="93" t="str">
         <f>VLOOKUP(A10,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B10),"",TEXT(A10,0)&amp;":"&amp;B10)</f>
         <v/>
       </c>
       <c r="H10" s="67"/>
@@ -5395,9 +5316,9 @@
     <row r="11" spans="1:31">
       <c r="A11" s="154"/>
       <c r="B11" s="161"/>
-      <c r="C11" s="93" t="e">
+      <c r="C11" s="93" t="str">
         <f>VLOOKUP(A11,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="94" t="s">
@@ -5405,7 +5326,7 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B11),"",TEXT(A11,0)&amp;":"&amp;B11)</f>
         <v/>
       </c>
       <c r="H11" s="67"/>
@@ -5437,9 +5358,9 @@
     <row r="12" spans="1:31">
       <c r="A12" s="154"/>
       <c r="B12" s="161"/>
-      <c r="C12" s="93" t="e">
+      <c r="C12" s="93" t="str">
         <f>VLOOKUP(A12,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="94" t="s">
@@ -5447,7 +5368,7 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B12),"",TEXT(A12,0)&amp;":"&amp;B12)</f>
         <v/>
       </c>
       <c r="H12" s="63"/>
@@ -5477,9 +5398,9 @@
     <row r="13" spans="1:31">
       <c r="A13" s="154"/>
       <c r="B13" s="161"/>
-      <c r="C13" s="93" t="e">
+      <c r="C13" s="93" t="str">
         <f>VLOOKUP(A13,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="94" t="s">
@@ -5487,7 +5408,7 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B13),"",TEXT(A13,0)&amp;":"&amp;B13)</f>
         <v/>
       </c>
       <c r="H13" s="63"/>
@@ -5517,9 +5438,9 @@
     <row r="14" spans="1:31">
       <c r="A14" s="149"/>
       <c r="B14" s="161"/>
-      <c r="C14" s="93" t="e">
+      <c r="C14" s="93" t="str">
         <f>VLOOKUP(A14,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="94" t="s">
@@ -5527,7 +5448,7 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B14),"",TEXT(A14,0)&amp;":"&amp;B14)</f>
         <v/>
       </c>
       <c r="H14" s="63"/>
@@ -5557,15 +5478,15 @@
     <row r="15" spans="1:31">
       <c r="A15" s="149"/>
       <c r="B15" s="161"/>
-      <c r="C15" s="93" t="e">
+      <c r="C15" s="93" t="str">
         <f>VLOOKUP(A15,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="94"/>
       <c r="F15" s="17"/>
       <c r="G15" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B15),"",TEXT(A15,0)&amp;":"&amp;B15)</f>
         <v/>
       </c>
       <c r="H15" s="63"/>
@@ -5595,15 +5516,15 @@
     <row r="16" spans="1:31">
       <c r="A16" s="149"/>
       <c r="B16" s="161"/>
-      <c r="C16" s="93" t="e">
+      <c r="C16" s="93" t="str">
         <f>VLOOKUP(A16,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="94"/>
       <c r="F16" s="17"/>
       <c r="G16" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B16),"",TEXT(A16,0)&amp;":"&amp;B16)</f>
         <v/>
       </c>
       <c r="H16" s="63"/>
@@ -5633,9 +5554,9 @@
     <row r="17" spans="1:31">
       <c r="A17" s="149"/>
       <c r="B17" s="161"/>
-      <c r="C17" s="93" t="e">
+      <c r="C17" s="93" t="str">
         <f>VLOOKUP(A17,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="94" t="s">
@@ -5643,7 +5564,7 @@
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B17),"",TEXT(A17,0)&amp;":"&amp;B17)</f>
         <v/>
       </c>
       <c r="H17" s="63"/>
@@ -5673,15 +5594,15 @@
     <row r="18" spans="1:31">
       <c r="A18" s="149"/>
       <c r="B18" s="161"/>
-      <c r="C18" s="93" t="e">
+      <c r="C18" s="93" t="str">
         <f>VLOOKUP(A18,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="94"/>
       <c r="F18" s="17"/>
       <c r="G18" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B18),"",TEXT(A18,0)&amp;":"&amp;B18)</f>
         <v/>
       </c>
       <c r="H18" s="63"/>
@@ -5711,15 +5632,15 @@
     <row r="19" spans="1:31">
       <c r="A19" s="149"/>
       <c r="B19" s="161"/>
-      <c r="C19" s="93" t="e">
+      <c r="C19" s="93" t="str">
         <f>VLOOKUP(A19,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="94"/>
       <c r="F19" s="17"/>
       <c r="G19" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B19),"",TEXT(A19,0)&amp;":"&amp;B19)</f>
         <v/>
       </c>
       <c r="H19" s="63"/>
@@ -5749,9 +5670,9 @@
     <row r="20" spans="1:31">
       <c r="A20" s="149"/>
       <c r="B20" s="161"/>
-      <c r="C20" s="93" t="e">
+      <c r="C20" s="93" t="str">
         <f>VLOOKUP(A20,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="94" t="s">
@@ -5759,7 +5680,7 @@
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B20),"",TEXT(A20,0)&amp;":"&amp;B20)</f>
         <v/>
       </c>
       <c r="H20" s="63"/>
@@ -5789,15 +5710,15 @@
     <row r="21" spans="1:31">
       <c r="A21" s="149"/>
       <c r="B21" s="161"/>
-      <c r="C21" s="93" t="e">
+      <c r="C21" s="93" t="str">
         <f>VLOOKUP(A21,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="94"/>
       <c r="F21" s="17"/>
       <c r="G21" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B21),"",TEXT(A21,0)&amp;":"&amp;B21)</f>
         <v/>
       </c>
       <c r="H21" s="63"/>
@@ -5827,15 +5748,15 @@
     <row r="22" spans="1:31">
       <c r="A22" s="149"/>
       <c r="B22" s="161"/>
-      <c r="C22" s="93" t="e">
+      <c r="C22" s="93" t="str">
         <f>VLOOKUP(A22,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="94"/>
       <c r="F22" s="17"/>
       <c r="G22" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B22),"",TEXT(A22,0)&amp;":"&amp;B22)</f>
         <v/>
       </c>
       <c r="H22" s="63"/>
@@ -5865,9 +5786,9 @@
     <row r="23" spans="1:31">
       <c r="A23" s="149"/>
       <c r="B23" s="148"/>
-      <c r="C23" s="93" t="e">
+      <c r="C23" s="93" t="str">
         <f>VLOOKUP(A23,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="94" t="s">
@@ -5875,7 +5796,7 @@
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B23),"",TEXT(A23,0)&amp;":"&amp;B23)</f>
         <v/>
       </c>
       <c r="H23" s="63"/>
@@ -5905,15 +5826,15 @@
     <row r="24" spans="1:31">
       <c r="A24" s="149"/>
       <c r="B24" s="148"/>
-      <c r="C24" s="93" t="e">
+      <c r="C24" s="93" t="str">
         <f>VLOOKUP(A24,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="94"/>
       <c r="F24" s="17"/>
       <c r="G24" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B24),"",TEXT(A24,0)&amp;":"&amp;B24)</f>
         <v/>
       </c>
       <c r="H24" s="63"/>
@@ -5943,15 +5864,15 @@
     <row r="25" spans="1:31">
       <c r="A25" s="149"/>
       <c r="B25" s="148"/>
-      <c r="C25" s="93" t="e">
+      <c r="C25" s="93" t="str">
         <f>VLOOKUP(A25,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="94"/>
       <c r="F25" s="17"/>
       <c r="G25" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B25),"",TEXT(A25,0)&amp;":"&amp;B25)</f>
         <v/>
       </c>
       <c r="H25" s="63"/>
@@ -5981,9 +5902,9 @@
     <row r="26" spans="1:31">
       <c r="A26" s="149"/>
       <c r="B26" s="148"/>
-      <c r="C26" s="93" t="e">
+      <c r="C26" s="93" t="str">
         <f>VLOOKUP(A26,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="94" t="s">
@@ -5991,7 +5912,7 @@
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B26),"",TEXT(A26,0)&amp;":"&amp;B26)</f>
         <v/>
       </c>
       <c r="H26" s="63"/>
@@ -6021,15 +5942,15 @@
     <row r="27" spans="1:31">
       <c r="A27" s="149"/>
       <c r="B27" s="148"/>
-      <c r="C27" s="93" t="e">
+      <c r="C27" s="93" t="str">
         <f>VLOOKUP(A27,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="94"/>
       <c r="F27" s="17"/>
       <c r="G27" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B27),"",TEXT(A27,0)&amp;":"&amp;B27)</f>
         <v/>
       </c>
       <c r="H27" s="63"/>
@@ -6059,15 +5980,15 @@
     <row r="28" spans="1:31">
       <c r="A28" s="149"/>
       <c r="B28" s="148"/>
-      <c r="C28" s="93" t="e">
+      <c r="C28" s="93" t="str">
         <f>VLOOKUP(A28,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="94"/>
       <c r="F28" s="17"/>
       <c r="G28" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B28),"",TEXT(A28,0)&amp;":"&amp;B28)</f>
         <v/>
       </c>
       <c r="H28" s="63"/>
@@ -6097,9 +6018,9 @@
     <row r="29" spans="1:31">
       <c r="A29" s="149"/>
       <c r="B29" s="148"/>
-      <c r="C29" s="93" t="e">
+      <c r="C29" s="93" t="str">
         <f>VLOOKUP(A29,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="94" t="s">
@@ -6107,7 +6028,7 @@
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B29),"",TEXT(A29,0)&amp;":"&amp;B29)</f>
         <v/>
       </c>
       <c r="H29" s="63"/>
@@ -6137,15 +6058,15 @@
     <row r="30" spans="1:31">
       <c r="A30" s="149"/>
       <c r="B30" s="148"/>
-      <c r="C30" s="93" t="e">
+      <c r="C30" s="93" t="str">
         <f>VLOOKUP(A30,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="94"/>
       <c r="F30" s="17"/>
       <c r="G30" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B30),"",TEXT(A30,0)&amp;":"&amp;B30)</f>
         <v/>
       </c>
       <c r="H30" s="63"/>
@@ -6175,15 +6096,15 @@
     <row r="31" spans="1:31">
       <c r="A31" s="149"/>
       <c r="B31" s="148"/>
-      <c r="C31" s="93" t="e">
+      <c r="C31" s="93" t="str">
         <f>VLOOKUP(A31,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="94"/>
       <c r="F31" s="17"/>
       <c r="G31" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B31),"",TEXT(A31,0)&amp;":"&amp;B31)</f>
         <v/>
       </c>
       <c r="H31" s="63"/>
@@ -6213,9 +6134,9 @@
     <row r="32" spans="1:31">
       <c r="A32" s="149"/>
       <c r="B32" s="148"/>
-      <c r="C32" s="93" t="e">
+      <c r="C32" s="93" t="str">
         <f>VLOOKUP(A32,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="94" t="s">
@@ -6223,7 +6144,7 @@
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B32),"",TEXT(A32,0)&amp;":"&amp;B32)</f>
         <v/>
       </c>
       <c r="H32" s="63"/>
@@ -6253,15 +6174,15 @@
     <row r="33" spans="1:31">
       <c r="A33" s="149"/>
       <c r="B33" s="148"/>
-      <c r="C33" s="93" t="e">
+      <c r="C33" s="93" t="str">
         <f>VLOOKUP(A33,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="94"/>
       <c r="F33" s="17"/>
       <c r="G33" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B33),"",TEXT(A33,0)&amp;":"&amp;B33)</f>
         <v/>
       </c>
       <c r="H33" s="63"/>
@@ -6291,15 +6212,15 @@
     <row r="34" spans="1:31">
       <c r="A34" s="149"/>
       <c r="B34" s="148"/>
-      <c r="C34" s="93" t="e">
+      <c r="C34" s="93" t="str">
         <f>VLOOKUP(A34,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="94"/>
       <c r="F34" s="17"/>
       <c r="G34" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B34),"",TEXT(A34,0)&amp;":"&amp;B34)</f>
         <v/>
       </c>
       <c r="H34" s="63"/>
@@ -6329,9 +6250,9 @@
     <row r="35" spans="1:31">
       <c r="A35" s="149"/>
       <c r="B35" s="148"/>
-      <c r="C35" s="93" t="e">
+      <c r="C35" s="93" t="str">
         <f>VLOOKUP(A35,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="94" t="s">
@@ -6339,7 +6260,7 @@
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B35),"",TEXT(A35,0)&amp;":"&amp;B35)</f>
         <v/>
       </c>
       <c r="H35" s="63"/>
@@ -6369,15 +6290,15 @@
     <row r="36" spans="1:31">
       <c r="A36" s="149"/>
       <c r="B36" s="148"/>
-      <c r="C36" s="93" t="e">
+      <c r="C36" s="93" t="str">
         <f>VLOOKUP(A36,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="94"/>
       <c r="F36" s="17"/>
       <c r="G36" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B36),"",TEXT(A36,0)&amp;":"&amp;B36)</f>
         <v/>
       </c>
       <c r="H36" s="63"/>
@@ -6407,15 +6328,15 @@
     <row r="37" spans="1:31">
       <c r="A37" s="149"/>
       <c r="B37" s="148"/>
-      <c r="C37" s="93" t="e">
+      <c r="C37" s="93" t="str">
         <f>VLOOKUP(A37,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="94"/>
       <c r="F37" s="17"/>
       <c r="G37" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B37),"",TEXT(A37,0)&amp;":"&amp;B37)</f>
         <v/>
       </c>
       <c r="H37" s="63"/>
@@ -6445,15 +6366,15 @@
     <row r="38" spans="1:31">
       <c r="A38" s="154"/>
       <c r="B38" s="159"/>
-      <c r="C38" s="93" t="e">
+      <c r="C38" s="93" t="str">
         <f>VLOOKUP(A38,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B38),"",TEXT(A38,0)&amp;":"&amp;B38)</f>
         <v/>
       </c>
       <c r="H38" s="63"/>
@@ -6483,15 +6404,15 @@
     <row r="39" spans="1:31">
       <c r="A39" s="154"/>
       <c r="B39" s="159"/>
-      <c r="C39" s="93" t="e">
+      <c r="C39" s="93" t="str">
         <f>VLOOKUP(A39,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B39),"",TEXT(A39,0)&amp;":"&amp;B39)</f>
         <v/>
       </c>
       <c r="H39" s="63"/>
@@ -6521,15 +6442,15 @@
     <row r="40" spans="1:31">
       <c r="A40" s="154"/>
       <c r="B40" s="159"/>
-      <c r="C40" s="93" t="e">
+      <c r="C40" s="93" t="str">
         <f>VLOOKUP(A40,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="21" t="str">
-        <f t="shared" ref="G40:G71" si="1">IF(ISBLANK(B40),"",TEXT(A40,0)&amp;":"&amp;B40)</f>
+        <f>IF(ISBLANK(B40),"",TEXT(A40,0)&amp;":"&amp;B40)</f>
         <v/>
       </c>
       <c r="H40" s="63"/>
@@ -6559,15 +6480,15 @@
     <row r="41" spans="1:31">
       <c r="A41" s="154"/>
       <c r="B41" s="159"/>
-      <c r="C41" s="93" t="e">
+      <c r="C41" s="93" t="str">
         <f>VLOOKUP(A41,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B41),"",TEXT(A41,0)&amp;":"&amp;B41)</f>
         <v/>
       </c>
       <c r="H41" s="63"/>
@@ -6597,15 +6518,15 @@
     <row r="42" spans="1:31">
       <c r="A42" s="154"/>
       <c r="B42" s="159"/>
-      <c r="C42" s="93" t="e">
+      <c r="C42" s="93" t="str">
         <f>VLOOKUP(A42,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B42),"",TEXT(A42,0)&amp;":"&amp;B42)</f>
         <v/>
       </c>
       <c r="H42" s="63"/>
@@ -6635,15 +6556,15 @@
     <row r="43" spans="1:31">
       <c r="A43" s="154"/>
       <c r="B43" s="159"/>
-      <c r="C43" s="93" t="e">
+      <c r="C43" s="93" t="str">
         <f>VLOOKUP(A43,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B43),"",TEXT(A43,0)&amp;":"&amp;B43)</f>
         <v/>
       </c>
       <c r="H43" s="63"/>
@@ -6673,15 +6594,15 @@
     <row r="44" spans="1:31">
       <c r="A44" s="154"/>
       <c r="B44" s="159"/>
-      <c r="C44" s="93" t="e">
+      <c r="C44" s="93" t="str">
         <f>VLOOKUP(A44,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B44),"",TEXT(A44,0)&amp;":"&amp;B44)</f>
         <v/>
       </c>
       <c r="H44" s="63"/>
@@ -6711,15 +6632,15 @@
     <row r="45" spans="1:31">
       <c r="A45" s="155"/>
       <c r="B45" s="159"/>
-      <c r="C45" s="93" t="e">
+      <c r="C45" s="93" t="str">
         <f>VLOOKUP(A45,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B45),"",TEXT(A45,0)&amp;":"&amp;B45)</f>
         <v/>
       </c>
       <c r="H45" s="63"/>
@@ -6749,15 +6670,15 @@
     <row r="46" spans="1:31">
       <c r="A46" s="155"/>
       <c r="B46" s="159"/>
-      <c r="C46" s="93" t="e">
+      <c r="C46" s="93" t="str">
         <f>VLOOKUP(A46,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B46),"",TEXT(A46,0)&amp;":"&amp;B46)</f>
         <v/>
       </c>
       <c r="H46" s="63"/>
@@ -6787,15 +6708,15 @@
     <row r="47" spans="1:31">
       <c r="A47" s="155"/>
       <c r="B47" s="159"/>
-      <c r="C47" s="93" t="e">
+      <c r="C47" s="93" t="str">
         <f>VLOOKUP(A47,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B47),"",TEXT(A47,0)&amp;":"&amp;B47)</f>
         <v/>
       </c>
       <c r="H47" s="63"/>
@@ -6825,15 +6746,15 @@
     <row r="48" spans="1:31">
       <c r="A48" s="155"/>
       <c r="B48" s="159"/>
-      <c r="C48" s="93" t="e">
+      <c r="C48" s="93" t="str">
         <f>VLOOKUP(A48,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B48),"",TEXT(A48,0)&amp;":"&amp;B48)</f>
         <v/>
       </c>
       <c r="H48" s="63"/>
@@ -6863,15 +6784,15 @@
     <row r="49" spans="1:31">
       <c r="A49" s="155"/>
       <c r="B49" s="159"/>
-      <c r="C49" s="93" t="e">
+      <c r="C49" s="93" t="str">
         <f>VLOOKUP(A49,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B49),"",TEXT(A49,0)&amp;":"&amp;B49)</f>
         <v/>
       </c>
       <c r="H49" s="63"/>
@@ -6901,15 +6822,15 @@
     <row r="50" spans="1:31">
       <c r="A50" s="155"/>
       <c r="B50" s="159"/>
-      <c r="C50" s="93" t="e">
+      <c r="C50" s="93" t="str">
         <f>VLOOKUP(A50,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B50),"",TEXT(A50,0)&amp;":"&amp;B50)</f>
         <v/>
       </c>
       <c r="H50" s="63"/>
@@ -6939,15 +6860,15 @@
     <row r="51" spans="1:31">
       <c r="A51" s="155"/>
       <c r="B51" s="159"/>
-      <c r="C51" s="93" t="e">
+      <c r="C51" s="93" t="str">
         <f>VLOOKUP(A51,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B51),"",TEXT(A51,0)&amp;":"&amp;B51)</f>
         <v/>
       </c>
       <c r="H51" s="63"/>
@@ -6977,15 +6898,15 @@
     <row r="52" spans="1:31">
       <c r="A52" s="155"/>
       <c r="B52" s="159"/>
-      <c r="C52" s="93" t="e">
+      <c r="C52" s="93" t="str">
         <f>VLOOKUP(A52,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B52),"",TEXT(A52,0)&amp;":"&amp;B52)</f>
         <v/>
       </c>
       <c r="H52" s="63"/>
@@ -7015,15 +6936,15 @@
     <row r="53" spans="1:31">
       <c r="A53" s="155"/>
       <c r="B53" s="159"/>
-      <c r="C53" s="93" t="e">
+      <c r="C53" s="93" t="str">
         <f>VLOOKUP(A53,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B53),"",TEXT(A53,0)&amp;":"&amp;B53)</f>
         <v/>
       </c>
       <c r="H53" s="63"/>
@@ -7053,15 +6974,15 @@
     <row r="54" spans="1:31" ht="13.15" customHeight="1">
       <c r="A54" s="155"/>
       <c r="B54" s="159"/>
-      <c r="C54" s="93" t="e">
+      <c r="C54" s="93" t="str">
         <f>VLOOKUP(A54,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B54),"",TEXT(A54,0)&amp;":"&amp;B54)</f>
         <v/>
       </c>
       <c r="H54" s="63"/>
@@ -7091,15 +7012,15 @@
     <row r="55" spans="1:31">
       <c r="A55" s="155"/>
       <c r="B55" s="159"/>
-      <c r="C55" s="93" t="e">
+      <c r="C55" s="93" t="str">
         <f>VLOOKUP(A55,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B55),"",TEXT(A55,0)&amp;":"&amp;B55)</f>
         <v/>
       </c>
       <c r="H55" s="63"/>
@@ -7129,15 +7050,15 @@
     <row r="56" spans="1:31">
       <c r="A56" s="155"/>
       <c r="B56" s="159"/>
-      <c r="C56" s="93" t="e">
+      <c r="C56" s="93" t="str">
         <f>VLOOKUP(A56,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B56),"",TEXT(A56,0)&amp;":"&amp;B56)</f>
         <v/>
       </c>
       <c r="H56" s="63"/>
@@ -7167,15 +7088,15 @@
     <row r="57" spans="1:31">
       <c r="A57" s="155"/>
       <c r="B57" s="159"/>
-      <c r="C57" s="93" t="e">
+      <c r="C57" s="93" t="str">
         <f>VLOOKUP(A57,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B57),"",TEXT(A57,0)&amp;":"&amp;B57)</f>
         <v/>
       </c>
       <c r="H57" s="63"/>
@@ -7205,15 +7126,15 @@
     <row r="58" spans="1:31">
       <c r="A58" s="155"/>
       <c r="B58" s="159"/>
-      <c r="C58" s="93" t="e">
+      <c r="C58" s="93" t="str">
         <f>VLOOKUP(A58,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B58),"",TEXT(A58,0)&amp;":"&amp;B58)</f>
         <v/>
       </c>
       <c r="H58" s="63"/>
@@ -7243,15 +7164,15 @@
     <row r="59" spans="1:31">
       <c r="A59" s="155"/>
       <c r="B59" s="159"/>
-      <c r="C59" s="93" t="e">
+      <c r="C59" s="93" t="str">
         <f>VLOOKUP(A59,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B59),"",TEXT(A59,0)&amp;":"&amp;B59)</f>
         <v/>
       </c>
       <c r="H59" s="63"/>
@@ -7281,15 +7202,15 @@
     <row r="60" spans="1:31">
       <c r="A60" s="155"/>
       <c r="B60" s="159"/>
-      <c r="C60" s="93" t="e">
+      <c r="C60" s="93" t="str">
         <f>VLOOKUP(A60,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
       <c r="G60" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B60),"",TEXT(A60,0)&amp;":"&amp;B60)</f>
         <v/>
       </c>
       <c r="H60" s="63"/>
@@ -7319,15 +7240,15 @@
     <row r="61" spans="1:31">
       <c r="A61" s="155"/>
       <c r="B61" s="159"/>
-      <c r="C61" s="93" t="e">
+      <c r="C61" s="93" t="str">
         <f>VLOOKUP(A61,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="G61" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B61),"",TEXT(A61,0)&amp;":"&amp;B61)</f>
         <v/>
       </c>
       <c r="H61" s="63"/>
@@ -7357,15 +7278,15 @@
     <row r="62" spans="1:31">
       <c r="A62" s="155"/>
       <c r="B62" s="159"/>
-      <c r="C62" s="93" t="e">
+      <c r="C62" s="93" t="str">
         <f>VLOOKUP(A62,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
       <c r="G62" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B62),"",TEXT(A62,0)&amp;":"&amp;B62)</f>
         <v/>
       </c>
       <c r="H62" s="63"/>
@@ -7395,15 +7316,15 @@
     <row r="63" spans="1:31">
       <c r="A63" s="155"/>
       <c r="B63" s="159"/>
-      <c r="C63" s="93" t="e">
+      <c r="C63" s="93" t="str">
         <f>VLOOKUP(A63,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
       <c r="G63" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B63),"",TEXT(A63,0)&amp;":"&amp;B63)</f>
         <v/>
       </c>
       <c r="H63" s="63"/>
@@ -7433,15 +7354,15 @@
     <row r="64" spans="1:31">
       <c r="A64" s="155"/>
       <c r="B64" s="159"/>
-      <c r="C64" s="93" t="e">
+      <c r="C64" s="93" t="str">
         <f>VLOOKUP(A64,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
       <c r="G64" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B64),"",TEXT(A64,0)&amp;":"&amp;B64)</f>
         <v/>
       </c>
       <c r="H64" s="63"/>
@@ -7471,15 +7392,15 @@
     <row r="65" spans="1:31">
       <c r="A65" s="155"/>
       <c r="B65" s="159"/>
-      <c r="C65" s="93" t="e">
+      <c r="C65" s="93" t="str">
         <f>VLOOKUP(A65,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="G65" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B65),"",TEXT(A65,0)&amp;":"&amp;B65)</f>
         <v/>
       </c>
       <c r="H65" s="63"/>
@@ -7509,15 +7430,15 @@
     <row r="66" spans="1:31">
       <c r="A66" s="155"/>
       <c r="B66" s="159"/>
-      <c r="C66" s="93" t="e">
+      <c r="C66" s="93" t="str">
         <f>VLOOKUP(A66,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B66),"",TEXT(A66,0)&amp;":"&amp;B66)</f>
         <v/>
       </c>
       <c r="H66" s="63"/>
@@ -7547,15 +7468,15 @@
     <row r="67" spans="1:31">
       <c r="A67" s="155"/>
       <c r="B67" s="159"/>
-      <c r="C67" s="93" t="e">
+      <c r="C67" s="93" t="str">
         <f>VLOOKUP(A67,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B67),"",TEXT(A67,0)&amp;":"&amp;B67)</f>
         <v/>
       </c>
       <c r="H67" s="63"/>
@@ -7585,15 +7506,15 @@
     <row r="68" spans="1:31">
       <c r="A68" s="155"/>
       <c r="B68" s="159"/>
-      <c r="C68" s="93" t="e">
+      <c r="C68" s="93" t="str">
         <f>VLOOKUP(A68,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
       <c r="G68" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B68),"",TEXT(A68,0)&amp;":"&amp;B68)</f>
         <v/>
       </c>
       <c r="H68" s="63"/>
@@ -7623,15 +7544,15 @@
     <row r="69" spans="1:31">
       <c r="A69" s="155"/>
       <c r="B69" s="159"/>
-      <c r="C69" s="93" t="e">
+      <c r="C69" s="93" t="str">
         <f>VLOOKUP(A69,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B69),"",TEXT(A69,0)&amp;":"&amp;B69)</f>
         <v/>
       </c>
       <c r="H69" s="63"/>
@@ -7661,15 +7582,15 @@
     <row r="70" spans="1:31">
       <c r="A70" s="155"/>
       <c r="B70" s="159"/>
-      <c r="C70" s="93" t="e">
+      <c r="C70" s="93" t="str">
         <f>VLOOKUP(A70,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B70),"",TEXT(A70,0)&amp;":"&amp;B70)</f>
         <v/>
       </c>
       <c r="H70" s="63"/>
@@ -7699,15 +7620,15 @@
     <row r="71" spans="1:31">
       <c r="A71" s="155"/>
       <c r="B71" s="159"/>
-      <c r="C71" s="93" t="e">
+      <c r="C71" s="93" t="str">
         <f>VLOOKUP(A71,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
       <c r="G71" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(B71),"",TEXT(A71,0)&amp;":"&amp;B71)</f>
         <v/>
       </c>
       <c r="H71" s="63"/>
@@ -7737,15 +7658,15 @@
     <row r="72" spans="1:31">
       <c r="A72" s="155"/>
       <c r="B72" s="159"/>
-      <c r="C72" s="93" t="e">
+      <c r="C72" s="93" t="str">
         <f>VLOOKUP(A72,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
       <c r="G72" s="21" t="str">
-        <f t="shared" ref="G72:G103" si="2">IF(ISBLANK(B72),"",TEXT(A72,0)&amp;":"&amp;B72)</f>
+        <f>IF(ISBLANK(B72),"",TEXT(A72,0)&amp;":"&amp;B72)</f>
         <v/>
       </c>
       <c r="H72" s="63"/>
@@ -7775,15 +7696,15 @@
     <row r="73" spans="1:31">
       <c r="A73" s="155"/>
       <c r="B73" s="159"/>
-      <c r="C73" s="93" t="e">
+      <c r="C73" s="93" t="str">
         <f>VLOOKUP(A73,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="G73" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B73),"",TEXT(A73,0)&amp;":"&amp;B73)</f>
         <v/>
       </c>
       <c r="H73" s="63"/>
@@ -7813,15 +7734,15 @@
     <row r="74" spans="1:31">
       <c r="A74" s="155"/>
       <c r="B74" s="159"/>
-      <c r="C74" s="93" t="e">
+      <c r="C74" s="93" t="str">
         <f>VLOOKUP(A74,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
       <c r="G74" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B74),"",TEXT(A74,0)&amp;":"&amp;B74)</f>
         <v/>
       </c>
       <c r="H74" s="63"/>
@@ -7851,15 +7772,15 @@
     <row r="75" spans="1:31">
       <c r="A75" s="155"/>
       <c r="B75" s="159"/>
-      <c r="C75" s="93" t="e">
+      <c r="C75" s="93" t="str">
         <f>VLOOKUP(A75,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
       <c r="G75" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B75),"",TEXT(A75,0)&amp;":"&amp;B75)</f>
         <v/>
       </c>
       <c r="H75" s="63"/>
@@ -7889,15 +7810,15 @@
     <row r="76" spans="1:31">
       <c r="A76" s="155"/>
       <c r="B76" s="159"/>
-      <c r="C76" s="93" t="e">
+      <c r="C76" s="93" t="str">
         <f>VLOOKUP(A76,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B76),"",TEXT(A76,0)&amp;":"&amp;B76)</f>
         <v/>
       </c>
       <c r="H76" s="63"/>
@@ -7927,15 +7848,15 @@
     <row r="77" spans="1:31">
       <c r="A77" s="155"/>
       <c r="B77" s="159"/>
-      <c r="C77" s="93" t="e">
+      <c r="C77" s="93" t="str">
         <f>VLOOKUP(A77,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B77),"",TEXT(A77,0)&amp;":"&amp;B77)</f>
         <v/>
       </c>
       <c r="H77" s="63"/>
@@ -7965,15 +7886,15 @@
     <row r="78" spans="1:31">
       <c r="A78" s="155"/>
       <c r="B78" s="159"/>
-      <c r="C78" s="93" t="e">
+      <c r="C78" s="93" t="str">
         <f>VLOOKUP(A78,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B78),"",TEXT(A78,0)&amp;":"&amp;B78)</f>
         <v/>
       </c>
       <c r="H78" s="63"/>
@@ -8003,15 +7924,15 @@
     <row r="79" spans="1:31">
       <c r="A79" s="155"/>
       <c r="B79" s="159"/>
-      <c r="C79" s="93" t="e">
+      <c r="C79" s="93" t="str">
         <f>VLOOKUP(A79,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B79),"",TEXT(A79,0)&amp;":"&amp;B79)</f>
         <v/>
       </c>
       <c r="H79" s="63"/>
@@ -8041,15 +7962,15 @@
     <row r="80" spans="1:31">
       <c r="A80" s="155"/>
       <c r="B80" s="159"/>
-      <c r="C80" s="93" t="e">
+      <c r="C80" s="93" t="str">
         <f>VLOOKUP(A80,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B80),"",TEXT(A80,0)&amp;":"&amp;B80)</f>
         <v/>
       </c>
       <c r="H80" s="63"/>
@@ -8079,15 +8000,15 @@
     <row r="81" spans="1:31">
       <c r="A81" s="155"/>
       <c r="B81" s="159"/>
-      <c r="C81" s="93" t="e">
+      <c r="C81" s="93" t="str">
         <f>VLOOKUP(A81,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B81),"",TEXT(A81,0)&amp;":"&amp;B81)</f>
         <v/>
       </c>
       <c r="H81" s="63"/>
@@ -8117,15 +8038,15 @@
     <row r="82" spans="1:31">
       <c r="A82" s="155"/>
       <c r="B82" s="159"/>
-      <c r="C82" s="93" t="e">
+      <c r="C82" s="93" t="str">
         <f>VLOOKUP(A82,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B82),"",TEXT(A82,0)&amp;":"&amp;B82)</f>
         <v/>
       </c>
       <c r="H82" s="63"/>
@@ -8155,15 +8076,15 @@
     <row r="83" spans="1:31">
       <c r="A83" s="155"/>
       <c r="B83" s="159"/>
-      <c r="C83" s="93" t="e">
+      <c r="C83" s="93" t="str">
         <f>VLOOKUP(A83,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B83),"",TEXT(A83,0)&amp;":"&amp;B83)</f>
         <v/>
       </c>
       <c r="H83" s="63"/>
@@ -8193,15 +8114,15 @@
     <row r="84" spans="1:31">
       <c r="A84" s="155"/>
       <c r="B84" s="159"/>
-      <c r="C84" s="93" t="e">
+      <c r="C84" s="93" t="str">
         <f>VLOOKUP(A84,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B84),"",TEXT(A84,0)&amp;":"&amp;B84)</f>
         <v/>
       </c>
       <c r="H84" s="63"/>
@@ -8231,15 +8152,15 @@
     <row r="85" spans="1:31">
       <c r="A85" s="155"/>
       <c r="B85" s="159"/>
-      <c r="C85" s="93" t="e">
+      <c r="C85" s="93" t="str">
         <f>VLOOKUP(A85,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B85),"",TEXT(A85,0)&amp;":"&amp;B85)</f>
         <v/>
       </c>
       <c r="H85" s="63"/>
@@ -8269,15 +8190,15 @@
     <row r="86" spans="1:31">
       <c r="A86" s="155"/>
       <c r="B86" s="159"/>
-      <c r="C86" s="93" t="e">
+      <c r="C86" s="93" t="str">
         <f>VLOOKUP(A86,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B86),"",TEXT(A86,0)&amp;":"&amp;B86)</f>
         <v/>
       </c>
       <c r="H86" s="63"/>
@@ -8307,15 +8228,15 @@
     <row r="87" spans="1:31">
       <c r="A87" s="155"/>
       <c r="B87" s="159"/>
-      <c r="C87" s="93" t="e">
+      <c r="C87" s="93" t="str">
         <f>VLOOKUP(A87,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B87),"",TEXT(A87,0)&amp;":"&amp;B87)</f>
         <v/>
       </c>
       <c r="H87" s="63"/>
@@ -8345,15 +8266,15 @@
     <row r="88" spans="1:31">
       <c r="A88" s="155"/>
       <c r="B88" s="159"/>
-      <c r="C88" s="93" t="e">
+      <c r="C88" s="93" t="str">
         <f>VLOOKUP(A88,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B88),"",TEXT(A88,0)&amp;":"&amp;B88)</f>
         <v/>
       </c>
       <c r="H88" s="63"/>
@@ -8383,15 +8304,15 @@
     <row r="89" spans="1:31">
       <c r="A89" s="155"/>
       <c r="B89" s="159"/>
-      <c r="C89" s="93" t="e">
+      <c r="C89" s="93" t="str">
         <f>VLOOKUP(A89,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B89),"",TEXT(A89,0)&amp;":"&amp;B89)</f>
         <v/>
       </c>
       <c r="H89" s="63"/>
@@ -8421,15 +8342,15 @@
     <row r="90" spans="1:31">
       <c r="A90" s="155"/>
       <c r="B90" s="159"/>
-      <c r="C90" s="93" t="e">
+      <c r="C90" s="93" t="str">
         <f>VLOOKUP(A90,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B90),"",TEXT(A90,0)&amp;":"&amp;B90)</f>
         <v/>
       </c>
       <c r="H90" s="63"/>
@@ -8459,15 +8380,15 @@
     <row r="91" spans="1:31">
       <c r="A91" s="155"/>
       <c r="B91" s="159"/>
-      <c r="C91" s="93" t="e">
+      <c r="C91" s="93" t="str">
         <f>VLOOKUP(A91,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B91),"",TEXT(A91,0)&amp;":"&amp;B91)</f>
         <v/>
       </c>
       <c r="H91" s="63"/>
@@ -8497,15 +8418,15 @@
     <row r="92" spans="1:31">
       <c r="A92" s="155"/>
       <c r="B92" s="159"/>
-      <c r="C92" s="93" t="e">
+      <c r="C92" s="93" t="str">
         <f>VLOOKUP(A92,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B92),"",TEXT(A92,0)&amp;":"&amp;B92)</f>
         <v/>
       </c>
       <c r="H92" s="63"/>
@@ -8535,15 +8456,15 @@
     <row r="93" spans="1:31">
       <c r="A93" s="155"/>
       <c r="B93" s="159"/>
-      <c r="C93" s="93" t="e">
+      <c r="C93" s="93" t="str">
         <f>VLOOKUP(A93,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B93),"",TEXT(A93,0)&amp;":"&amp;B93)</f>
         <v/>
       </c>
       <c r="H93" s="63"/>
@@ -8573,15 +8494,15 @@
     <row r="94" spans="1:31">
       <c r="A94" s="155"/>
       <c r="B94" s="159"/>
-      <c r="C94" s="93" t="e">
+      <c r="C94" s="93" t="str">
         <f>VLOOKUP(A94,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B94),"",TEXT(A94,0)&amp;":"&amp;B94)</f>
         <v/>
       </c>
       <c r="H94" s="63"/>
@@ -8611,15 +8532,15 @@
     <row r="95" spans="1:31">
       <c r="A95" s="155"/>
       <c r="B95" s="159"/>
-      <c r="C95" s="93" t="e">
+      <c r="C95" s="93" t="str">
         <f>VLOOKUP(A95,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
       <c r="G95" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B95),"",TEXT(A95,0)&amp;":"&amp;B95)</f>
         <v/>
       </c>
       <c r="H95" s="63"/>
@@ -8649,15 +8570,15 @@
     <row r="96" spans="1:31">
       <c r="A96" s="155"/>
       <c r="B96" s="159"/>
-      <c r="C96" s="93" t="e">
+      <c r="C96" s="93" t="str">
         <f>VLOOKUP(A96,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
       <c r="G96" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B96),"",TEXT(A96,0)&amp;":"&amp;B96)</f>
         <v/>
       </c>
       <c r="H96" s="63"/>
@@ -8687,15 +8608,15 @@
     <row r="97" spans="1:31">
       <c r="A97" s="155"/>
       <c r="B97" s="159"/>
-      <c r="C97" s="93" t="e">
+      <c r="C97" s="93" t="str">
         <f>VLOOKUP(A97,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
       <c r="G97" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B97),"",TEXT(A97,0)&amp;":"&amp;B97)</f>
         <v/>
       </c>
       <c r="H97" s="63"/>
@@ -8725,15 +8646,15 @@
     <row r="98" spans="1:31">
       <c r="A98" s="155"/>
       <c r="B98" s="159"/>
-      <c r="C98" s="93" t="e">
+      <c r="C98" s="93" t="str">
         <f>VLOOKUP(A98,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
       <c r="G98" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B98),"",TEXT(A98,0)&amp;":"&amp;B98)</f>
         <v/>
       </c>
       <c r="H98" s="63"/>
@@ -8763,15 +8684,15 @@
     <row r="99" spans="1:31">
       <c r="A99" s="155"/>
       <c r="B99" s="159"/>
-      <c r="C99" s="93" t="e">
+      <c r="C99" s="93" t="str">
         <f>VLOOKUP(A99,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
       <c r="G99" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B99),"",TEXT(A99,0)&amp;":"&amp;B99)</f>
         <v/>
       </c>
       <c r="H99" s="63"/>
@@ -8801,15 +8722,15 @@
     <row r="100" spans="1:31">
       <c r="A100" s="155"/>
       <c r="B100" s="159"/>
-      <c r="C100" s="93" t="e">
+      <c r="C100" s="93" t="str">
         <f>VLOOKUP(A100,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
       <c r="G100" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B100),"",TEXT(A100,0)&amp;":"&amp;B100)</f>
         <v/>
       </c>
       <c r="H100" s="63"/>
@@ -8839,15 +8760,15 @@
     <row r="101" spans="1:31">
       <c r="A101" s="155"/>
       <c r="B101" s="159"/>
-      <c r="C101" s="93" t="e">
+      <c r="C101" s="93" t="str">
         <f>VLOOKUP(A101,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
       <c r="G101" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B101),"",TEXT(A101,0)&amp;":"&amp;B101)</f>
         <v/>
       </c>
       <c r="H101" s="63"/>
@@ -8877,15 +8798,15 @@
     <row r="102" spans="1:31">
       <c r="A102" s="155"/>
       <c r="B102" s="159"/>
-      <c r="C102" s="93" t="e">
+      <c r="C102" s="93" t="str">
         <f>VLOOKUP(A102,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
       <c r="G102" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B102),"",TEXT(A102,0)&amp;":"&amp;B102)</f>
         <v/>
       </c>
       <c r="H102" s="63"/>
@@ -8915,15 +8836,15 @@
     <row r="103" spans="1:31">
       <c r="A103" s="155"/>
       <c r="B103" s="159"/>
-      <c r="C103" s="93" t="e">
+      <c r="C103" s="93" t="str">
         <f>VLOOKUP(A103,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
       <c r="G103" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(B103),"",TEXT(A103,0)&amp;":"&amp;B103)</f>
         <v/>
       </c>
       <c r="H103" s="63"/>
@@ -8953,15 +8874,15 @@
     <row r="104" spans="1:31">
       <c r="A104" s="155"/>
       <c r="B104" s="159"/>
-      <c r="C104" s="93" t="e">
+      <c r="C104" s="93" t="str">
         <f>VLOOKUP(A104,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
       <c r="F104" s="17"/>
       <c r="G104" s="21" t="str">
-        <f t="shared" ref="G104:G135" si="3">IF(ISBLANK(B104),"",TEXT(A104,0)&amp;":"&amp;B104)</f>
+        <f>IF(ISBLANK(B104),"",TEXT(A104,0)&amp;":"&amp;B104)</f>
         <v/>
       </c>
       <c r="H104" s="63"/>
@@ -8991,15 +8912,15 @@
     <row r="105" spans="1:31">
       <c r="A105" s="155"/>
       <c r="B105" s="159"/>
-      <c r="C105" s="93" t="e">
+      <c r="C105" s="93" t="str">
         <f>VLOOKUP(A105,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
       <c r="G105" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B105),"",TEXT(A105,0)&amp;":"&amp;B105)</f>
         <v/>
       </c>
       <c r="H105" s="63"/>
@@ -9029,15 +8950,15 @@
     <row r="106" spans="1:31">
       <c r="A106" s="155"/>
       <c r="B106" s="159"/>
-      <c r="C106" s="93" t="e">
+      <c r="C106" s="93" t="str">
         <f>VLOOKUP(A106,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
       <c r="G106" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B106),"",TEXT(A106,0)&amp;":"&amp;B106)</f>
         <v/>
       </c>
       <c r="H106" s="63"/>
@@ -9067,15 +8988,15 @@
     <row r="107" spans="1:31">
       <c r="A107" s="155"/>
       <c r="B107" s="159"/>
-      <c r="C107" s="93" t="e">
+      <c r="C107" s="93" t="str">
         <f>VLOOKUP(A107,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
       <c r="G107" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B107),"",TEXT(A107,0)&amp;":"&amp;B107)</f>
         <v/>
       </c>
       <c r="H107" s="63"/>
@@ -9105,15 +9026,15 @@
     <row r="108" spans="1:31">
       <c r="A108" s="155"/>
       <c r="B108" s="159"/>
-      <c r="C108" s="93" t="e">
+      <c r="C108" s="93" t="str">
         <f>VLOOKUP(A108,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
       <c r="G108" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B108),"",TEXT(A108,0)&amp;":"&amp;B108)</f>
         <v/>
       </c>
       <c r="H108" s="63"/>
@@ -9143,15 +9064,15 @@
     <row r="109" spans="1:31">
       <c r="A109" s="155"/>
       <c r="B109" s="159"/>
-      <c r="C109" s="93" t="e">
+      <c r="C109" s="93" t="str">
         <f>VLOOKUP(A109,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
       <c r="G109" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B109),"",TEXT(A109,0)&amp;":"&amp;B109)</f>
         <v/>
       </c>
       <c r="H109" s="63"/>
@@ -9181,15 +9102,15 @@
     <row r="110" spans="1:31">
       <c r="A110" s="155"/>
       <c r="B110" s="159"/>
-      <c r="C110" s="93" t="e">
+      <c r="C110" s="93" t="str">
         <f>VLOOKUP(A110,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
       <c r="G110" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B110),"",TEXT(A110,0)&amp;":"&amp;B110)</f>
         <v/>
       </c>
       <c r="H110" s="63"/>
@@ -9219,15 +9140,15 @@
     <row r="111" spans="1:31">
       <c r="A111" s="155"/>
       <c r="B111" s="159"/>
-      <c r="C111" s="93" t="e">
+      <c r="C111" s="93" t="str">
         <f>VLOOKUP(A111,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B111),"",TEXT(A111,0)&amp;":"&amp;B111)</f>
         <v/>
       </c>
       <c r="H111" s="63"/>
@@ -9257,15 +9178,15 @@
     <row r="112" spans="1:31">
       <c r="A112" s="155"/>
       <c r="B112" s="159"/>
-      <c r="C112" s="93" t="e">
+      <c r="C112" s="93" t="str">
         <f>VLOOKUP(A112,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B112),"",TEXT(A112,0)&amp;":"&amp;B112)</f>
         <v/>
       </c>
       <c r="H112" s="63"/>
@@ -9295,15 +9216,15 @@
     <row r="113" spans="1:31">
       <c r="A113" s="155"/>
       <c r="B113" s="159"/>
-      <c r="C113" s="93" t="e">
+      <c r="C113" s="93" t="str">
         <f>VLOOKUP(A113,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
       <c r="G113" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B113),"",TEXT(A113,0)&amp;":"&amp;B113)</f>
         <v/>
       </c>
       <c r="H113" s="63"/>
@@ -9333,15 +9254,15 @@
     <row r="114" spans="1:31">
       <c r="A114" s="155"/>
       <c r="B114" s="159"/>
-      <c r="C114" s="93" t="e">
+      <c r="C114" s="93" t="str">
         <f>VLOOKUP(A114,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B114),"",TEXT(A114,0)&amp;":"&amp;B114)</f>
         <v/>
       </c>
       <c r="H114" s="63"/>
@@ -9371,15 +9292,15 @@
     <row r="115" spans="1:31">
       <c r="A115" s="155"/>
       <c r="B115" s="159"/>
-      <c r="C115" s="93" t="e">
+      <c r="C115" s="93" t="str">
         <f>VLOOKUP(A115,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B115),"",TEXT(A115,0)&amp;":"&amp;B115)</f>
         <v/>
       </c>
       <c r="H115" s="63"/>
@@ -9409,15 +9330,15 @@
     <row r="116" spans="1:31">
       <c r="A116" s="155"/>
       <c r="B116" s="159"/>
-      <c r="C116" s="93" t="e">
+      <c r="C116" s="93" t="str">
         <f>VLOOKUP(A116,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B116),"",TEXT(A116,0)&amp;":"&amp;B116)</f>
         <v/>
       </c>
       <c r="H116" s="63"/>
@@ -9447,15 +9368,15 @@
     <row r="117" spans="1:31">
       <c r="A117" s="155"/>
       <c r="B117" s="159"/>
-      <c r="C117" s="93" t="e">
+      <c r="C117" s="93" t="str">
         <f>VLOOKUP(A117,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B117),"",TEXT(A117,0)&amp;":"&amp;B117)</f>
         <v/>
       </c>
       <c r="H117" s="63"/>
@@ -9485,15 +9406,15 @@
     <row r="118" spans="1:31">
       <c r="A118" s="155"/>
       <c r="B118" s="159"/>
-      <c r="C118" s="93" t="e">
+      <c r="C118" s="93" t="str">
         <f>VLOOKUP(A118,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B118),"",TEXT(A118,0)&amp;":"&amp;B118)</f>
         <v/>
       </c>
       <c r="H118" s="63"/>
@@ -9523,15 +9444,15 @@
     <row r="119" spans="1:31">
       <c r="A119" s="155"/>
       <c r="B119" s="159"/>
-      <c r="C119" s="93" t="e">
+      <c r="C119" s="93" t="str">
         <f>VLOOKUP(A119,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B119),"",TEXT(A119,0)&amp;":"&amp;B119)</f>
         <v/>
       </c>
       <c r="H119" s="63"/>
@@ -9561,15 +9482,15 @@
     <row r="120" spans="1:31">
       <c r="A120" s="155"/>
       <c r="B120" s="159"/>
-      <c r="C120" s="93" t="e">
+      <c r="C120" s="93" t="str">
         <f>VLOOKUP(A120,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B120),"",TEXT(A120,0)&amp;":"&amp;B120)</f>
         <v/>
       </c>
       <c r="H120" s="63"/>
@@ -9599,15 +9520,15 @@
     <row r="121" spans="1:31">
       <c r="A121" s="155"/>
       <c r="B121" s="159"/>
-      <c r="C121" s="93" t="e">
+      <c r="C121" s="93" t="str">
         <f>VLOOKUP(A121,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B121),"",TEXT(A121,0)&amp;":"&amp;B121)</f>
         <v/>
       </c>
       <c r="H121" s="63"/>
@@ -9637,15 +9558,15 @@
     <row r="122" spans="1:31">
       <c r="A122" s="155"/>
       <c r="B122" s="159"/>
-      <c r="C122" s="93" t="e">
+      <c r="C122" s="93" t="str">
         <f>VLOOKUP(A122,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
       <c r="G122" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B122),"",TEXT(A122,0)&amp;":"&amp;B122)</f>
         <v/>
       </c>
       <c r="H122" s="63"/>
@@ -9675,15 +9596,15 @@
     <row r="123" spans="1:31">
       <c r="A123" s="155"/>
       <c r="B123" s="159"/>
-      <c r="C123" s="93" t="e">
+      <c r="C123" s="93" t="str">
         <f>VLOOKUP(A123,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
       <c r="G123" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B123),"",TEXT(A123,0)&amp;":"&amp;B123)</f>
         <v/>
       </c>
       <c r="H123" s="63"/>
@@ -9713,15 +9634,15 @@
     <row r="124" spans="1:31">
       <c r="A124" s="155"/>
       <c r="B124" s="159"/>
-      <c r="C124" s="93" t="e">
+      <c r="C124" s="93" t="str">
         <f>VLOOKUP(A124,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="17"/>
       <c r="F124" s="17"/>
       <c r="G124" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B124),"",TEXT(A124,0)&amp;":"&amp;B124)</f>
         <v/>
       </c>
       <c r="H124" s="63"/>
@@ -9751,15 +9672,15 @@
     <row r="125" spans="1:31">
       <c r="A125" s="155"/>
       <c r="B125" s="159"/>
-      <c r="C125" s="93" t="e">
+      <c r="C125" s="93" t="str">
         <f>VLOOKUP(A125,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
       <c r="G125" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B125),"",TEXT(A125,0)&amp;":"&amp;B125)</f>
         <v/>
       </c>
       <c r="H125" s="63"/>
@@ -9789,15 +9710,15 @@
     <row r="126" spans="1:31">
       <c r="A126" s="155"/>
       <c r="B126" s="159"/>
-      <c r="C126" s="93" t="e">
+      <c r="C126" s="93" t="str">
         <f>VLOOKUP(A126,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
       <c r="G126" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B126),"",TEXT(A126,0)&amp;":"&amp;B126)</f>
         <v/>
       </c>
       <c r="H126" s="63"/>
@@ -9827,15 +9748,15 @@
     <row r="127" spans="1:31">
       <c r="A127" s="155"/>
       <c r="B127" s="159"/>
-      <c r="C127" s="93" t="e">
+      <c r="C127" s="93" t="str">
         <f>VLOOKUP(A127,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
       <c r="G127" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B127),"",TEXT(A127,0)&amp;":"&amp;B127)</f>
         <v/>
       </c>
       <c r="H127" s="63"/>
@@ -9865,15 +9786,15 @@
     <row r="128" spans="1:31">
       <c r="A128" s="155"/>
       <c r="B128" s="159"/>
-      <c r="C128" s="93" t="e">
+      <c r="C128" s="93" t="str">
         <f>VLOOKUP(A128,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
       <c r="F128" s="17"/>
       <c r="G128" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B128),"",TEXT(A128,0)&amp;":"&amp;B128)</f>
         <v/>
       </c>
       <c r="H128" s="63"/>
@@ -9903,15 +9824,15 @@
     <row r="129" spans="1:31">
       <c r="A129" s="155"/>
       <c r="B129" s="159"/>
-      <c r="C129" s="93" t="e">
+      <c r="C129" s="93" t="str">
         <f>VLOOKUP(A129,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="17"/>
       <c r="F129" s="17"/>
       <c r="G129" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B129),"",TEXT(A129,0)&amp;":"&amp;B129)</f>
         <v/>
       </c>
       <c r="H129" s="63"/>
@@ -9941,15 +9862,15 @@
     <row r="130" spans="1:31">
       <c r="A130" s="155"/>
       <c r="B130" s="159"/>
-      <c r="C130" s="93" t="e">
+      <c r="C130" s="93" t="str">
         <f>VLOOKUP(A130,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="17"/>
       <c r="F130" s="17"/>
       <c r="G130" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B130),"",TEXT(A130,0)&amp;":"&amp;B130)</f>
         <v/>
       </c>
       <c r="H130" s="63"/>
@@ -9979,15 +9900,15 @@
     <row r="131" spans="1:31">
       <c r="A131" s="155"/>
       <c r="B131" s="159"/>
-      <c r="C131" s="93" t="e">
+      <c r="C131" s="93" t="str">
         <f>VLOOKUP(A131,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
       <c r="F131" s="17"/>
       <c r="G131" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B131),"",TEXT(A131,0)&amp;":"&amp;B131)</f>
         <v/>
       </c>
       <c r="H131" s="63"/>
@@ -10017,15 +9938,15 @@
     <row r="132" spans="1:31">
       <c r="A132" s="155"/>
       <c r="B132" s="159"/>
-      <c r="C132" s="93" t="e">
+      <c r="C132" s="93" t="str">
         <f>VLOOKUP(A132,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D132" s="17"/>
       <c r="E132" s="17"/>
       <c r="F132" s="17"/>
       <c r="G132" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B132),"",TEXT(A132,0)&amp;":"&amp;B132)</f>
         <v/>
       </c>
       <c r="H132" s="63"/>
@@ -10055,15 +9976,15 @@
     <row r="133" spans="1:31">
       <c r="A133" s="155"/>
       <c r="B133" s="159"/>
-      <c r="C133" s="93" t="e">
+      <c r="C133" s="93" t="str">
         <f>VLOOKUP(A133,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="17"/>
       <c r="F133" s="17"/>
       <c r="G133" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B133),"",TEXT(A133,0)&amp;":"&amp;B133)</f>
         <v/>
       </c>
       <c r="H133" s="63"/>
@@ -10093,15 +10014,15 @@
     <row r="134" spans="1:31">
       <c r="A134" s="155"/>
       <c r="B134" s="159"/>
-      <c r="C134" s="93" t="e">
+      <c r="C134" s="93" t="str">
         <f>VLOOKUP(A134,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="17"/>
       <c r="F134" s="17"/>
       <c r="G134" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B134),"",TEXT(A134,0)&amp;":"&amp;B134)</f>
         <v/>
       </c>
       <c r="H134" s="63"/>
@@ -10131,15 +10052,15 @@
     <row r="135" spans="1:31">
       <c r="A135" s="155"/>
       <c r="B135" s="159"/>
-      <c r="C135" s="93" t="e">
+      <c r="C135" s="93" t="str">
         <f>VLOOKUP(A135,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="17"/>
       <c r="F135" s="17"/>
       <c r="G135" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(B135),"",TEXT(A135,0)&amp;":"&amp;B135)</f>
         <v/>
       </c>
       <c r="H135" s="63"/>
@@ -10169,15 +10090,15 @@
     <row r="136" spans="1:31">
       <c r="A136" s="155"/>
       <c r="B136" s="159"/>
-      <c r="C136" s="93" t="e">
+      <c r="C136" s="93" t="str">
         <f>VLOOKUP(A136,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="17"/>
       <c r="F136" s="17"/>
       <c r="G136" s="21" t="str">
-        <f t="shared" ref="G136:G167" si="4">IF(ISBLANK(B136),"",TEXT(A136,0)&amp;":"&amp;B136)</f>
+        <f>IF(ISBLANK(B136),"",TEXT(A136,0)&amp;":"&amp;B136)</f>
         <v/>
       </c>
       <c r="H136" s="63"/>
@@ -10207,15 +10128,15 @@
     <row r="137" spans="1:31">
       <c r="A137" s="155"/>
       <c r="B137" s="159"/>
-      <c r="C137" s="93" t="e">
+      <c r="C137" s="93" t="str">
         <f>VLOOKUP(A137,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="17"/>
       <c r="F137" s="17"/>
       <c r="G137" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B137),"",TEXT(A137,0)&amp;":"&amp;B137)</f>
         <v/>
       </c>
       <c r="H137" s="63"/>
@@ -10245,15 +10166,15 @@
     <row r="138" spans="1:31">
       <c r="A138" s="155"/>
       <c r="B138" s="159"/>
-      <c r="C138" s="93" t="e">
+      <c r="C138" s="93" t="str">
         <f>VLOOKUP(A138,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="17"/>
       <c r="F138" s="17"/>
       <c r="G138" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B138),"",TEXT(A138,0)&amp;":"&amp;B138)</f>
         <v/>
       </c>
       <c r="H138" s="63"/>
@@ -10283,15 +10204,15 @@
     <row r="139" spans="1:31">
       <c r="A139" s="155"/>
       <c r="B139" s="159"/>
-      <c r="C139" s="93" t="e">
+      <c r="C139" s="93" t="str">
         <f>VLOOKUP(A139,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="17"/>
       <c r="F139" s="17"/>
       <c r="G139" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B139),"",TEXT(A139,0)&amp;":"&amp;B139)</f>
         <v/>
       </c>
       <c r="H139" s="63"/>
@@ -10321,15 +10242,15 @@
     <row r="140" spans="1:31">
       <c r="A140" s="155"/>
       <c r="B140" s="159"/>
-      <c r="C140" s="93" t="e">
+      <c r="C140" s="93" t="str">
         <f>VLOOKUP(A140,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D140" s="17"/>
       <c r="E140" s="17"/>
       <c r="F140" s="17"/>
       <c r="G140" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B140),"",TEXT(A140,0)&amp;":"&amp;B140)</f>
         <v/>
       </c>
       <c r="H140" s="63"/>
@@ -10359,15 +10280,15 @@
     <row r="141" spans="1:31">
       <c r="A141" s="155"/>
       <c r="B141" s="159"/>
-      <c r="C141" s="93" t="e">
+      <c r="C141" s="93" t="str">
         <f>VLOOKUP(A141,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="17"/>
       <c r="F141" s="17"/>
       <c r="G141" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B141),"",TEXT(A141,0)&amp;":"&amp;B141)</f>
         <v/>
       </c>
       <c r="H141" s="63"/>
@@ -10397,15 +10318,15 @@
     <row r="142" spans="1:31">
       <c r="A142" s="155"/>
       <c r="B142" s="159"/>
-      <c r="C142" s="93" t="e">
+      <c r="C142" s="93" t="str">
         <f>VLOOKUP(A142,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="17"/>
       <c r="F142" s="17"/>
       <c r="G142" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B142),"",TEXT(A142,0)&amp;":"&amp;B142)</f>
         <v/>
       </c>
       <c r="H142" s="63"/>
@@ -10435,15 +10356,15 @@
     <row r="143" spans="1:31">
       <c r="A143" s="155"/>
       <c r="B143" s="159"/>
-      <c r="C143" s="93" t="e">
+      <c r="C143" s="93" t="str">
         <f>VLOOKUP(A143,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="17"/>
       <c r="F143" s="17"/>
       <c r="G143" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B143),"",TEXT(A143,0)&amp;":"&amp;B143)</f>
         <v/>
       </c>
       <c r="H143" s="63"/>
@@ -10473,15 +10394,15 @@
     <row r="144" spans="1:31">
       <c r="A144" s="155"/>
       <c r="B144" s="159"/>
-      <c r="C144" s="93" t="e">
+      <c r="C144" s="93" t="str">
         <f>VLOOKUP(A144,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="17"/>
       <c r="F144" s="17"/>
       <c r="G144" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B144),"",TEXT(A144,0)&amp;":"&amp;B144)</f>
         <v/>
       </c>
       <c r="H144" s="63"/>
@@ -10511,15 +10432,15 @@
     <row r="145" spans="1:31">
       <c r="A145" s="155"/>
       <c r="B145" s="159"/>
-      <c r="C145" s="93" t="e">
+      <c r="C145" s="93" t="str">
         <f>VLOOKUP(A145,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="17"/>
       <c r="F145" s="17"/>
       <c r="G145" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B145),"",TEXT(A145,0)&amp;":"&amp;B145)</f>
         <v/>
       </c>
       <c r="H145" s="63"/>
@@ -10549,15 +10470,15 @@
     <row r="146" spans="1:31">
       <c r="A146" s="155"/>
       <c r="B146" s="159"/>
-      <c r="C146" s="93" t="e">
+      <c r="C146" s="93" t="str">
         <f>VLOOKUP(A146,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="17"/>
       <c r="F146" s="17"/>
       <c r="G146" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B146),"",TEXT(A146,0)&amp;":"&amp;B146)</f>
         <v/>
       </c>
       <c r="H146" s="63"/>
@@ -10587,15 +10508,15 @@
     <row r="147" spans="1:31">
       <c r="A147" s="155"/>
       <c r="B147" s="159"/>
-      <c r="C147" s="93" t="e">
+      <c r="C147" s="93" t="str">
         <f>VLOOKUP(A147,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="17"/>
       <c r="F147" s="17"/>
       <c r="G147" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B147),"",TEXT(A147,0)&amp;":"&amp;B147)</f>
         <v/>
       </c>
       <c r="H147" s="63"/>
@@ -10625,15 +10546,15 @@
     <row r="148" spans="1:31">
       <c r="A148" s="155"/>
       <c r="B148" s="159"/>
-      <c r="C148" s="93" t="e">
+      <c r="C148" s="93" t="str">
         <f>VLOOKUP(A148,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="17"/>
       <c r="F148" s="17"/>
       <c r="G148" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B148),"",TEXT(A148,0)&amp;":"&amp;B148)</f>
         <v/>
       </c>
       <c r="H148" s="63"/>
@@ -10663,15 +10584,15 @@
     <row r="149" spans="1:31">
       <c r="A149" s="155"/>
       <c r="B149" s="159"/>
-      <c r="C149" s="93" t="e">
+      <c r="C149" s="93" t="str">
         <f>VLOOKUP(A149,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
       <c r="F149" s="17"/>
       <c r="G149" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B149),"",TEXT(A149,0)&amp;":"&amp;B149)</f>
         <v/>
       </c>
       <c r="H149" s="63"/>
@@ -10701,15 +10622,15 @@
     <row r="150" spans="1:31">
       <c r="A150" s="155"/>
       <c r="B150" s="159"/>
-      <c r="C150" s="93" t="e">
+      <c r="C150" s="93" t="str">
         <f>VLOOKUP(A150,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="17"/>
       <c r="F150" s="17"/>
       <c r="G150" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B150),"",TEXT(A150,0)&amp;":"&amp;B150)</f>
         <v/>
       </c>
       <c r="H150" s="63"/>
@@ -10739,15 +10660,15 @@
     <row r="151" spans="1:31">
       <c r="A151" s="155"/>
       <c r="B151" s="159"/>
-      <c r="C151" s="93" t="e">
+      <c r="C151" s="93" t="str">
         <f>VLOOKUP(A151,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
       <c r="F151" s="17"/>
       <c r="G151" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B151),"",TEXT(A151,0)&amp;":"&amp;B151)</f>
         <v/>
       </c>
       <c r="H151" s="63"/>
@@ -10777,15 +10698,15 @@
     <row r="152" spans="1:31">
       <c r="A152" s="155"/>
       <c r="B152" s="159"/>
-      <c r="C152" s="93" t="e">
+      <c r="C152" s="93" t="str">
         <f>VLOOKUP(A152,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="17"/>
       <c r="F152" s="17"/>
       <c r="G152" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B152),"",TEXT(A152,0)&amp;":"&amp;B152)</f>
         <v/>
       </c>
       <c r="H152" s="63"/>
@@ -10815,15 +10736,15 @@
     <row r="153" spans="1:31">
       <c r="A153" s="155"/>
       <c r="B153" s="159"/>
-      <c r="C153" s="93" t="e">
+      <c r="C153" s="93" t="str">
         <f>VLOOKUP(A153,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
       <c r="G153" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B153),"",TEXT(A153,0)&amp;":"&amp;B153)</f>
         <v/>
       </c>
       <c r="H153" s="63"/>
@@ -10853,15 +10774,15 @@
     <row r="154" spans="1:31">
       <c r="A154" s="155"/>
       <c r="B154" s="159"/>
-      <c r="C154" s="93" t="e">
+      <c r="C154" s="93" t="str">
         <f>VLOOKUP(A154,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D154" s="17"/>
       <c r="E154" s="17"/>
       <c r="F154" s="17"/>
       <c r="G154" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B154),"",TEXT(A154,0)&amp;":"&amp;B154)</f>
         <v/>
       </c>
       <c r="H154" s="63"/>
@@ -10891,15 +10812,15 @@
     <row r="155" spans="1:31">
       <c r="A155" s="155"/>
       <c r="B155" s="159"/>
-      <c r="C155" s="93" t="e">
+      <c r="C155" s="93" t="str">
         <f>VLOOKUP(A155,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="17"/>
       <c r="F155" s="17"/>
       <c r="G155" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B155),"",TEXT(A155,0)&amp;":"&amp;B155)</f>
         <v/>
       </c>
       <c r="H155" s="63"/>
@@ -10929,15 +10850,15 @@
     <row r="156" spans="1:31">
       <c r="A156" s="155"/>
       <c r="B156" s="159"/>
-      <c r="C156" s="93" t="e">
+      <c r="C156" s="93" t="str">
         <f>VLOOKUP(A156,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="17"/>
       <c r="F156" s="17"/>
       <c r="G156" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B156),"",TEXT(A156,0)&amp;":"&amp;B156)</f>
         <v/>
       </c>
       <c r="H156" s="63"/>
@@ -10967,15 +10888,15 @@
     <row r="157" spans="1:31">
       <c r="A157" s="155"/>
       <c r="B157" s="159"/>
-      <c r="C157" s="93" t="e">
+      <c r="C157" s="93" t="str">
         <f>VLOOKUP(A157,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="17"/>
       <c r="F157" s="17"/>
       <c r="G157" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B157),"",TEXT(A157,0)&amp;":"&amp;B157)</f>
         <v/>
       </c>
       <c r="H157" s="63"/>
@@ -11005,15 +10926,15 @@
     <row r="158" spans="1:31">
       <c r="A158" s="155"/>
       <c r="B158" s="159"/>
-      <c r="C158" s="93" t="e">
+      <c r="C158" s="93" t="str">
         <f>VLOOKUP(A158,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="17"/>
       <c r="F158" s="17"/>
       <c r="G158" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B158),"",TEXT(A158,0)&amp;":"&amp;B158)</f>
         <v/>
       </c>
       <c r="H158" s="63"/>
@@ -11043,15 +10964,15 @@
     <row r="159" spans="1:31">
       <c r="A159" s="155"/>
       <c r="B159" s="159"/>
-      <c r="C159" s="93" t="e">
+      <c r="C159" s="93" t="str">
         <f>VLOOKUP(A159,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="17"/>
       <c r="F159" s="17"/>
       <c r="G159" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B159),"",TEXT(A159,0)&amp;":"&amp;B159)</f>
         <v/>
       </c>
       <c r="H159" s="63"/>
@@ -11081,15 +11002,15 @@
     <row r="160" spans="1:31">
       <c r="A160" s="155"/>
       <c r="B160" s="159"/>
-      <c r="C160" s="93" t="e">
+      <c r="C160" s="93" t="str">
         <f>VLOOKUP(A160,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="17"/>
       <c r="F160" s="17"/>
       <c r="G160" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B160),"",TEXT(A160,0)&amp;":"&amp;B160)</f>
         <v/>
       </c>
       <c r="H160" s="63"/>
@@ -11119,15 +11040,15 @@
     <row r="161" spans="1:31">
       <c r="A161" s="155"/>
       <c r="B161" s="159"/>
-      <c r="C161" s="93" t="e">
+      <c r="C161" s="93" t="str">
         <f>VLOOKUP(A161,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="17"/>
       <c r="F161" s="17"/>
       <c r="G161" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B161),"",TEXT(A161,0)&amp;":"&amp;B161)</f>
         <v/>
       </c>
       <c r="H161" s="63"/>
@@ -11157,15 +11078,15 @@
     <row r="162" spans="1:31">
       <c r="A162" s="155"/>
       <c r="B162" s="159"/>
-      <c r="C162" s="93" t="e">
+      <c r="C162" s="93" t="str">
         <f>VLOOKUP(A162,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="17"/>
       <c r="F162" s="17"/>
       <c r="G162" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B162),"",TEXT(A162,0)&amp;":"&amp;B162)</f>
         <v/>
       </c>
       <c r="H162" s="63"/>
@@ -11195,15 +11116,15 @@
     <row r="163" spans="1:31">
       <c r="A163" s="155"/>
       <c r="B163" s="159"/>
-      <c r="C163" s="93" t="e">
+      <c r="C163" s="93" t="str">
         <f>VLOOKUP(A163,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="17"/>
       <c r="F163" s="17"/>
       <c r="G163" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B163),"",TEXT(A163,0)&amp;":"&amp;B163)</f>
         <v/>
       </c>
       <c r="H163" s="63"/>
@@ -11233,15 +11154,15 @@
     <row r="164" spans="1:31">
       <c r="A164" s="155"/>
       <c r="B164" s="159"/>
-      <c r="C164" s="93" t="e">
+      <c r="C164" s="93" t="str">
         <f>VLOOKUP(A164,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="17"/>
       <c r="F164" s="17"/>
       <c r="G164" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B164),"",TEXT(A164,0)&amp;":"&amp;B164)</f>
         <v/>
       </c>
       <c r="H164" s="63"/>
@@ -11271,15 +11192,15 @@
     <row r="165" spans="1:31">
       <c r="A165" s="155"/>
       <c r="B165" s="159"/>
-      <c r="C165" s="93" t="e">
+      <c r="C165" s="93" t="str">
         <f>VLOOKUP(A165,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D165" s="17"/>
       <c r="E165" s="17"/>
       <c r="F165" s="17"/>
       <c r="G165" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B165),"",TEXT(A165,0)&amp;":"&amp;B165)</f>
         <v/>
       </c>
       <c r="H165" s="63"/>
@@ -11309,15 +11230,15 @@
     <row r="166" spans="1:31">
       <c r="A166" s="155"/>
       <c r="B166" s="159"/>
-      <c r="C166" s="93" t="e">
+      <c r="C166" s="93" t="str">
         <f>VLOOKUP(A166,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D166" s="17"/>
       <c r="E166" s="17"/>
       <c r="F166" s="17"/>
       <c r="G166" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B166),"",TEXT(A166,0)&amp;":"&amp;B166)</f>
         <v/>
       </c>
       <c r="H166" s="63"/>
@@ -11347,15 +11268,15 @@
     <row r="167" spans="1:31">
       <c r="A167" s="155"/>
       <c r="B167" s="159"/>
-      <c r="C167" s="93" t="e">
+      <c r="C167" s="93" t="str">
         <f>VLOOKUP(A167,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
       <c r="F167" s="17"/>
       <c r="G167" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B167),"",TEXT(A167,0)&amp;":"&amp;B167)</f>
         <v/>
       </c>
       <c r="H167" s="63"/>
@@ -11385,15 +11306,15 @@
     <row r="168" spans="1:31">
       <c r="A168" s="155"/>
       <c r="B168" s="159"/>
-      <c r="C168" s="93" t="e">
+      <c r="C168" s="93" t="str">
         <f>VLOOKUP(A168,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D168" s="17"/>
       <c r="E168" s="17"/>
       <c r="F168" s="17"/>
       <c r="G168" s="21" t="str">
-        <f t="shared" ref="G168:G177" si="5">IF(ISBLANK(B168),"",TEXT(A168,0)&amp;":"&amp;B168)</f>
+        <f>IF(ISBLANK(B168),"",TEXT(A168,0)&amp;":"&amp;B168)</f>
         <v/>
       </c>
       <c r="H168" s="63"/>
@@ -11423,15 +11344,15 @@
     <row r="169" spans="1:31">
       <c r="A169" s="155"/>
       <c r="B169" s="159"/>
-      <c r="C169" s="93" t="e">
+      <c r="C169" s="93" t="str">
         <f>VLOOKUP(A169,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="17"/>
       <c r="F169" s="17"/>
       <c r="G169" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B169),"",TEXT(A169,0)&amp;":"&amp;B169)</f>
         <v/>
       </c>
       <c r="H169" s="63"/>
@@ -11461,15 +11382,15 @@
     <row r="170" spans="1:31">
       <c r="A170" s="155"/>
       <c r="B170" s="159"/>
-      <c r="C170" s="93" t="e">
+      <c r="C170" s="93" t="str">
         <f>VLOOKUP(A170,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D170" s="17"/>
       <c r="E170" s="17"/>
       <c r="F170" s="17"/>
       <c r="G170" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B170),"",TEXT(A170,0)&amp;":"&amp;B170)</f>
         <v/>
       </c>
       <c r="H170" s="63"/>
@@ -11499,15 +11420,15 @@
     <row r="171" spans="1:31">
       <c r="A171" s="155"/>
       <c r="B171" s="159"/>
-      <c r="C171" s="93" t="e">
+      <c r="C171" s="93" t="str">
         <f>VLOOKUP(A171,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="17"/>
       <c r="F171" s="17"/>
       <c r="G171" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B171),"",TEXT(A171,0)&amp;":"&amp;B171)</f>
         <v/>
       </c>
       <c r="H171" s="63"/>
@@ -11537,15 +11458,15 @@
     <row r="172" spans="1:31">
       <c r="A172" s="155"/>
       <c r="B172" s="159"/>
-      <c r="C172" s="93" t="e">
+      <c r="C172" s="93" t="str">
         <f>VLOOKUP(A172,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D172" s="17"/>
       <c r="E172" s="17"/>
       <c r="F172" s="17"/>
       <c r="G172" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B172),"",TEXT(A172,0)&amp;":"&amp;B172)</f>
         <v/>
       </c>
       <c r="H172" s="63"/>
@@ -11575,15 +11496,15 @@
     <row r="173" spans="1:31">
       <c r="A173" s="155"/>
       <c r="B173" s="159"/>
-      <c r="C173" s="93" t="e">
+      <c r="C173" s="93" t="str">
         <f>VLOOKUP(A173,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D173" s="17"/>
       <c r="E173" s="17"/>
       <c r="F173" s="17"/>
       <c r="G173" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B173),"",TEXT(A173,0)&amp;":"&amp;B173)</f>
         <v/>
       </c>
       <c r="H173" s="63"/>
@@ -11613,15 +11534,15 @@
     <row r="174" spans="1:31">
       <c r="A174" s="155"/>
       <c r="B174" s="159"/>
-      <c r="C174" s="93" t="e">
+      <c r="C174" s="93" t="str">
         <f>VLOOKUP(A174,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D174" s="17"/>
       <c r="E174" s="17"/>
       <c r="F174" s="17"/>
       <c r="G174" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B174),"",TEXT(A174,0)&amp;":"&amp;B174)</f>
         <v/>
       </c>
       <c r="H174" s="63"/>
@@ -11651,15 +11572,15 @@
     <row r="175" spans="1:31">
       <c r="A175" s="155"/>
       <c r="B175" s="159"/>
-      <c r="C175" s="93" t="e">
+      <c r="C175" s="93" t="str">
         <f>VLOOKUP(A175,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D175" s="17"/>
       <c r="E175" s="17"/>
       <c r="F175" s="17"/>
       <c r="G175" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B175),"",TEXT(A175,0)&amp;":"&amp;B175)</f>
         <v/>
       </c>
       <c r="H175" s="63"/>
@@ -11689,15 +11610,15 @@
     <row r="176" spans="1:31">
       <c r="A176" s="155"/>
       <c r="B176" s="159"/>
-      <c r="C176" s="93" t="e">
+      <c r="C176" s="93" t="str">
         <f>VLOOKUP(A176,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D176" s="17"/>
       <c r="E176" s="17"/>
       <c r="F176" s="17"/>
       <c r="G176" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B176),"",TEXT(A176,0)&amp;":"&amp;B176)</f>
         <v/>
       </c>
       <c r="H176" s="63"/>
@@ -11727,15 +11648,15 @@
     <row r="177" spans="1:31">
       <c r="A177" s="156"/>
       <c r="B177" s="159"/>
-      <c r="C177" s="93" t="e">
+      <c r="C177" s="93" t="str">
         <f>VLOOKUP(A177,'Load case definition'!$A$7:$C$180,3,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
       <c r="G177" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B177),"",TEXT(A177,0)&amp;":"&amp;B177)</f>
         <v/>
       </c>
       <c r="H177" s="65"/>
@@ -11777,8 +11698,8 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="H2:H7"/>
+    <mergeCell ref="S3:U6"/>
     <mergeCell ref="Y3:Y7"/>
-    <mergeCell ref="S3:U6"/>
     <mergeCell ref="P3:R7"/>
     <mergeCell ref="Z2:Z7"/>
     <mergeCell ref="AB2:AB7"/>
@@ -11831,7 +11752,7 @@
       <formula>$H1="self-weight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:O1 S1 V1 M3:O1048576 S3:S1048576 V3:V1048576">
+  <conditionalFormatting sqref="M1:O1 M3:O1048576 S1 S3:S1048576 V1 V3:V1048576">
     <cfRule type="expression" dxfId="20" priority="15">
       <formula>$H1="uniform load"</formula>
     </cfRule>
@@ -11856,7 +11777,7 @@
       <formula>$H1 ="nodal force"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:V1 U3:V6 V7 U8:V1048576">
+  <conditionalFormatting sqref="U1:V1 U3:V6 U8:V1048576 V7">
     <cfRule type="expression" dxfId="15" priority="64">
       <formula>$H1="trapezoidal load (2p)"</formula>
     </cfRule>
@@ -12420,81 +12341,31 @@
       <c r="AD3" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF3" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG3" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH3" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI3" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ3" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK3" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL3" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM3" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN3" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO3" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP3" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ3" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR3" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS3" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT3" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU3" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV3" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW3" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX3" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="AY3" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ3" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA3" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB3" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC3" s="92" t="s">
-        <v>101</v>
-      </c>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="92"/>
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="92"/>
+      <c r="AS3" s="92"/>
+      <c r="AT3" s="92"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="92"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="92"/>
+      <c r="AY3" s="92"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="92"/>
+      <c r="BB3" s="92"/>
+      <c r="BC3" s="92"/>
       <c r="BD3" s="92"/>
       <c r="BE3" s="92"/>
       <c r="BF3" s="92"/>
@@ -17125,81 +16996,31 @@
       <c r="AD4" s="123">
         <v>23</v>
       </c>
-      <c r="AE4" s="123">
-        <v>1000</v>
-      </c>
-      <c r="AF4" s="123">
-        <v>1001</v>
-      </c>
-      <c r="AG4" s="123">
-        <v>2000</v>
-      </c>
-      <c r="AH4" s="123">
-        <v>2001</v>
-      </c>
-      <c r="AI4" s="123">
-        <v>2002</v>
-      </c>
-      <c r="AJ4" s="123">
-        <v>2100</v>
-      </c>
-      <c r="AK4" s="123">
-        <v>2101</v>
-      </c>
-      <c r="AL4" s="123">
-        <v>2102</v>
-      </c>
-      <c r="AM4" s="123">
-        <v>2103</v>
-      </c>
-      <c r="AN4" s="123">
-        <v>2104</v>
-      </c>
-      <c r="AO4" s="123">
-        <v>2105</v>
-      </c>
-      <c r="AP4" s="123">
-        <v>2106</v>
-      </c>
-      <c r="AQ4" s="123">
-        <v>2107</v>
-      </c>
-      <c r="AR4" s="123">
-        <v>2108</v>
-      </c>
-      <c r="AS4" s="123">
-        <v>2109</v>
-      </c>
-      <c r="AT4" s="123">
-        <v>3001</v>
-      </c>
-      <c r="AU4" s="123">
-        <v>3002</v>
-      </c>
-      <c r="AV4" s="123">
-        <v>3004</v>
-      </c>
-      <c r="AW4" s="123">
-        <v>3005</v>
-      </c>
-      <c r="AX4" s="123">
-        <v>3006</v>
-      </c>
-      <c r="AY4" s="123">
-        <v>3007</v>
-      </c>
-      <c r="AZ4" s="123">
-        <v>3008</v>
-      </c>
-      <c r="BA4" s="123">
-        <v>3009</v>
-      </c>
-      <c r="BB4" s="123">
-        <v>3010</v>
-      </c>
-      <c r="BC4" s="123">
-        <v>3011</v>
-      </c>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123"/>
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="123"/>
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
       <c r="BD4" s="123"/>
       <c r="BE4" s="123"/>
       <c r="BF4" s="123"/>
@@ -22130,56 +21951,38 @@
     </row>
     <row r="6" spans="1:4605" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F6" s="88" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4605" s="16" customFormat="1">
-      <c r="A7" s="34">
-        <v>1000</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="25">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="82">
-        <v>1</v>
-      </c>
+      <c r="A7" s="34"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="82"/>
-      <c r="J7" s="82">
-        <v>1.3</v>
-      </c>
+      <c r="J7" s="82"/>
       <c r="K7" s="82"/>
       <c r="L7" s="82"/>
       <c r="M7" s="82"/>
@@ -22369,34 +22172,16 @@
       <c r="QD7" s="82"/>
     </row>
     <row r="8" spans="1:4605" s="16" customFormat="1">
-      <c r="A8" s="10">
-        <v>1001</v>
-      </c>
-      <c r="B8" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="25">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="25">
-        <v>1</v>
-      </c>
-      <c r="G8" s="25">
-        <v>0</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="82"/>
-      <c r="I8" s="82">
-        <v>1.3</v>
-      </c>
-      <c r="J8" s="82">
-        <v>1.3</v>
-      </c>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
       <c r="K8" s="82"/>
       <c r="L8" s="82"/>
       <c r="M8" s="82"/>
@@ -22700,34 +22485,16 @@
       <c r="QD8" s="82"/>
     </row>
     <row r="9" spans="1:4605" s="16" customFormat="1">
-      <c r="A9" s="34">
-        <v>1002</v>
-      </c>
-      <c r="B9" s="121" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="25">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="25">
-        <v>1</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
+      <c r="A9" s="34"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="82"/>
-      <c r="I9" s="82">
-        <v>1.3</v>
-      </c>
-      <c r="J9" s="82">
-        <v>1.3</v>
-      </c>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
       <c r="K9" s="82"/>
       <c r="L9" s="82"/>
       <c r="M9" s="82"/>
@@ -22742,9 +22509,7 @@
       <c r="V9" s="82"/>
       <c r="W9" s="82"/>
       <c r="X9" s="82"/>
-      <c r="Y9" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="Y9" s="83"/>
       <c r="Z9" s="82"/>
       <c r="AA9" s="82"/>
       <c r="AB9" s="82"/>
@@ -23033,34 +22798,16 @@
       <c r="QD9" s="82"/>
     </row>
     <row r="10" spans="1:4605" s="16" customFormat="1">
-      <c r="A10" s="10">
-        <v>1003</v>
-      </c>
-      <c r="B10" s="121" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="25">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="25">
-        <v>1</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="82"/>
-      <c r="I10" s="82">
-        <v>1.3</v>
-      </c>
-      <c r="J10" s="82">
-        <v>1.3</v>
-      </c>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
       <c r="K10" s="82"/>
       <c r="L10" s="82"/>
       <c r="M10" s="82"/>
@@ -23077,9 +22824,7 @@
       <c r="X10" s="82"/>
       <c r="Z10" s="82"/>
       <c r="AA10" s="82"/>
-      <c r="AB10" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="AB10" s="83"/>
       <c r="AC10" s="82"/>
       <c r="AD10" s="82"/>
       <c r="AE10" s="82"/>
@@ -23365,40 +23110,18 @@
       <c r="QD10" s="82"/>
     </row>
     <row r="11" spans="1:4605" s="16" customFormat="1">
-      <c r="A11" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="25">
-        <v>1</v>
-      </c>
-      <c r="E11" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="25">
-        <v>1</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="83"/>
-      <c r="I11" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="J11" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="K11" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="L11" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
       <c r="M11" s="83"/>
       <c r="N11" s="83"/>
       <c r="O11" s="83"/>
@@ -23411,15 +23134,9 @@
       <c r="V11" s="83"/>
       <c r="W11" s="83"/>
       <c r="X11" s="83"/>
-      <c r="Y11" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="Z11" s="83">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
       <c r="AB11" s="83"/>
       <c r="AC11" s="83"/>
       <c r="AD11" s="83"/>
@@ -23719,41 +23436,19 @@
       <c r="QD11" s="82"/>
     </row>
     <row r="12" spans="1:4605" s="16" customFormat="1">
-      <c r="A12" s="10">
-        <v>2001</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="25">
-        <v>1</v>
-      </c>
-      <c r="E12" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="25">
-        <v>1</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="83"/>
-      <c r="I12" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="J12" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="K12" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
       <c r="L12" s="83"/>
-      <c r="M12" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="M12" s="83"/>
       <c r="N12" s="83"/>
       <c r="O12" s="83"/>
       <c r="P12" s="83"/>
@@ -23765,15 +23460,9 @@
       <c r="V12" s="83"/>
       <c r="W12" s="83"/>
       <c r="X12" s="83"/>
-      <c r="Y12" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="Z12" s="83">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
       <c r="AB12" s="83"/>
       <c r="AC12" s="83"/>
       <c r="AD12" s="83"/>
@@ -24094,42 +23783,20 @@
       <c r="QD12" s="82"/>
     </row>
     <row r="13" spans="1:4605" s="16" customFormat="1">
-      <c r="A13" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B13" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="25">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="25">
-        <v>1</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="83"/>
-      <c r="I13" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="J13" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="K13" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
       <c r="L13" s="83"/>
       <c r="M13" s="83"/>
-      <c r="N13" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="N13" s="83"/>
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
       <c r="Q13" s="83"/>
@@ -24140,15 +23807,9 @@
       <c r="V13" s="83"/>
       <c r="W13" s="83"/>
       <c r="X13" s="83"/>
-      <c r="Y13" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="Z13" s="83">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
       <c r="AB13" s="83"/>
       <c r="AC13" s="83"/>
       <c r="AD13" s="83"/>
@@ -24474,40 +24135,18 @@
       <c r="QD13" s="83"/>
     </row>
     <row r="14" spans="1:4605" s="16" customFormat="1">
-      <c r="A14" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="25">
-        <v>1</v>
-      </c>
-      <c r="E14" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="25">
-        <v>1</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="83"/>
-      <c r="I14" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="J14" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="K14" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="L14" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
       <c r="M14" s="83"/>
       <c r="N14" s="83"/>
       <c r="O14" s="83"/>
@@ -24523,15 +24162,9 @@
       <c r="Y14" s="83"/>
       <c r="Z14" s="83"/>
       <c r="AA14" s="83"/>
-      <c r="AB14" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="AC14" s="83">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="83"/>
       <c r="AE14" s="83"/>
       <c r="AF14" s="83"/>
       <c r="AG14" s="83"/>
@@ -24828,41 +24461,19 @@
       <c r="QD14" s="82"/>
     </row>
     <row r="15" spans="1:4605" s="16" customFormat="1">
-      <c r="A15" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="25">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="25">
-        <v>1</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0</v>
-      </c>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="83"/>
-      <c r="I15" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="J15" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="K15" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
       <c r="L15" s="83"/>
-      <c r="M15" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="M15" s="83"/>
       <c r="N15" s="83"/>
       <c r="O15" s="83"/>
       <c r="P15" s="83"/>
@@ -24877,15 +24488,9 @@
       <c r="Y15" s="83"/>
       <c r="Z15" s="83"/>
       <c r="AA15" s="83"/>
-      <c r="AB15" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="AC15" s="83">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="83"/>
       <c r="AE15" s="83"/>
       <c r="AF15" s="83"/>
       <c r="AG15" s="83"/>
@@ -25203,42 +24808,20 @@
       <c r="QD15" s="82"/>
     </row>
     <row r="16" spans="1:4605" s="16" customFormat="1">
-      <c r="A16" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B16" s="121" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="25">
-        <v>1</v>
-      </c>
-      <c r="E16" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="25">
-        <v>1</v>
-      </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
+      <c r="A16" s="10"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="83"/>
-      <c r="I16" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="J16" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="K16" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="83"/>
       <c r="M16" s="83"/>
-      <c r="N16" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="N16" s="83"/>
       <c r="O16" s="83"/>
       <c r="P16" s="83"/>
       <c r="Q16" s="83"/>
@@ -25252,15 +24835,9 @@
       <c r="Y16" s="83"/>
       <c r="Z16" s="83"/>
       <c r="AA16" s="83"/>
-      <c r="AB16" s="83">
-        <v>1.3</v>
-      </c>
-      <c r="AC16" s="83">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="83"/>
       <c r="AE16" s="83"/>
       <c r="AF16" s="83"/>
       <c r="AG16" s="83"/>
@@ -25583,43 +25160,21 @@
       <c r="QD16" s="83"/>
     </row>
     <row r="17" spans="1:446" s="16" customFormat="1">
-      <c r="A17" s="10">
-        <v>2100</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="25">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="25">
-        <v>1</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
-      <c r="H17" s="83">
-        <v>1</v>
-      </c>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="83"/>
       <c r="I17" s="83"/>
-      <c r="J17" s="83">
-        <v>1</v>
-      </c>
-      <c r="K17" s="83">
-        <v>1</v>
-      </c>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
       <c r="L17" s="83"/>
       <c r="M17" s="83"/>
       <c r="N17" s="83"/>
-      <c r="O17" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="O17" s="83"/>
       <c r="P17" s="83"/>
       <c r="Q17" s="83"/>
       <c r="R17" s="83"/>
@@ -25952,44 +25507,22 @@
       <c r="QD17" s="82"/>
     </row>
     <row r="18" spans="1:446" s="16" customFormat="1">
-      <c r="A18" s="10">
-        <v>2101</v>
-      </c>
-      <c r="B18" s="121" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="25">
-        <v>1</v>
-      </c>
-      <c r="E18" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="25">
-        <v>1</v>
-      </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="83">
-        <v>1</v>
-      </c>
+      <c r="A18" s="10"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="83"/>
-      <c r="J18" s="83">
-        <v>1</v>
-      </c>
-      <c r="K18" s="83">
-        <v>1</v>
-      </c>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
       <c r="L18" s="83"/>
       <c r="M18" s="83"/>
       <c r="N18" s="83"/>
       <c r="O18" s="83"/>
-      <c r="P18" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="P18" s="83"/>
       <c r="Q18" s="83"/>
       <c r="R18" s="83"/>
       <c r="S18" s="83"/>
@@ -26326,45 +25859,23 @@
       <c r="QD18" s="83"/>
     </row>
     <row r="19" spans="1:446" s="16" customFormat="1">
-      <c r="A19" s="10">
-        <v>2102</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="25">
-        <v>1</v>
-      </c>
-      <c r="E19" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="25">
-        <v>1</v>
-      </c>
-      <c r="G19" s="25">
-        <v>0</v>
-      </c>
-      <c r="H19" s="83">
-        <v>1</v>
-      </c>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="83"/>
       <c r="I19" s="83"/>
-      <c r="J19" s="83">
-        <v>1</v>
-      </c>
-      <c r="K19" s="83">
-        <v>1</v>
-      </c>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="83"/>
       <c r="M19" s="83"/>
       <c r="N19" s="83"/>
       <c r="O19" s="83"/>
       <c r="P19" s="83"/>
-      <c r="Q19" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
       <c r="S19" s="83"/>
       <c r="T19" s="83"/>
@@ -26674,46 +26185,24 @@
       <c r="QD19" s="82"/>
     </row>
     <row r="20" spans="1:446" s="16" customFormat="1">
-      <c r="A20" s="10">
-        <v>2103</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="25">
-        <v>1</v>
-      </c>
-      <c r="E20" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="25">
-        <v>1</v>
-      </c>
-      <c r="G20" s="25">
-        <v>0</v>
-      </c>
-      <c r="H20" s="83">
-        <v>1</v>
-      </c>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="83"/>
       <c r="I20" s="83"/>
-      <c r="J20" s="83">
-        <v>1</v>
-      </c>
-      <c r="K20" s="83">
-        <v>1</v>
-      </c>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
       <c r="L20" s="83"/>
       <c r="M20" s="83"/>
       <c r="N20" s="83"/>
       <c r="O20" s="83"/>
       <c r="P20" s="83"/>
       <c r="Q20" s="83"/>
-      <c r="R20" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="R20" s="83"/>
       <c r="S20" s="83"/>
       <c r="T20" s="83"/>
       <c r="U20" s="83"/>
@@ -27043,37 +26532,17 @@
       <c r="QD20" s="82"/>
     </row>
     <row r="21" spans="1:446" s="16" customFormat="1">
-      <c r="A21" s="10">
-        <v>2104</v>
-      </c>
-      <c r="B21" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="25">
-        <v>1</v>
-      </c>
-      <c r="E21" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="25">
-        <v>1</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0</v>
-      </c>
-      <c r="H21" s="83">
-        <v>1</v>
-      </c>
+      <c r="A21" s="10"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="83"/>
       <c r="I21" s="83"/>
-      <c r="J21" s="83">
-        <v>1</v>
-      </c>
-      <c r="K21" s="83">
-        <v>1</v>
-      </c>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
       <c r="L21" s="83"/>
       <c r="M21" s="83"/>
       <c r="N21" s="83"/>
@@ -27081,9 +26550,7 @@
       <c r="P21" s="83"/>
       <c r="Q21" s="83"/>
       <c r="R21" s="83"/>
-      <c r="S21" s="83">
-        <v>1.3</v>
-      </c>
+      <c r="S21" s="83"/>
       <c r="T21" s="83"/>
       <c r="U21" s="83"/>
       <c r="V21" s="83"/>
@@ -27417,37 +26884,17 @@
       <c r="QD21" s="83"/>
     </row>
     <row r="22" spans="1:446" s="16" customFormat="1">
-      <c r="A22" s="11">
-        <v>2105</v>
-      </c>
-      <c r="B22" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="25">
-        <v>1</v>
-      </c>
-      <c r="E22" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="25">
-        <v>1</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="83">
-        <v>1</v>
-      </c>
+      <c r="A22" s="11"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="83"/>
       <c r="I22" s="83"/>
-      <c r="J22" s="83">
-        <v>1</v>
-      </c>
-      <c r="K22" s="83">
-        <v>1</v>
-      </c>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
       <c r="L22" s="83"/>
       <c r="M22" s="83"/>
       <c r="N22" s="83"/>
@@ -27456,9 +26903,7 @@
       <c r="Q22" s="83"/>
       <c r="R22" s="83"/>
       <c r="S22" s="83"/>
-      <c r="T22" s="83">
-        <v>1</v>
-      </c>
+      <c r="T22" s="83"/>
       <c r="U22" s="83"/>
       <c r="V22" s="83"/>
       <c r="W22" s="83"/>
@@ -27752,37 +27197,17 @@
       <c r="QD22" s="83"/>
     </row>
     <row r="23" spans="1:446" s="16" customFormat="1">
-      <c r="A23" s="11">
-        <v>2106</v>
-      </c>
-      <c r="B23" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="25">
-        <v>1</v>
-      </c>
-      <c r="E23" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="25">
-        <v>1</v>
-      </c>
-      <c r="G23" s="25">
-        <v>0</v>
-      </c>
-      <c r="H23" s="83">
-        <v>1</v>
-      </c>
+      <c r="A23" s="11"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="83"/>
-      <c r="J23" s="83">
-        <v>1</v>
-      </c>
-      <c r="K23" s="83">
-        <v>1</v>
-      </c>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
       <c r="L23" s="83"/>
       <c r="M23" s="83"/>
       <c r="N23" s="83"/>
@@ -27792,9 +27217,7 @@
       <c r="R23" s="83"/>
       <c r="S23" s="83"/>
       <c r="T23" s="83"/>
-      <c r="U23" s="83">
-        <v>1</v>
-      </c>
+      <c r="U23" s="83"/>
       <c r="V23" s="83"/>
       <c r="W23" s="83"/>
       <c r="X23" s="83"/>
@@ -28087,37 +27510,17 @@
       <c r="QD23" s="83"/>
     </row>
     <row r="24" spans="1:446" s="16" customFormat="1">
-      <c r="A24" s="11">
-        <v>2107</v>
-      </c>
-      <c r="B24" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="25">
-        <v>1</v>
-      </c>
-      <c r="E24" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="25">
-        <v>1</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0</v>
-      </c>
-      <c r="H24" s="83">
-        <v>1</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="83"/>
-      <c r="J24" s="83">
-        <v>1</v>
-      </c>
-      <c r="K24" s="83">
-        <v>1</v>
-      </c>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
       <c r="L24" s="83"/>
       <c r="M24" s="83"/>
       <c r="N24" s="83"/>
@@ -28128,9 +27531,7 @@
       <c r="S24" s="83"/>
       <c r="T24" s="83"/>
       <c r="U24" s="83"/>
-      <c r="V24" s="83">
-        <v>1</v>
-      </c>
+      <c r="V24" s="83"/>
       <c r="W24" s="83"/>
       <c r="X24" s="83"/>
       <c r="Y24" s="83"/>
@@ -28422,37 +27823,17 @@
       <c r="QD24" s="83"/>
     </row>
     <row r="25" spans="1:446" s="16" customFormat="1">
-      <c r="A25" s="11">
-        <v>2108</v>
-      </c>
-      <c r="B25" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F25" s="25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="83">
-        <v>1</v>
-      </c>
+      <c r="A25" s="11"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="83"/>
       <c r="I25" s="83"/>
-      <c r="J25" s="83">
-        <v>1</v>
-      </c>
-      <c r="K25" s="83">
-        <v>1</v>
-      </c>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
       <c r="L25" s="83"/>
       <c r="M25" s="83"/>
       <c r="N25" s="83"/>
@@ -28464,9 +27845,7 @@
       <c r="T25" s="83"/>
       <c r="U25" s="83"/>
       <c r="V25" s="83"/>
-      <c r="W25" s="83">
-        <v>1</v>
-      </c>
+      <c r="W25" s="83"/>
       <c r="X25" s="83"/>
       <c r="Y25" s="83"/>
       <c r="Z25" s="83"/>
@@ -28757,37 +28136,17 @@
       <c r="QD25" s="83"/>
     </row>
     <row r="26" spans="1:446" s="16" customFormat="1">
-      <c r="A26" s="11">
-        <v>2109</v>
-      </c>
-      <c r="B26" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="25">
-        <v>1</v>
-      </c>
-      <c r="E26" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="25">
-        <v>1</v>
-      </c>
-      <c r="G26" s="25">
-        <v>0</v>
-      </c>
-      <c r="H26" s="83">
-        <v>1</v>
-      </c>
+      <c r="A26" s="11"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="83"/>
       <c r="I26" s="83"/>
-      <c r="J26" s="83">
-        <v>1</v>
-      </c>
-      <c r="K26" s="83">
-        <v>1</v>
-      </c>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
       <c r="L26" s="83"/>
       <c r="M26" s="83"/>
       <c r="N26" s="83"/>
@@ -28800,9 +28159,7 @@
       <c r="U26" s="83"/>
       <c r="V26" s="83"/>
       <c r="W26" s="83"/>
-      <c r="X26" s="83">
-        <v>1</v>
-      </c>
+      <c r="X26" s="83"/>
       <c r="Y26" s="83"/>
       <c r="Z26" s="83"/>
       <c r="AA26" s="83"/>
@@ -29055,36 +28412,13 @@
       <c r="QD26" s="83"/>
     </row>
     <row r="27" spans="1:446" s="16" customFormat="1">
-      <c r="A27" s="10">
-        <v>3001</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="25">
-        <v>1</v>
-      </c>
-      <c r="E27" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="25">
-        <v>1</v>
-      </c>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
+      <c r="A27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="NL27" s="83"/>
       <c r="NM27" s="83"/>
       <c r="NN27" s="83"/>
@@ -29158,36 +28492,13 @@
       <c r="QD27" s="83"/>
     </row>
     <row r="28" spans="1:446" s="16" customFormat="1">
-      <c r="A28" s="10">
-        <v>3002</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="25">
-        <v>1</v>
-      </c>
-      <c r="E28" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F28" s="25">
-        <v>1</v>
-      </c>
-      <c r="G28" s="25">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
+      <c r="A28" s="10"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
       <c r="NL28" s="83"/>
       <c r="NM28" s="83"/>
       <c r="NN28" s="83"/>
@@ -29261,40 +28572,18 @@
       <c r="QD28" s="83"/>
     </row>
     <row r="29" spans="1:446" s="16" customFormat="1">
-      <c r="A29" s="11">
-        <v>3004</v>
-      </c>
-      <c r="B29" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="25">
-        <v>1</v>
-      </c>
-      <c r="E29" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F29" s="25">
-        <v>1</v>
-      </c>
-      <c r="G29" s="25">
-        <v>0</v>
-      </c>
+      <c r="A29" s="11"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="83"/>
-      <c r="I29" s="83">
-        <v>1</v>
-      </c>
-      <c r="J29" s="83">
-        <v>1</v>
-      </c>
-      <c r="K29" s="83">
-        <v>1</v>
-      </c>
-      <c r="L29" s="83">
-        <v>0.8</v>
-      </c>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
       <c r="M29" s="83"/>
       <c r="N29" s="83"/>
       <c r="O29" s="83"/>
@@ -29556,39 +28845,13 @@
       <c r="QD29" s="83"/>
     </row>
     <row r="30" spans="1:446" s="16" customFormat="1">
-      <c r="A30" s="10">
-        <v>3005</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="25">
-        <v>1</v>
-      </c>
-      <c r="E30" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F30" s="25">
-        <v>1</v>
-      </c>
-      <c r="G30" s="25">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.8</v>
-      </c>
+      <c r="A30" s="10"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
       <c r="NL30" s="83"/>
       <c r="NM30" s="83"/>
       <c r="NN30" s="83"/>
@@ -29662,39 +28925,13 @@
       <c r="QD30" s="83"/>
     </row>
     <row r="31" spans="1:446" s="16" customFormat="1">
-      <c r="A31" s="10">
-        <v>3006</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="25">
-        <v>1</v>
-      </c>
-      <c r="E31" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F31" s="25">
-        <v>1</v>
-      </c>
-      <c r="G31" s="25">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>0.8</v>
-      </c>
+      <c r="A31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
       <c r="AB31" s="83"/>
       <c r="NL31" s="83"/>
       <c r="NM31" s="83"/>
@@ -29769,37 +29006,17 @@
       <c r="QD31" s="83"/>
     </row>
     <row r="32" spans="1:446" s="16" customFormat="1">
-      <c r="A32" s="11">
-        <v>3007</v>
-      </c>
-      <c r="B32" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="25">
-        <v>1</v>
-      </c>
-      <c r="E32" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F32" s="25">
-        <v>1</v>
-      </c>
-      <c r="G32" s="25">
-        <v>0</v>
-      </c>
+      <c r="A32" s="11"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="83"/>
-      <c r="I32" s="83">
-        <v>1</v>
-      </c>
-      <c r="J32" s="83">
-        <v>1</v>
-      </c>
-      <c r="K32" s="83">
-        <v>1</v>
-      </c>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
       <c r="L32" s="83"/>
       <c r="M32" s="83"/>
       <c r="N32" s="83"/>
@@ -29813,9 +29030,7 @@
       <c r="V32" s="83"/>
       <c r="W32" s="83"/>
       <c r="X32" s="83"/>
-      <c r="Y32" s="83">
-        <v>1</v>
-      </c>
+      <c r="Y32" s="83"/>
       <c r="Z32" s="83"/>
       <c r="AA32" s="83"/>
       <c r="AB32" s="83"/>
@@ -30104,37 +29319,17 @@
       <c r="QD32" s="83"/>
     </row>
     <row r="33" spans="1:446" s="16" customFormat="1">
-      <c r="A33" s="10">
-        <v>3008</v>
-      </c>
-      <c r="B33" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="25">
-        <v>1</v>
-      </c>
-      <c r="E33" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F33" s="25">
-        <v>1</v>
-      </c>
-      <c r="G33" s="25">
-        <v>0</v>
-      </c>
+      <c r="A33" s="10"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="83"/>
-      <c r="I33" s="83">
-        <v>1</v>
-      </c>
-      <c r="J33" s="83">
-        <v>1</v>
-      </c>
-      <c r="K33" s="83">
-        <v>1</v>
-      </c>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
       <c r="L33" s="83"/>
       <c r="M33" s="83"/>
       <c r="N33" s="83"/>
@@ -30151,9 +29346,7 @@
       <c r="Y33" s="83"/>
       <c r="Z33" s="83"/>
       <c r="AA33" s="83"/>
-      <c r="AB33" s="83">
-        <v>1</v>
-      </c>
+      <c r="AB33" s="83"/>
       <c r="AC33" s="83"/>
       <c r="AD33" s="83"/>
       <c r="AE33" s="83"/>
@@ -30439,40 +29632,18 @@
       <c r="QD33" s="83"/>
     </row>
     <row r="34" spans="1:446" s="16" customFormat="1">
-      <c r="A34" s="10">
-        <v>3009</v>
-      </c>
-      <c r="B34" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="25">
-        <v>1</v>
-      </c>
-      <c r="E34" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F34" s="25">
-        <v>1</v>
-      </c>
-      <c r="G34" s="25">
-        <v>0</v>
-      </c>
+      <c r="A34" s="10"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="83"/>
-      <c r="I34" s="83">
-        <v>1</v>
-      </c>
-      <c r="J34" s="83">
-        <v>1</v>
-      </c>
-      <c r="K34" s="83">
-        <v>1</v>
-      </c>
-      <c r="L34" s="83">
-        <v>0.8</v>
-      </c>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
       <c r="M34" s="83"/>
       <c r="N34" s="83"/>
       <c r="O34" s="83"/>
@@ -30737,45 +29908,13 @@
       <c r="QD34" s="83"/>
     </row>
     <row r="35" spans="1:446" s="16" customFormat="1">
-      <c r="A35" s="11">
-        <v>3010</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="25">
-        <v>1</v>
-      </c>
-      <c r="E35" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F35" s="25">
-        <v>1</v>
-      </c>
-      <c r="G35" s="25">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.8</v>
-      </c>
-      <c r="Y35" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="16">
-        <v>0.8</v>
-      </c>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
       <c r="NL35" s="83"/>
       <c r="NM35" s="83"/>
       <c r="NN35" s="83"/>
@@ -30849,45 +29988,13 @@
       <c r="QD35" s="83"/>
     </row>
     <row r="36" spans="1:446" s="16" customFormat="1">
-      <c r="A36" s="10">
-        <v>3011</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="25">
-        <v>1</v>
-      </c>
-      <c r="E36" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F36" s="25">
-        <v>1</v>
-      </c>
-      <c r="G36" s="25">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>0.8</v>
-      </c>
-      <c r="Y36" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="16">
-        <v>0.8</v>
-      </c>
+      <c r="A36" s="10"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
       <c r="NL36" s="83"/>
       <c r="NM36" s="83"/>
       <c r="NN36" s="83"/>
@@ -30961,40 +30068,18 @@
       <c r="QD36" s="83"/>
     </row>
     <row r="37" spans="1:446" s="16" customFormat="1">
-      <c r="A37" s="10">
-        <v>3012</v>
-      </c>
-      <c r="B37" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="25">
-        <v>1</v>
-      </c>
-      <c r="E37" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F37" s="25">
-        <v>1</v>
-      </c>
-      <c r="G37" s="25">
-        <v>0</v>
-      </c>
+      <c r="A37" s="10"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="83"/>
-      <c r="I37" s="83">
-        <v>1</v>
-      </c>
-      <c r="J37" s="83">
-        <v>1</v>
-      </c>
-      <c r="K37" s="83">
-        <v>1</v>
-      </c>
-      <c r="L37" s="83">
-        <v>0.8</v>
-      </c>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
       <c r="M37" s="83"/>
       <c r="N37" s="83"/>
       <c r="O37" s="83"/>
@@ -31007,19 +30092,8 @@
       <c r="V37" s="83"/>
       <c r="W37" s="83"/>
       <c r="X37" s="83"/>
-      <c r="Y37" s="83">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="16">
-        <v>0.8</v>
-      </c>
+      <c r="Y37" s="83"/>
       <c r="AA37" s="83"/>
-      <c r="AB37" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="16">
-        <v>0.8</v>
-      </c>
       <c r="AD37" s="83"/>
       <c r="AE37" s="83"/>
       <c r="AF37" s="83"/>
@@ -31267,45 +30341,13 @@
       <c r="QD37" s="83"/>
     </row>
     <row r="38" spans="1:446" s="16" customFormat="1">
-      <c r="A38" s="11">
-        <v>3013</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="25">
-        <v>1</v>
-      </c>
-      <c r="E38" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F38" s="25">
-        <v>1</v>
-      </c>
-      <c r="G38" s="25">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0.8</v>
-      </c>
-      <c r="AB38" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="16">
-        <v>0.8</v>
-      </c>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
       <c r="NL38" s="83"/>
       <c r="NM38" s="83"/>
       <c r="NN38" s="83"/>
@@ -31379,45 +30421,14 @@
       <c r="QD38" s="83"/>
     </row>
     <row r="39" spans="1:446" s="16" customFormat="1">
-      <c r="A39" s="10">
-        <v>3014</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="25">
-        <v>1</v>
-      </c>
-      <c r="E39" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F39" s="25">
-        <v>1</v>
-      </c>
-      <c r="G39" s="25">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>0.8</v>
-      </c>
-      <c r="AB39" s="83">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="16">
-        <v>0.8</v>
-      </c>
+      <c r="A39" s="10"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="AB39" s="83"/>
       <c r="NL39" s="83"/>
       <c r="NM39" s="83"/>
       <c r="NN39" s="83"/>
@@ -31491,41 +30502,21 @@
       <c r="QD39" s="83"/>
     </row>
     <row r="40" spans="1:446" s="16" customFormat="1">
-      <c r="A40" s="10">
-        <v>3115</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="25">
-        <v>1</v>
-      </c>
-      <c r="E40" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F40" s="25">
-        <v>1</v>
-      </c>
-      <c r="G40" s="25">
-        <v>0</v>
-      </c>
-      <c r="H40" s="83">
-        <v>1</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="83"/>
       <c r="I40" s="83"/>
-      <c r="J40" s="83">
-        <v>1</v>
-      </c>
+      <c r="J40" s="83"/>
       <c r="K40" s="83"/>
       <c r="L40" s="83"/>
       <c r="M40" s="83"/>
       <c r="N40" s="83"/>
-      <c r="O40" s="83">
-        <v>0.5</v>
-      </c>
+      <c r="O40" s="83"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="83"/>
       <c r="R40" s="83"/>
@@ -31842,42 +30833,22 @@
       <c r="QD40" s="83"/>
     </row>
     <row r="41" spans="1:446" s="16" customFormat="1">
-      <c r="A41" s="10">
-        <v>3116</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="25">
-        <v>1</v>
-      </c>
-      <c r="E41" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F41" s="25">
-        <v>1</v>
-      </c>
-      <c r="G41" s="25">
-        <v>0</v>
-      </c>
-      <c r="H41" s="83">
-        <v>1</v>
-      </c>
+      <c r="A41" s="10"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="83"/>
       <c r="I41" s="83"/>
-      <c r="J41" s="83">
-        <v>1</v>
-      </c>
+      <c r="J41" s="83"/>
       <c r="K41" s="83"/>
       <c r="L41" s="83"/>
       <c r="M41" s="83"/>
       <c r="N41" s="83"/>
       <c r="O41" s="83"/>
-      <c r="P41" s="83">
-        <v>0.5</v>
-      </c>
+      <c r="P41" s="83"/>
       <c r="Q41" s="83"/>
       <c r="R41" s="83"/>
       <c r="S41" s="83"/>
@@ -32193,43 +31164,23 @@
       <c r="QD41" s="83"/>
     </row>
     <row r="42" spans="1:446" s="16" customFormat="1">
-      <c r="A42" s="10">
-        <v>3117</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="25">
-        <v>1</v>
-      </c>
-      <c r="E42" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F42" s="25">
-        <v>1</v>
-      </c>
-      <c r="G42" s="25">
-        <v>0</v>
-      </c>
-      <c r="H42" s="83">
-        <v>1</v>
-      </c>
+      <c r="A42" s="10"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="83"/>
       <c r="I42" s="83"/>
-      <c r="J42" s="83">
-        <v>1</v>
-      </c>
+      <c r="J42" s="83"/>
       <c r="K42" s="83"/>
       <c r="L42" s="83"/>
       <c r="M42" s="83"/>
       <c r="N42" s="83"/>
       <c r="O42" s="83"/>
       <c r="P42" s="83"/>
-      <c r="Q42" s="83">
-        <v>0.5</v>
-      </c>
+      <c r="Q42" s="83"/>
       <c r="R42" s="83"/>
       <c r="S42" s="83"/>
       <c r="T42" s="83"/>
@@ -32544,34 +31495,16 @@
       <c r="QD42" s="83"/>
     </row>
     <row r="43" spans="1:446" s="16" customFormat="1">
-      <c r="A43" s="10">
-        <v>3118</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="25">
-        <v>1</v>
-      </c>
-      <c r="E43" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F43" s="25">
-        <v>1</v>
-      </c>
-      <c r="G43" s="25">
-        <v>0</v>
-      </c>
-      <c r="H43" s="83">
-        <v>1</v>
-      </c>
+      <c r="A43" s="10"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="83"/>
       <c r="I43" s="83"/>
-      <c r="J43" s="83">
-        <v>1</v>
-      </c>
+      <c r="J43" s="83"/>
       <c r="K43" s="83"/>
       <c r="L43" s="83"/>
       <c r="M43" s="83"/>
@@ -32579,9 +31512,7 @@
       <c r="O43" s="83"/>
       <c r="P43" s="83"/>
       <c r="Q43" s="83"/>
-      <c r="R43" s="83">
-        <v>0.5</v>
-      </c>
+      <c r="R43" s="83"/>
       <c r="S43" s="83"/>
       <c r="T43" s="83"/>
       <c r="U43" s="83"/>
@@ -32895,34 +31826,16 @@
       <c r="QD43" s="83"/>
     </row>
     <row r="44" spans="1:446" s="16" customFormat="1">
-      <c r="A44" s="10">
-        <v>3119</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="25">
-        <v>1</v>
-      </c>
-      <c r="E44" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F44" s="25">
-        <v>1</v>
-      </c>
-      <c r="G44" s="25">
-        <v>0</v>
-      </c>
-      <c r="H44" s="83">
-        <v>1</v>
-      </c>
+      <c r="A44" s="10"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="83"/>
       <c r="I44" s="83"/>
-      <c r="J44" s="83">
-        <v>1</v>
-      </c>
+      <c r="J44" s="83"/>
       <c r="K44" s="83"/>
       <c r="L44" s="83"/>
       <c r="M44" s="83"/>
@@ -32931,9 +31844,7 @@
       <c r="P44" s="83"/>
       <c r="Q44" s="83"/>
       <c r="R44" s="83"/>
-      <c r="S44" s="83">
-        <v>0.5</v>
-      </c>
+      <c r="S44" s="83"/>
       <c r="T44" s="83"/>
       <c r="U44" s="83"/>
       <c r="V44" s="83"/>
@@ -41071,20 +39982,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D490:NK1160 C45:C1160 C7:C39" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C39 C45:C1160 D490:NK1160" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"ULS, SLS, ALS"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:CN26 H29:Y29 H45:GE48 H50:GE51 H55:CN57 AA29 NL22:PZ39 AD29:GG29 CO6:KS6 CO22:GN22 CO23:GG26 CO55:GN55 CO56:GG57 GE18 GE19:GG19 GE21 GF20:GG21 GF45:GG53 GH18:GK18 GH21:GK21 GH45:GK45 GH47:GK47 GH50:GK50 GH53:GK53 GJ48:GJ49 GK49 GL23:GO26 GL29:GS29 GL45:GQ46 GL47:GS48 GL50:GS51 GL56:GO57 GP22:GP26 GP49:HQ49 GP52:GP57 GQ22:GT22 GQ23:GS26 GQ52:GT53 GQ54:GQ55 GQ56:GS57 GR45 GR46:GU46 GR54 GR55:GT55 GU22:HL26 GU29:HO29 GU45 GU47:HO48 GU50:GU57 GV45:HM46 GV50:HO51 GV52:HL57 HM22:HP22 HM23:HO26 HM52:HP53 HM54:HM55 HM56:HO57 HN45 HN46:HQ46 HN54 HN55:HP55 HQ29 HQ45 HQ47:HQ48 HQ50:HQ57 HR7:IJ7 HR22:JR25 HR48:IK56 IG46:IK47 II17 II18:IK18 II20 II21:IK21 II45:IK45 IL8:JQ8 IL7:KB7 IL45:IT56 IU45:JL48 IU49:IU52 IU53:JN56 IW49:JA52 JC49:JG52 JI49:JM52 JM45:JQ45 JM46:JR48 JO49:JR56 JS20:KB25 JS47:KB56 JU45:JU48 KC22:KC25 KC49:KC56 KD7:KQ7 KD20:KJ25 KD47:KJ56 KK17 KK18:KL18 KK20 KK21:KL25 KK47 KK48:KL56 KM22:KS25 KM45:KN52 KM53:KM56 KN45:KS56 KT6:OB8 OC8:OW8 KT45:NK48 QA6:XFD39 NL45:NN49 NL50:OB1048576 NO19:NQ19 NO20:NR21 NO45:NW45 NO46:NQ46 NO47:NR49 NS18:NU18 NS21:NU21 NS48:NT49 NU48 NU49:NW49 NW46:NW48 NX45:OB49 OC6:PZ7 OC45:OT48 OC49:PZ1048576 OU45:OW45 OU46:OX48 OY20:OZ21 OY47:OZ48 PA17 PA18:PC18 PA20 PA21:PC21 PA47 PA48:PC48 PC19:PC20 PC45:PC47 PD45:PH48 PQ45:PZ48 QA45:XFD1048576 PC8:PH9 IK7:IK10 IH8:IH10 CO7:GG10 H6:CN9 GE11:GG11 II12 NL9:OB10 JS12:KB13 KD12:KJ13 KK12 KK13:KL13 OU9:OW10 PC10:PC12 NO11:NQ11 OU11:OX16 OY12:OZ13 PA12 PA13:PC13 NW11:OB16 NS13:NU13 NO12:NR13 II13:IK13 GH13:GK13 GF12:GG13 GE13 GE16 GE14:GG14 II15 JS15:KB18 KD15:KJ18 KK15 KK16:KL16 NO14:NQ14 OY15:OZ18 PA15 PA16:PC16 PC14:PC15 NS16:NU16 NO15:NR18 II16:IK16 GH16:GK16 GF15:GG18 JM9:JQ10 H10:X10 Z10:CN10 GL7:GS21 GU7:HO21 HQ7:HQ26 JU8:JU21 KM8:KN21 KQ8:KQ21 KR7:KS21 PQ8:PZ21 H11:GD21 PD10:PH21 PC17 OC9:OT16 NW17:OX21 NL11:NN21 KT9:NK21 JM11:JR21 IL9:JL21 AB31 HR32:KS33 HQ32:HQ34 H32:GG34 GL32:GS34 GU32:HO34 HQ37 GU37:HO37 GL37:GS37 H37:Y37 AA37 AD37:GG37 AB39" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:CN9 H10:X10 H11:GD21 H22:CN26 H29:Y29 H32:GG34 H37:Y37 H45:GE48 H50:GE51 H55:CN57 Z10:CN10 AA29 AA37 AB31 AB39 AD29:GG29 AD37:GG37 CO6:KS6 CO7:GG10 CO22:GN22 CO23:GG26 CO55:GN55 CO56:GG57 GE11:GG11 GE13 GE14:GG14 GE16 GE18 GE19:GG19 GE21 GF12:GG13 GF15:GG18 GF20:GG21 GF45:GG53 GH13:GK13 GH16:GK16 GH18:GK18 GH21:GK21 GH45:GK45 GH47:GK47 GH50:GK50 GH53:GK53 GJ48:GJ49 GK49 GL7:GS21 GL23:GO26 GL29:GS29 GL32:GS34 GL37:GS37 GL45:GQ46 GL47:GS48 GL50:GS51 GL56:GO57 GP22:GP26 GP49:HQ49 GP52:GP57 GQ22:GT22 GQ23:GS26 GQ52:GT53 GQ54:GQ55 GQ56:GS57 GR45 GR46:GU46 GR54 GR55:GT55 GU7:HO21 GU22:HL26 GU29:HO29 GU32:HO34 GU37:HO37 GU45 GU47:HO48 GU50:GU57 GV45:HM46 GV50:HO51 GV52:HL57 HM22:HP22 HM23:HO26 HM52:HP53 HM54:HM55 HM56:HO57 HN45 HN46:HQ46 HN54 HN55:HP55 HQ7:HQ26 HQ29 HQ32:HQ34 HQ37 HQ45 HQ47:HQ48 HQ50:HQ57 HR7:IJ7 HR22:JR25 HR32:KS33 HR48:IK56 IG46:IK47 IH8:IH10 II12 II13:IK13 II15 II16:IK16 II17 II18:IK18 II20 II21:IK21 II45:IK45 IK7:IK10 IL7:KB7 IL8:JQ8 IL9:JL21 IL45:IT56 IU45:JL48 IU49:IU52 IU53:JN56 IW49:JA52 JC49:JG52 JI49:JM52 JM9:JQ10 JM11:JR21 JM45:JQ45 JM46:JR48 JO49:JR56 JS12:KB13 JS15:KB18 JS20:KB25 JS47:KB56 JU8:JU21 JU45:JU48 KC22:KC25 KC49:KC56 KD7:KQ7 KD12:KJ13 KD15:KJ18 KD20:KJ25 KD47:KJ56 KK12 KK13:KL13 KK15 KK16:KL16 KK17 KK18:KL18 KK20 KK21:KL25 KK47 KK48:KL56 KM8:KN21 KM22:KS25 KM45:KN52 KM53:KM56 KN45:KS56 KQ8:KQ21 KR7:KS21 KT6:OB8 KT9:NK21 KT45:NK48 NL9:OB10 NL11:NN21 NL22:PZ39 NL45:NN49 NL50:OB1048576 NO11:NQ11 NO12:NR13 NO14:NQ14 NO15:NR18 NO19:NQ19 NO20:NR21 NO45:NW45 NO46:NQ46 NO47:NR49 NS13:NU13 NS16:NU16 NS18:NU18 NS21:NU21 NS48:NT49 NU48 NU49:NW49 NW11:OB16 NW17:OX21 NW46:NW48 NX45:OB49 OC6:PZ7 OC8:OW8 OC9:OT16 OC45:OT48 OC49:PZ1048576 OU9:OW10 OU11:OX16 OU45:OW45 OU46:OX48 OY12:OZ13 OY15:OZ18 OY20:OZ21 OY47:OZ48 PA12 PA13:PC13 PA15 PA16:PC16 PA17 PA18:PC18 PA20 PA21:PC21 PA47 PA48:PC48 PC8:PH9 PC10:PC12 PC14:PC15 PC17 PC19:PC20 PC45:PC47 PD10:PH21 PD45:PH48 PQ8:PZ21 PQ45:PZ48 QA6:XFD39 QA45:XFD1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0.00001</formula1>
       <formula2>100000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 F45:G489 F7:F39" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 F7:F39 F45:G489" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45:D489 D8:D39" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D39 D45:D489" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45:E489 E7:E39" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E39 E45:E489" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"0,-1,-3,-4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -41118,8 +40029,8 @@
     <col min="29" max="33" width="5.7109375" style="35" customWidth="1"/>
     <col min="34" max="49" width="8.7109375" style="35" customWidth="1"/>
     <col min="50" max="50" width="9.42578125" style="35" customWidth="1"/>
-    <col min="51" max="59" width="8.7109375" style="35" customWidth="1"/>
-    <col min="60" max="16384" width="8.7109375" style="35"/>
+    <col min="51" max="60" width="8.7109375" style="35" customWidth="1"/>
+    <col min="61" max="16384" width="8.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:55" ht="62.1" customHeight="1" thickBot="1">
@@ -41184,8 +40095,8 @@
       <c r="D3" s="46"/>
       <c r="E3" s="51"/>
       <c r="F3" s="72"/>
-      <c r="G3" s="177" t="s">
-        <v>124</v>
+      <c r="G3" s="181" t="s">
+        <v>81</v>
       </c>
       <c r="H3" s="185"/>
       <c r="I3" s="185"/>
@@ -41195,8 +40106,8 @@
       <c r="M3" s="185"/>
       <c r="N3" s="185"/>
       <c r="O3" s="186"/>
-      <c r="P3" s="178" t="s">
-        <v>125</v>
+      <c r="P3" s="179" t="s">
+        <v>82</v>
       </c>
       <c r="Q3" s="185"/>
       <c r="R3" s="185"/>
@@ -41205,25 +40116,25 @@
       <c r="U3" s="185"/>
       <c r="V3" s="185"/>
       <c r="W3" s="186"/>
-      <c r="X3" s="178" t="s">
-        <v>126</v>
+      <c r="X3" s="179" t="s">
+        <v>83</v>
       </c>
       <c r="Y3" s="185"/>
       <c r="Z3" s="186"/>
-      <c r="AA3" s="180" t="s">
-        <v>127</v>
+      <c r="AA3" s="178" t="s">
+        <v>84</v>
       </c>
       <c r="AB3" s="185"/>
-      <c r="AC3" s="181" t="s">
-        <v>128</v>
+      <c r="AC3" s="180" t="s">
+        <v>85</v>
       </c>
       <c r="AD3" s="190"/>
       <c r="AE3" s="191"/>
       <c r="AF3" s="134" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG3" s="178" t="s">
-        <v>130</v>
+        <v>86</v>
+      </c>
+      <c r="AG3" s="179" t="s">
+        <v>87</v>
       </c>
       <c r="AH3" s="185"/>
       <c r="AI3" s="185"/>
@@ -41232,8 +40143,8 @@
       <c r="AL3" s="185"/>
       <c r="AM3" s="185"/>
       <c r="AN3" s="186"/>
-      <c r="AO3" s="179" t="s">
-        <v>131</v>
+      <c r="AO3" s="177" t="s">
+        <v>88</v>
       </c>
       <c r="AP3" s="185"/>
       <c r="AQ3" s="185"/>
@@ -41241,193 +40152,193 @@
       <c r="AS3" s="185"/>
       <c r="AT3" s="185"/>
       <c r="AU3" s="185"/>
-      <c r="AV3" s="179" t="s">
-        <v>132</v>
+      <c r="AV3" s="177" t="s">
+        <v>89</v>
       </c>
       <c r="AW3" s="185"/>
       <c r="AX3" s="185"/>
       <c r="AY3" s="185"/>
       <c r="AZ3" s="185"/>
-      <c r="BA3" s="178" t="s">
-        <v>133</v>
+      <c r="BA3" s="179" t="s">
+        <v>90</v>
       </c>
       <c r="BB3" s="185"/>
       <c r="BC3" s="186"/>
     </row>
     <row r="4" spans="1:55" ht="111" customHeight="1">
       <c r="A4" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="V4" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="W4" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="X4" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y4" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z4" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA4" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB4" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC4" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD4" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE4" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF4" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG4" s="135" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH4" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI4" s="135" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ4" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK4" s="135" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL4" s="136" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM4" s="135" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN4" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO4" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP4" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ4" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR4" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="AS4" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="AT4" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="AU4" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="AV4" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="AW4" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="AX4" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="AY4" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="AZ4" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="BA4" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="BB4" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="BC4" s="41" t="s">
         <v>145</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="P4" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q4" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="R4" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="T4" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="U4" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="V4" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="W4" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="X4" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y4" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z4" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA4" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB4" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC4" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD4" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE4" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF4" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG4" s="135" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH4" s="136" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI4" s="135" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ4" s="135" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK4" s="135" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL4" s="136" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM4" s="135" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN4" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO4" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="AP4" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ4" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR4" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS4" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT4" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="AU4" s="136" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV4" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW4" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="AX4" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="AY4" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="AZ4" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="BA4" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="BB4" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="BC4" s="41" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:55">
       <c r="A5" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="40" t="e">
+        <v>146</v>
+      </c>
+      <c r="B5" s="40" t="str">
         <f>PlatformName &amp; " Robot layout"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
       <c r="C5" s="138"/>
       <c r="D5" s="37"/>
@@ -41585,11 +40496,11 @@
     </row>
     <row r="6" spans="1:55">
       <c r="A6" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="40" t="e">
+        <v>147</v>
+      </c>
+      <c r="B6" s="40" t="str">
         <f>PlatformName &amp; " Robot layout plan"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -41747,11 +40658,11 @@
     </row>
     <row r="7" spans="1:55">
       <c r="A7" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="40" t="e">
+        <v>148</v>
+      </c>
+      <c r="B7" s="40" t="str">
         <f>PlatformName &amp; " Robot layout plan cladding"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -41909,11 +40820,11 @@
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="40" t="e">
+        <v>149</v>
+      </c>
+      <c r="B8" s="40" t="str">
         <f>PlatformName &amp; " Robot boundary conditions and connections"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -42071,11 +40982,11 @@
     </row>
     <row r="9" spans="1:55">
       <c r="A9" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="40" t="e">
+        <v>150</v>
+      </c>
+      <c r="B9" s="40" t="str">
         <f>PlatformName &amp; " Utilised members"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
@@ -42104,9 +41015,9 @@
       <c r="M9" s="39">
         <v>0</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="39" t="str">
         <f>IF(AND(ISNUMBER(A9),NOT(ISBLANK(E9))),1,0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O9" s="38">
         <v>0</v>
@@ -43147,7 +42058,7 @@
     <row r="26" spans="1:55" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="55"/>
       <c r="B26" s="56" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
@@ -43308,16 +42219,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="F27" s="76">
         <v>0</v>
@@ -45526,13 +44437,13 @@
     <col min="12" max="18" width="8.7109375" style="19" customWidth="1"/>
     <col min="19" max="19" width="18.42578125" style="19" customWidth="1"/>
     <col min="20" max="20" width="15.28515625" style="19" customWidth="1"/>
-    <col min="21" max="29" width="8.7109375" style="19" customWidth="1"/>
-    <col min="30" max="16384" width="8.7109375" style="19"/>
+    <col min="21" max="30" width="8.7109375" style="19" customWidth="1"/>
+    <col min="31" max="16384" width="8.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="19" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="F1" s="26">
         <v>0.5</v>
@@ -45541,45 +44452,45 @@
         <v>0.1</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>72</v>
@@ -45588,51 +44499,51 @@
         <v>1</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="39" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="27" t="e">
+        <v>176</v>
+      </c>
+      <c r="F3" s="27" t="str">
         <f>PlatformName &amp;" member utilisations $&gt;" &amp;F1&amp;"$"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G3" s="27" t="e">
+        <v/>
+      </c>
+      <c r="G3" s="27" t="str">
         <f>PlatformName &amp;" member deflection ratios $&gt;" &amp;G1&amp;"$"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H3" s="27" t="e">
+        <v/>
+      </c>
+      <c r="H3" s="27" t="str">
         <f>"\section{"&amp;PlatformName&amp;" load combinations} \label{app:" &amp;IF(PlatformName="BTP","A",IF(PlatformName="SWGP","B",IF(PlatformName="ATP","C","Check the name of the platform"))) &amp;"}"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
       <c r="J3" s="28" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>72</v>
@@ -45641,42 +44552,42 @@
         <v>1</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>72</v>
@@ -45685,36 +44596,36 @@
         <v>1</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="N5" s="19" t="s">
         <v>72</v>
@@ -45723,42 +44634,42 @@
         <v>1</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B6" s="19" t="e">
+      <c r="B6" s="19" t="str">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; B3 &amp;".}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" s="19" t="e">
+        <v/>
+      </c>
+      <c r="C6" s="19" t="str">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; C3 &amp;".}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="19" t="e">
+        <v/>
+      </c>
+      <c r="D6" s="19" t="str">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; D3 &amp;".}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="19" t="e">
+        <v/>
+      </c>
+      <c r="E6" s="19" t="str">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; E3 &amp;".}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="19" t="e">
+        <v/>
+      </c>
+      <c r="F6" s="19" t="str">
         <f>"    \caption{" &amp; F3 &amp;".}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="19" t="e">
+        <v/>
+      </c>
+      <c r="G6" s="19" t="str">
         <f>"    \caption{" &amp; G3 &amp;".}"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
       <c r="H6" s="27" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="N6" s="19" t="s">
         <v>72</v>
@@ -45767,47 +44678,47 @@
         <v>1</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="S6" s="19" t="e">
+        <v>193</v>
+      </c>
+      <c r="S6" s="19" t="str">
         <f>"\includegraphics[width=\textwidth]{\"&amp;LaTeXFiguresFolder &amp;"\"&amp;PlatformName&amp; " "&amp;S3&amp;".png} "</f>
-        <v>#REF!</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B7" s="19" t="e">
+      <c r="B7" s="19" t="str">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;B3 &amp;"}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="19" t="e">
+        <v/>
+      </c>
+      <c r="C7" s="19" t="str">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;C3 &amp;"}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="19" t="e">
+        <v/>
+      </c>
+      <c r="D7" s="19" t="str">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;D3 &amp;"}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="19" t="e">
+        <v/>
+      </c>
+      <c r="E7" s="19" t="str">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;E3 &amp;"}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="19" t="e">
+        <v/>
+      </c>
+      <c r="F7" s="19" t="str">
         <f>"    \label{tabl:" &amp;F3 &amp;"}"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="19" t="e">
+        <v/>
+      </c>
+      <c r="G7" s="19" t="str">
         <f>"    \label{tabl:" &amp;G3 &amp;"}"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
       <c r="H7" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="J7" s="19">
+        <v>194</v>
+      </c>
+      <c r="J7" s="19" t="str">
         <f>COLUMN(J1)</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="M7" s="19" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="N7" s="19" t="s">
         <v>72</v>
@@ -45816,36 +44727,36 @@
         <v>1</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="19" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>72</v>
@@ -45854,37 +44765,37 @@
         <v>1</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="S8" s="19" t="e">
+        <v>170</v>
+      </c>
+      <c r="S8" s="19" t="str">
         <f>"    \caption{" &amp;PlatformName&amp; " " &amp; S3 &amp;".}"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="B9" s="19" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="N9" s="19" t="s">
         <v>72</v>
@@ -45893,37 +44804,37 @@
         <v>1</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="S9" s="19" t="e">
+        <v>170</v>
+      </c>
+      <c r="S9" s="19" t="str">
         <f>"    \label{tabl:" &amp; PlatformName &amp;" "&amp;S3 &amp;"}"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
       <c r="B10" s="84" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="N10" s="19" t="s">
         <v>72</v>
@@ -45932,33 +44843,33 @@
         <v>1</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1">
       <c r="B11" s="84" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="F11" s="84" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="G11" s="84" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="N11" s="19" t="s">
         <v>72</v>
@@ -45967,15 +44878,15 @@
         <v>1</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="H12" s="27" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="N12" s="19" t="s">
         <v>72</v>
@@ -45984,16 +44895,16 @@
         <v>1</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
       <c r="C13" s="84"/>
       <c r="H13" s="27" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="N13" s="19" t="s">
         <v>72</v>
@@ -46002,17 +44913,17 @@
         <v>1</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
       <c r="C14" s="84"/>
-      <c r="H14" s="27" t="e">
+      <c r="H14" s="27" t="str">
         <f>"\caption{Summary of " &amp;PlatformName &amp;" load combinations and coefficients.}"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
       <c r="M14" s="19" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="N14" s="19" t="s">
         <v>72</v>
@@ -46021,18 +44932,18 @@
         <v>1</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="S14" s="28"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1">
       <c r="C15" s="84"/>
-      <c r="H15" s="27" t="e">
+      <c r="H15" s="27" t="str">
         <f>"\label{tabl:"&amp;PlatformName&amp;" Load combinations}"</f>
-        <v>#REF!</v>
+        <v/>
       </c>
       <c r="M15" s="19" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="N15" s="19" t="s">
         <v>72</v>
@@ -46041,16 +44952,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
       <c r="C16" s="84"/>
       <c r="H16" s="27" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>72</v>
@@ -46059,13 +44970,13 @@
         <v>1</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="16.5" customHeight="1">
       <c r="C17" s="84"/>
       <c r="M17" s="19" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>72</v>
@@ -46074,7 +44985,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="16.5" customHeight="1">
@@ -46132,85 +45043,85 @@
     <col min="3" max="3" width="22.7109375" style="27" customWidth="1"/>
     <col min="4" max="24" width="11.5703125" style="27" customWidth="1"/>
     <col min="25" max="25" width="204.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="34" width="11.5703125" style="27" customWidth="1"/>
-    <col min="35" max="16384" width="11.5703125" style="27"/>
+    <col min="26" max="35" width="11.5703125" style="27" customWidth="1"/>
+    <col min="36" max="16384" width="11.5703125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="30" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="S1" s="31" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="U1" s="31" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="V1" s="31" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="W1" s="31" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="X1" s="60" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="Y1" s="31" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -46218,10 +45129,10 @@
         <v>1000</v>
       </c>
       <c r="B2" s="125" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="C2" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D2" s="124">
         <v>1</v>
@@ -46252,8 +45163,8 @@
       <c r="V2" s="127"/>
       <c r="W2" s="127"/>
       <c r="Y2" s="128" t="str">
-        <f t="shared" ref="Y2:Y33" si="0">CONCATENATE($X$1,A2,"} &amp; ",$X$1,B2,"} &amp; ",$D$1," &amp; ",D2," &amp; ",F2," &amp; ",H2," &amp; ",J2," &amp; ",L2," &amp; ",N2," &amp; ",P2," &amp; ",R2," &amp; ", T2," &amp; ", V2, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E2," &amp; ",G2," &amp; ",I2," &amp; ",K2," &amp; ",M2," &amp; ",O2," &amp; ",Q2," &amp; ",S2," &amp; ",U2," &amp; ",W2," \\ \hline")</f>
-        <v>\multirow{2}{*}{1000} &amp; \multirow{2}{*}{DL} &amp; Case &amp; 1 &amp; 3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A2,"} &amp; ",$X$1,B2,"} &amp; ",$D$1," &amp; ",D2," &amp; ",F2," &amp; ",H2," &amp; ",J2," &amp; ",L2," &amp; ",N2," &amp; ",P2," &amp; ",R2," &amp; ", T2," &amp; ", V2, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E2," &amp; ",G2," &amp; ",I2," &amp; ",K2," &amp; ",M2," &amp; ",O2," &amp; ",Q2," &amp; ",S2," &amp; ",U2," &amp; ",W2," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -46261,10 +45172,10 @@
         <v>1001</v>
       </c>
       <c r="B3" s="129" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D3" s="126">
         <v>2</v>
@@ -46295,8 +45206,8 @@
       <c r="V3" s="127"/>
       <c r="W3" s="127"/>
       <c r="Y3" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{1001} &amp; \multirow{2}{*}{DL+} &amp; Case &amp; 2 &amp; 3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A3,"} &amp; ",$X$1,B3,"} &amp; ",$D$1," &amp; ",D3," &amp; ",F3," &amp; ",H3," &amp; ",J3," &amp; ",L3," &amp; ",N3," &amp; ",P3," &amp; ",R3," &amp; ", T3," &amp; ", V3, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E3," &amp; ",G3," &amp; ",I3," &amp; ",K3," &amp; ",M3," &amp; ",O3," &amp; ",Q3," &amp; ",S3," &amp; ",U3," &amp; ",W3," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -46304,10 +45215,10 @@
         <v>2000</v>
       </c>
       <c r="B4" s="129" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D4" s="126">
         <v>2</v>
@@ -46346,8 +45257,8 @@
       <c r="V4" s="127"/>
       <c r="W4" s="127"/>
       <c r="Y4" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2000} &amp; \multirow{2}{*}{ULS_A_LL_ALL_1} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 5 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A4,"} &amp; ",$X$1,B4,"} &amp; ",$D$1," &amp; ",D4," &amp; ",F4," &amp; ",H4," &amp; ",J4," &amp; ",L4," &amp; ",N4," &amp; ",P4," &amp; ",R4," &amp; ", T4," &amp; ", V4, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E4," &amp; ",G4," &amp; ",I4," &amp; ",K4," &amp; ",M4," &amp; ",O4," &amp; ",Q4," &amp; ",S4," &amp; ",U4," &amp; ",W4," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -46355,10 +45266,10 @@
         <v>2001</v>
       </c>
       <c r="B5" s="129" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D5" s="126">
         <v>2</v>
@@ -46397,8 +45308,8 @@
       <c r="V5" s="127"/>
       <c r="W5" s="127"/>
       <c r="Y5" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2001} &amp; \multirow{2}{*}{ULS_A_LL_ALL_2} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 6 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A5,"} &amp; ",$X$1,B5,"} &amp; ",$D$1," &amp; ",D5," &amp; ",F5," &amp; ",H5," &amp; ",J5," &amp; ",L5," &amp; ",N5," &amp; ",P5," &amp; ",R5," &amp; ", T5," &amp; ", V5, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E5," &amp; ",G5," &amp; ",I5," &amp; ",K5," &amp; ",M5," &amp; ",O5," &amp; ",Q5," &amp; ",S5," &amp; ",U5," &amp; ",W5," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -46406,10 +45317,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="129" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D6" s="126">
         <v>2</v>
@@ -46448,8 +45359,8 @@
       <c r="V6" s="127"/>
       <c r="W6" s="127"/>
       <c r="Y6" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2002} &amp; \multirow{2}{*}{ULS_A_LL_ALL_3} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 7 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A6,"} &amp; ",$X$1,B6,"} &amp; ",$D$1," &amp; ",D6," &amp; ",F6," &amp; ",H6," &amp; ",J6," &amp; ",L6," &amp; ",N6," &amp; ",P6," &amp; ",R6," &amp; ", T6," &amp; ", V6, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E6," &amp; ",G6," &amp; ",I6," &amp; ",K6," &amp; ",M6," &amp; ",O6," &amp; ",Q6," &amp; ",S6," &amp; ",U6," &amp; ",W6," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -46457,10 +45368,10 @@
         <v>2100</v>
       </c>
       <c r="B7" s="129" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="C7" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D7" s="126">
         <v>1</v>
@@ -46499,8 +45410,8 @@
       <c r="V7" s="127"/>
       <c r="W7" s="127"/>
       <c r="Y7" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2100} &amp; \multirow{2}{*}{ULS_B_WRUG_210N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 8 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A7,"} &amp; ",$X$1,B7,"} &amp; ",$D$1," &amp; ",D7," &amp; ",F7," &amp; ",H7," &amp; ",J7," &amp; ",L7," &amp; ",N7," &amp; ",P7," &amp; ",R7," &amp; ", T7," &amp; ", V7, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E7," &amp; ",G7," &amp; ",I7," &amp; ",K7," &amp; ",M7," &amp; ",O7," &amp; ",Q7," &amp; ",S7," &amp; ",U7," &amp; ",W7," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -46508,10 +45419,10 @@
         <v>2101</v>
       </c>
       <c r="B8" s="129" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D8" s="126">
         <v>1</v>
@@ -46550,8 +45461,8 @@
       <c r="V8" s="127"/>
       <c r="W8" s="127"/>
       <c r="Y8" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2101} &amp; \multirow{2}{*}{ULS_B_WRUG_240N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 9 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A8,"} &amp; ",$X$1,B8,"} &amp; ",$D$1," &amp; ",D8," &amp; ",F8," &amp; ",H8," &amp; ",J8," &amp; ",L8," &amp; ",N8," &amp; ",P8," &amp; ",R8," &amp; ", T8," &amp; ", V8, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E8," &amp; ",G8," &amp; ",I8," &amp; ",K8," &amp; ",M8," &amp; ",O8," &amp; ",Q8," &amp; ",S8," &amp; ",U8," &amp; ",W8," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -46559,10 +45470,10 @@
         <v>2102</v>
       </c>
       <c r="B9" s="129" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="C9" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D9" s="126">
         <v>1</v>
@@ -46601,8 +45512,8 @@
       <c r="V9" s="127"/>
       <c r="W9" s="127"/>
       <c r="Y9" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2102} &amp; \multirow{2}{*}{ULS_B_WRUG_270N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 10 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A9,"} &amp; ",$X$1,B9,"} &amp; ",$D$1," &amp; ",D9," &amp; ",F9," &amp; ",H9," &amp; ",J9," &amp; ",L9," &amp; ",N9," &amp; ",P9," &amp; ",R9," &amp; ", T9," &amp; ", V9, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E9," &amp; ",G9," &amp; ",I9," &amp; ",K9," &amp; ",M9," &amp; ",O9," &amp; ",Q9," &amp; ",S9," &amp; ",U9," &amp; ",W9," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -46610,10 +45521,10 @@
         <v>2103</v>
       </c>
       <c r="B10" s="129" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D10" s="126">
         <v>1</v>
@@ -46652,8 +45563,8 @@
       <c r="V10" s="127"/>
       <c r="W10" s="127"/>
       <c r="Y10" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2103} &amp; \multirow{2}{*}{ULS_B_WRUG_300N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 11 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A10,"} &amp; ",$X$1,B10,"} &amp; ",$D$1," &amp; ",D10," &amp; ",F10," &amp; ",H10," &amp; ",J10," &amp; ",L10," &amp; ",N10," &amp; ",P10," &amp; ",R10," &amp; ", T10," &amp; ", V10, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E10," &amp; ",G10," &amp; ",I10," &amp; ",K10," &amp; ",M10," &amp; ",O10," &amp; ",Q10," &amp; ",S10," &amp; ",U10," &amp; ",W10," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -46661,10 +45572,10 @@
         <v>2104</v>
       </c>
       <c r="B11" s="129" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D11" s="126">
         <v>1</v>
@@ -46703,8 +45614,8 @@
       <c r="V11" s="127"/>
       <c r="W11" s="127"/>
       <c r="Y11" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2104} &amp; \multirow{2}{*}{ULS_B_WRUG_330N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 12 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1.3 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A11,"} &amp; ",$X$1,B11,"} &amp; ",$D$1," &amp; ",D11," &amp; ",F11," &amp; ",H11," &amp; ",J11," &amp; ",L11," &amp; ",N11," &amp; ",P11," &amp; ",R11," &amp; ", T11," &amp; ", V11, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E11," &amp; ",G11," &amp; ",I11," &amp; ",K11," &amp; ",M11," &amp; ",O11," &amp; ",Q11," &amp; ",S11," &amp; ",U11," &amp; ",W11," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -46712,10 +45623,10 @@
         <v>2105</v>
       </c>
       <c r="B12" s="129" t="s">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D12" s="126">
         <v>1</v>
@@ -46754,8 +45665,8 @@
       <c r="V12" s="127"/>
       <c r="W12" s="127"/>
       <c r="Y12" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2105} &amp; \multirow{2}{*}{ALS_B_WRL_210N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 13 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A12,"} &amp; ",$X$1,B12,"} &amp; ",$D$1," &amp; ",D12," &amp; ",F12," &amp; ",H12," &amp; ",J12," &amp; ",L12," &amp; ",N12," &amp; ",P12," &amp; ",R12," &amp; ", T12," &amp; ", V12, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E12," &amp; ",G12," &amp; ",I12," &amp; ",K12," &amp; ",M12," &amp; ",O12," &amp; ",Q12," &amp; ",S12," &amp; ",U12," &amp; ",W12," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -46763,10 +45674,10 @@
         <v>2106</v>
       </c>
       <c r="B13" s="129" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D13" s="126">
         <v>1</v>
@@ -46805,8 +45716,8 @@
       <c r="V13" s="127"/>
       <c r="W13" s="127"/>
       <c r="Y13" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2106} &amp; \multirow{2}{*}{ALS_B_WRL_240N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 14 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A13,"} &amp; ",$X$1,B13,"} &amp; ",$D$1," &amp; ",D13," &amp; ",F13," &amp; ",H13," &amp; ",J13," &amp; ",L13," &amp; ",N13," &amp; ",P13," &amp; ",R13," &amp; ", T13," &amp; ", V13, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E13," &amp; ",G13," &amp; ",I13," &amp; ",K13," &amp; ",M13," &amp; ",O13," &amp; ",Q13," &amp; ",S13," &amp; ",U13," &amp; ",W13," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -46814,10 +45725,10 @@
         <v>2107</v>
       </c>
       <c r="B14" s="129" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D14" s="126">
         <v>1</v>
@@ -46856,8 +45767,8 @@
       <c r="V14" s="127"/>
       <c r="W14" s="127"/>
       <c r="Y14" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2107} &amp; \multirow{2}{*}{ALS_B_WRL_270N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 15 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A14,"} &amp; ",$X$1,B14,"} &amp; ",$D$1," &amp; ",D14," &amp; ",F14," &amp; ",H14," &amp; ",J14," &amp; ",L14," &amp; ",N14," &amp; ",P14," &amp; ",R14," &amp; ", T14," &amp; ", V14, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E14," &amp; ",G14," &amp; ",I14," &amp; ",K14," &amp; ",M14," &amp; ",O14," &amp; ",Q14," &amp; ",S14," &amp; ",U14," &amp; ",W14," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -46865,10 +45776,10 @@
         <v>2108</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D15" s="126">
         <v>1</v>
@@ -46907,8 +45818,8 @@
       <c r="V15" s="127"/>
       <c r="W15" s="127"/>
       <c r="Y15" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2108} &amp; \multirow{2}{*}{ALS_B_WRL_300N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 16 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A15,"} &amp; ",$X$1,B15,"} &amp; ",$D$1," &amp; ",D15," &amp; ",F15," &amp; ",H15," &amp; ",J15," &amp; ",L15," &amp; ",N15," &amp; ",P15," &amp; ",R15," &amp; ", T15," &amp; ", V15, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E15," &amp; ",G15," &amp; ",I15," &amp; ",K15," &amp; ",M15," &amp; ",O15," &amp; ",Q15," &amp; ",S15," &amp; ",U15," &amp; ",W15," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -46916,10 +45827,10 @@
         <v>2109</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D16" s="126">
         <v>1</v>
@@ -46958,8 +45869,8 @@
       <c r="V16" s="127"/>
       <c r="W16" s="127"/>
       <c r="Y16" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{2109} &amp; \multirow{2}{*}{ALS_B_WRL_330N} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp; 17 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A16,"} &amp; ",$X$1,B16,"} &amp; ",$D$1," &amp; ",D16," &amp; ",F16," &amp; ",H16," &amp; ",J16," &amp; ",L16," &amp; ",N16," &amp; ",P16," &amp; ",R16," &amp; ", T16," &amp; ", V16, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E16," &amp; ",G16," &amp; ",I16," &amp; ",K16," &amp; ",M16," &amp; ",O16," &amp; ",Q16," &amp; ",S16," &amp; ",U16," &amp; ",W16," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -46967,10 +45878,10 @@
         <v>3001</v>
       </c>
       <c r="B17" s="129" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="D17" s="126">
         <v>1</v>
@@ -47005,8 +45916,8 @@
       <c r="V17" s="127"/>
       <c r="W17" s="127"/>
       <c r="Y17" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{3001} &amp; \multirow{2}{*}{SLS_A_SW} &amp; Case &amp; 1 &amp; 3 &amp; 4 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A17,"} &amp; ",$X$1,B17,"} &amp; ",$D$1," &amp; ",D17," &amp; ",F17," &amp; ",H17," &amp; ",J17," &amp; ",L17," &amp; ",N17," &amp; ",P17," &amp; ",R17," &amp; ", T17," &amp; ", V17, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E17," &amp; ",G17," &amp; ",I17," &amp; ",K17," &amp; ",M17," &amp; ",O17," &amp; ",Q17," &amp; ",S17," &amp; ",U17," &amp; ",W17," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -47014,10 +45925,10 @@
         <v>3002</v>
       </c>
       <c r="B18" s="129" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="D18" s="126">
         <v>2</v>
@@ -47052,8 +45963,8 @@
       <c r="V18" s="127"/>
       <c r="W18" s="127"/>
       <c r="Y18" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{3002} &amp; \multirow{2}{*}{SLS_A_SW+} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A18,"} &amp; ",$X$1,B18,"} &amp; ",$D$1," &amp; ",D18," &amp; ",F18," &amp; ",H18," &amp; ",J18," &amp; ",L18," &amp; ",N18," &amp; ",P18," &amp; ",R18," &amp; ", T18," &amp; ", V18, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E18," &amp; ",G18," &amp; ",I18," &amp; ",K18," &amp; ",M18," &amp; ",O18," &amp; ",Q18," &amp; ",S18," &amp; ",U18," &amp; ",W18," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -47061,10 +45972,10 @@
         <v>3004</v>
       </c>
       <c r="B19" s="129" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="D19" s="126">
         <v>2</v>
@@ -47103,8 +46014,8 @@
       <c r="V19" s="127"/>
       <c r="W19" s="127"/>
       <c r="Y19" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{3004} &amp; \multirow{2}{*}{SLS_A_QPR_DL_LL_1} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 5 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 0.8 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A19,"} &amp; ",$X$1,B19,"} &amp; ",$D$1," &amp; ",D19," &amp; ",F19," &amp; ",H19," &amp; ",J19," &amp; ",L19," &amp; ",N19," &amp; ",P19," &amp; ",R19," &amp; ", T19," &amp; ", V19, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E19," &amp; ",G19," &amp; ",I19," &amp; ",K19," &amp; ",M19," &amp; ",O19," &amp; ",Q19," &amp; ",S19," &amp; ",U19," &amp; ",W19," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -47112,10 +46023,10 @@
         <v>3005</v>
       </c>
       <c r="B20" s="129" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="D20" s="126">
         <v>2</v>
@@ -47154,8 +46065,8 @@
       <c r="V20" s="127"/>
       <c r="W20" s="127"/>
       <c r="Y20" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{3005} &amp; \multirow{2}{*}{SLS_A_QPR_DL_LL_2} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 6 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 0.8 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A20,"} &amp; ",$X$1,B20,"} &amp; ",$D$1," &amp; ",D20," &amp; ",F20," &amp; ",H20," &amp; ",J20," &amp; ",L20," &amp; ",N20," &amp; ",P20," &amp; ",R20," &amp; ", T20," &amp; ", V20, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E20," &amp; ",G20," &amp; ",I20," &amp; ",K20," &amp; ",M20," &amp; ",O20," &amp; ",Q20," &amp; ",S20," &amp; ",U20," &amp; ",W20," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -47163,10 +46074,10 @@
         <v>3006</v>
       </c>
       <c r="B21" s="129" t="s">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="C21" s="126" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="D21" s="126">
         <v>2</v>
@@ -47205,8 +46116,8 @@
       <c r="V21" s="127"/>
       <c r="W21" s="127"/>
       <c r="Y21" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{3006} &amp; \multirow{2}{*}{SLS_QPR_DL_LL_3} &amp; Case &amp; 2 &amp; 3 &amp; 4 &amp; 7 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp; 1 &amp; 1 &amp; 1 &amp; 0.8 &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A21,"} &amp; ",$X$1,B21,"} &amp; ",$D$1," &amp; ",D21," &amp; ",F21," &amp; ",H21," &amp; ",J21," &amp; ",L21," &amp; ",N21," &amp; ",P21," &amp; ",R21," &amp; ", T21," &amp; ", V21, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E21," &amp; ",G21," &amp; ",I21," &amp; ",K21," &amp; ",M21," &amp; ",O21," &amp; ",Q21," &amp; ",S21," &amp; ",U21," &amp; ",W21," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -47234,8 +46145,8 @@
       <c r="V22" s="127"/>
       <c r="W22" s="127"/>
       <c r="Y22" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A22,"} &amp; ",$X$1,B22,"} &amp; ",$D$1," &amp; ",D22," &amp; ",F22," &amp; ",H22," &amp; ",J22," &amp; ",L22," &amp; ",N22," &amp; ",P22," &amp; ",R22," &amp; ", T22," &amp; ", V22, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E22," &amp; ",G22," &amp; ",I22," &amp; ",K22," &amp; ",M22," &amp; ",O22," &amp; ",Q22," &amp; ",S22," &amp; ",U22," &amp; ",W22," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -47263,8 +46174,8 @@
       <c r="V23" s="127"/>
       <c r="W23" s="127"/>
       <c r="Y23" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A23,"} &amp; ",$X$1,B23,"} &amp; ",$D$1," &amp; ",D23," &amp; ",F23," &amp; ",H23," &amp; ",J23," &amp; ",L23," &amp; ",N23," &amp; ",P23," &amp; ",R23," &amp; ", T23," &amp; ", V23, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E23," &amp; ",G23," &amp; ",I23," &amp; ",K23," &amp; ",M23," &amp; ",O23," &amp; ",Q23," &amp; ",S23," &amp; ",U23," &amp; ",W23," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -47292,8 +46203,8 @@
       <c r="V24" s="127"/>
       <c r="W24" s="127"/>
       <c r="Y24" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A24,"} &amp; ",$X$1,B24,"} &amp; ",$D$1," &amp; ",D24," &amp; ",F24," &amp; ",H24," &amp; ",J24," &amp; ",L24," &amp; ",N24," &amp; ",P24," &amp; ",R24," &amp; ", T24," &amp; ", V24, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E24," &amp; ",G24," &amp; ",I24," &amp; ",K24," &amp; ",M24," &amp; ",O24," &amp; ",Q24," &amp; ",S24," &amp; ",U24," &amp; ",W24," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -47321,8 +46232,8 @@
       <c r="V25" s="127"/>
       <c r="W25" s="127"/>
       <c r="Y25" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A25,"} &amp; ",$X$1,B25,"} &amp; ",$D$1," &amp; ",D25," &amp; ",F25," &amp; ",H25," &amp; ",J25," &amp; ",L25," &amp; ",N25," &amp; ",P25," &amp; ",R25," &amp; ", T25," &amp; ", V25, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E25," &amp; ",G25," &amp; ",I25," &amp; ",K25," &amp; ",M25," &amp; ",O25," &amp; ",Q25," &amp; ",S25," &amp; ",U25," &amp; ",W25," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -47350,8 +46261,8 @@
       <c r="V26" s="127"/>
       <c r="W26" s="127"/>
       <c r="Y26" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A26,"} &amp; ",$X$1,B26,"} &amp; ",$D$1," &amp; ",D26," &amp; ",F26," &amp; ",H26," &amp; ",J26," &amp; ",L26," &amp; ",N26," &amp; ",P26," &amp; ",R26," &amp; ", T26," &amp; ", V26, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E26," &amp; ",G26," &amp; ",I26," &amp; ",K26," &amp; ",M26," &amp; ",O26," &amp; ",Q26," &amp; ",S26," &amp; ",U26," &amp; ",W26," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -47379,8 +46290,8 @@
       <c r="V27" s="127"/>
       <c r="W27" s="127"/>
       <c r="Y27" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A27,"} &amp; ",$X$1,B27,"} &amp; ",$D$1," &amp; ",D27," &amp; ",F27," &amp; ",H27," &amp; ",J27," &amp; ",L27," &amp; ",N27," &amp; ",P27," &amp; ",R27," &amp; ", T27," &amp; ", V27, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E27," &amp; ",G27," &amp; ",I27," &amp; ",K27," &amp; ",M27," &amp; ",O27," &amp; ",Q27," &amp; ",S27," &amp; ",U27," &amp; ",W27," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -47408,8 +46319,8 @@
       <c r="V28" s="127"/>
       <c r="W28" s="127"/>
       <c r="Y28" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A28,"} &amp; ",$X$1,B28,"} &amp; ",$D$1," &amp; ",D28," &amp; ",F28," &amp; ",H28," &amp; ",J28," &amp; ",L28," &amp; ",N28," &amp; ",P28," &amp; ",R28," &amp; ", T28," &amp; ", V28, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E28," &amp; ",G28," &amp; ",I28," &amp; ",K28," &amp; ",M28," &amp; ",O28," &amp; ",Q28," &amp; ",S28," &amp; ",U28," &amp; ",W28," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -47437,8 +46348,8 @@
       <c r="V29" s="127"/>
       <c r="W29" s="127"/>
       <c r="Y29" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A29,"} &amp; ",$X$1,B29,"} &amp; ",$D$1," &amp; ",D29," &amp; ",F29," &amp; ",H29," &amp; ",J29," &amp; ",L29," &amp; ",N29," &amp; ",P29," &amp; ",R29," &amp; ", T29," &amp; ", V29, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E29," &amp; ",G29," &amp; ",I29," &amp; ",K29," &amp; ",M29," &amp; ",O29," &amp; ",Q29," &amp; ",S29," &amp; ",U29," &amp; ",W29," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -47466,8 +46377,8 @@
       <c r="V30" s="127"/>
       <c r="W30" s="127"/>
       <c r="Y30" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A30,"} &amp; ",$X$1,B30,"} &amp; ",$D$1," &amp; ",D30," &amp; ",F30," &amp; ",H30," &amp; ",J30," &amp; ",L30," &amp; ",N30," &amp; ",P30," &amp; ",R30," &amp; ", T30," &amp; ", V30, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E30," &amp; ",G30," &amp; ",I30," &amp; ",K30," &amp; ",M30," &amp; ",O30," &amp; ",Q30," &amp; ",S30," &amp; ",U30," &amp; ",W30," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -47495,8 +46406,8 @@
       <c r="V31" s="127"/>
       <c r="W31" s="127"/>
       <c r="Y31" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A31,"} &amp; ",$X$1,B31,"} &amp; ",$D$1," &amp; ",D31," &amp; ",F31," &amp; ",H31," &amp; ",J31," &amp; ",L31," &amp; ",N31," &amp; ",P31," &amp; ",R31," &amp; ", T31," &amp; ", V31, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E31," &amp; ",G31," &amp; ",I31," &amp; ",K31," &amp; ",M31," &amp; ",O31," &amp; ",Q31," &amp; ",S31," &amp; ",U31," &amp; ",W31," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -47524,8 +46435,8 @@
       <c r="V32" s="127"/>
       <c r="W32" s="127"/>
       <c r="Y32" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A32,"} &amp; ",$X$1,B32,"} &amp; ",$D$1," &amp; ",D32," &amp; ",F32," &amp; ",H32," &amp; ",J32," &amp; ",L32," &amp; ",N32," &amp; ",P32," &amp; ",R32," &amp; ", T32," &amp; ", V32, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E32," &amp; ",G32," &amp; ",I32," &amp; ",K32," &amp; ",M32," &amp; ",O32," &amp; ",Q32," &amp; ",S32," &amp; ",U32," &amp; ",W32," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -47553,8 +46464,8 @@
       <c r="V33" s="127"/>
       <c r="W33" s="127"/>
       <c r="Y33" s="128" t="str">
-        <f t="shared" si="0"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A33,"} &amp; ",$X$1,B33,"} &amp; ",$D$1," &amp; ",D33," &amp; ",F33," &amp; ",H33," &amp; ",J33," &amp; ",L33," &amp; ",N33," &amp; ",P33," &amp; ",R33," &amp; ", T33," &amp; ", V33, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E33," &amp; ",G33," &amp; ",I33," &amp; ",K33," &amp; ",M33," &amp; ",O33," &amp; ",Q33," &amp; ",S33," &amp; ",U33," &amp; ",W33," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -47582,8 +46493,8 @@
       <c r="V34" s="127"/>
       <c r="W34" s="127"/>
       <c r="Y34" s="128" t="str">
-        <f t="shared" ref="Y34:Y65" si="1">CONCATENATE($X$1,A34,"} &amp; ",$X$1,B34,"} &amp; ",$D$1," &amp; ",D34," &amp; ",F34," &amp; ",H34," &amp; ",J34," &amp; ",L34," &amp; ",N34," &amp; ",P34," &amp; ",R34," &amp; ", T34," &amp; ", V34, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E34," &amp; ",G34," &amp; ",I34," &amp; ",K34," &amp; ",M34," &amp; ",O34," &amp; ",Q34," &amp; ",S34," &amp; ",U34," &amp; ",W34," \\ \hline")</f>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A34,"} &amp; ",$X$1,B34,"} &amp; ",$D$1," &amp; ",D34," &amp; ",F34," &amp; ",H34," &amp; ",J34," &amp; ",L34," &amp; ",N34," &amp; ",P34," &amp; ",R34," &amp; ", T34," &amp; ", V34, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E34," &amp; ",G34," &amp; ",I34," &amp; ",K34," &amp; ",M34," &amp; ",O34," &amp; ",Q34," &amp; ",S34," &amp; ",U34," &amp; ",W34," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -47611,8 +46522,8 @@
       <c r="V35" s="127"/>
       <c r="W35" s="127"/>
       <c r="Y35" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A35,"} &amp; ",$X$1,B35,"} &amp; ",$D$1," &amp; ",D35," &amp; ",F35," &amp; ",H35," &amp; ",J35," &amp; ",L35," &amp; ",N35," &amp; ",P35," &amp; ",R35," &amp; ", T35," &amp; ", V35, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E35," &amp; ",G35," &amp; ",I35," &amp; ",K35," &amp; ",M35," &amp; ",O35," &amp; ",Q35," &amp; ",S35," &amp; ",U35," &amp; ",W35," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -47640,8 +46551,8 @@
       <c r="V36" s="127"/>
       <c r="W36" s="127"/>
       <c r="Y36" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A36,"} &amp; ",$X$1,B36,"} &amp; ",$D$1," &amp; ",D36," &amp; ",F36," &amp; ",H36," &amp; ",J36," &amp; ",L36," &amp; ",N36," &amp; ",P36," &amp; ",R36," &amp; ", T36," &amp; ", V36, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E36," &amp; ",G36," &amp; ",I36," &amp; ",K36," &amp; ",M36," &amp; ",O36," &amp; ",Q36," &amp; ",S36," &amp; ",U36," &amp; ",W36," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -47669,8 +46580,8 @@
       <c r="V37" s="127"/>
       <c r="W37" s="127"/>
       <c r="Y37" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A37,"} &amp; ",$X$1,B37,"} &amp; ",$D$1," &amp; ",D37," &amp; ",F37," &amp; ",H37," &amp; ",J37," &amp; ",L37," &amp; ",N37," &amp; ",P37," &amp; ",R37," &amp; ", T37," &amp; ", V37, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E37," &amp; ",G37," &amp; ",I37," &amp; ",K37," &amp; ",M37," &amp; ",O37," &amp; ",Q37," &amp; ",S37," &amp; ",U37," &amp; ",W37," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -47698,8 +46609,8 @@
       <c r="V38" s="127"/>
       <c r="W38" s="127"/>
       <c r="Y38" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A38,"} &amp; ",$X$1,B38,"} &amp; ",$D$1," &amp; ",D38," &amp; ",F38," &amp; ",H38," &amp; ",J38," &amp; ",L38," &amp; ",N38," &amp; ",P38," &amp; ",R38," &amp; ", T38," &amp; ", V38, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E38," &amp; ",G38," &amp; ",I38," &amp; ",K38," &amp; ",M38," &amp; ",O38," &amp; ",Q38," &amp; ",S38," &amp; ",U38," &amp; ",W38," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -47727,8 +46638,8 @@
       <c r="V39" s="127"/>
       <c r="W39" s="127"/>
       <c r="Y39" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A39,"} &amp; ",$X$1,B39,"} &amp; ",$D$1," &amp; ",D39," &amp; ",F39," &amp; ",H39," &amp; ",J39," &amp; ",L39," &amp; ",N39," &amp; ",P39," &amp; ",R39," &amp; ", T39," &amp; ", V39, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E39," &amp; ",G39," &amp; ",I39," &amp; ",K39," &amp; ",M39," &amp; ",O39," &amp; ",Q39," &amp; ",S39," &amp; ",U39," &amp; ",W39," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -47756,8 +46667,8 @@
       <c r="V40" s="127"/>
       <c r="W40" s="127"/>
       <c r="Y40" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A40,"} &amp; ",$X$1,B40,"} &amp; ",$D$1," &amp; ",D40," &amp; ",F40," &amp; ",H40," &amp; ",J40," &amp; ",L40," &amp; ",N40," &amp; ",P40," &amp; ",R40," &amp; ", T40," &amp; ", V40, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E40," &amp; ",G40," &amp; ",I40," &amp; ",K40," &amp; ",M40," &amp; ",O40," &amp; ",Q40," &amp; ",S40," &amp; ",U40," &amp; ",W40," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -47785,8 +46696,8 @@
       <c r="V41" s="127"/>
       <c r="W41" s="127"/>
       <c r="Y41" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A41,"} &amp; ",$X$1,B41,"} &amp; ",$D$1," &amp; ",D41," &amp; ",F41," &amp; ",H41," &amp; ",J41," &amp; ",L41," &amp; ",N41," &amp; ",P41," &amp; ",R41," &amp; ", T41," &amp; ", V41, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E41," &amp; ",G41," &amp; ",I41," &amp; ",K41," &amp; ",M41," &amp; ",O41," &amp; ",Q41," &amp; ",S41," &amp; ",U41," &amp; ",W41," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -47814,8 +46725,8 @@
       <c r="V42" s="127"/>
       <c r="W42" s="127"/>
       <c r="Y42" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A42,"} &amp; ",$X$1,B42,"} &amp; ",$D$1," &amp; ",D42," &amp; ",F42," &amp; ",H42," &amp; ",J42," &amp; ",L42," &amp; ",N42," &amp; ",P42," &amp; ",R42," &amp; ", T42," &amp; ", V42, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E42," &amp; ",G42," &amp; ",I42," &amp; ",K42," &amp; ",M42," &amp; ",O42," &amp; ",Q42," &amp; ",S42," &amp; ",U42," &amp; ",W42," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -47843,8 +46754,8 @@
       <c r="V43" s="127"/>
       <c r="W43" s="127"/>
       <c r="Y43" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A43,"} &amp; ",$X$1,B43,"} &amp; ",$D$1," &amp; ",D43," &amp; ",F43," &amp; ",H43," &amp; ",J43," &amp; ",L43," &amp; ",N43," &amp; ",P43," &amp; ",R43," &amp; ", T43," &amp; ", V43, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E43," &amp; ",G43," &amp; ",I43," &amp; ",K43," &amp; ",M43," &amp; ",O43," &amp; ",Q43," &amp; ",S43," &amp; ",U43," &amp; ",W43," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -47872,8 +46783,8 @@
       <c r="V44" s="127"/>
       <c r="W44" s="127"/>
       <c r="Y44" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A44,"} &amp; ",$X$1,B44,"} &amp; ",$D$1," &amp; ",D44," &amp; ",F44," &amp; ",H44," &amp; ",J44," &amp; ",L44," &amp; ",N44," &amp; ",P44," &amp; ",R44," &amp; ", T44," &amp; ", V44, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E44," &amp; ",G44," &amp; ",I44," &amp; ",K44," &amp; ",M44," &amp; ",O44," &amp; ",Q44," &amp; ",S44," &amp; ",U44," &amp; ",W44," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -47901,8 +46812,8 @@
       <c r="V45" s="127"/>
       <c r="W45" s="127"/>
       <c r="Y45" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A45,"} &amp; ",$X$1,B45,"} &amp; ",$D$1," &amp; ",D45," &amp; ",F45," &amp; ",H45," &amp; ",J45," &amp; ",L45," &amp; ",N45," &amp; ",P45," &amp; ",R45," &amp; ", T45," &amp; ", V45, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E45," &amp; ",G45," &amp; ",I45," &amp; ",K45," &amp; ",M45," &amp; ",O45," &amp; ",Q45," &amp; ",S45," &amp; ",U45," &amp; ",W45," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -47930,8 +46841,8 @@
       <c r="V46" s="127"/>
       <c r="W46" s="127"/>
       <c r="Y46" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A46,"} &amp; ",$X$1,B46,"} &amp; ",$D$1," &amp; ",D46," &amp; ",F46," &amp; ",H46," &amp; ",J46," &amp; ",L46," &amp; ",N46," &amp; ",P46," &amp; ",R46," &amp; ", T46," &amp; ", V46, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E46," &amp; ",G46," &amp; ",I46," &amp; ",K46," &amp; ",M46," &amp; ",O46," &amp; ",Q46," &amp; ",S46," &amp; ",U46," &amp; ",W46," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -47959,8 +46870,8 @@
       <c r="V47" s="127"/>
       <c r="W47" s="127"/>
       <c r="Y47" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A47,"} &amp; ",$X$1,B47,"} &amp; ",$D$1," &amp; ",D47," &amp; ",F47," &amp; ",H47," &amp; ",J47," &amp; ",L47," &amp; ",N47," &amp; ",P47," &amp; ",R47," &amp; ", T47," &amp; ", V47, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E47," &amp; ",G47," &amp; ",I47," &amp; ",K47," &amp; ",M47," &amp; ",O47," &amp; ",Q47," &amp; ",S47," &amp; ",U47," &amp; ",W47," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -47988,8 +46899,8 @@
       <c r="V48" s="127"/>
       <c r="W48" s="127"/>
       <c r="Y48" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A48,"} &amp; ",$X$1,B48,"} &amp; ",$D$1," &amp; ",D48," &amp; ",F48," &amp; ",H48," &amp; ",J48," &amp; ",L48," &amp; ",N48," &amp; ",P48," &amp; ",R48," &amp; ", T48," &amp; ", V48, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E48," &amp; ",G48," &amp; ",I48," &amp; ",K48," &amp; ",M48," &amp; ",O48," &amp; ",Q48," &amp; ",S48," &amp; ",U48," &amp; ",W48," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -48017,8 +46928,8 @@
       <c r="V49" s="127"/>
       <c r="W49" s="127"/>
       <c r="Y49" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A49,"} &amp; ",$X$1,B49,"} &amp; ",$D$1," &amp; ",D49," &amp; ",F49," &amp; ",H49," &amp; ",J49," &amp; ",L49," &amp; ",N49," &amp; ",P49," &amp; ",R49," &amp; ", T49," &amp; ", V49, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E49," &amp; ",G49," &amp; ",I49," &amp; ",K49," &amp; ",M49," &amp; ",O49," &amp; ",Q49," &amp; ",S49," &amp; ",U49," &amp; ",W49," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -48046,8 +46957,8 @@
       <c r="V50" s="127"/>
       <c r="W50" s="127"/>
       <c r="Y50" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A50,"} &amp; ",$X$1,B50,"} &amp; ",$D$1," &amp; ",D50," &amp; ",F50," &amp; ",H50," &amp; ",J50," &amp; ",L50," &amp; ",N50," &amp; ",P50," &amp; ",R50," &amp; ", T50," &amp; ", V50, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E50," &amp; ",G50," &amp; ",I50," &amp; ",K50," &amp; ",M50," &amp; ",O50," &amp; ",Q50," &amp; ",S50," &amp; ",U50," &amp; ",W50," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -48075,8 +46986,8 @@
       <c r="V51" s="127"/>
       <c r="W51" s="127"/>
       <c r="Y51" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A51,"} &amp; ",$X$1,B51,"} &amp; ",$D$1," &amp; ",D51," &amp; ",F51," &amp; ",H51," &amp; ",J51," &amp; ",L51," &amp; ",N51," &amp; ",P51," &amp; ",R51," &amp; ", T51," &amp; ", V51, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E51," &amp; ",G51," &amp; ",I51," &amp; ",K51," &amp; ",M51," &amp; ",O51," &amp; ",Q51," &amp; ",S51," &amp; ",U51," &amp; ",W51," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -48104,8 +47015,8 @@
       <c r="V52" s="127"/>
       <c r="W52" s="127"/>
       <c r="Y52" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A52,"} &amp; ",$X$1,B52,"} &amp; ",$D$1," &amp; ",D52," &amp; ",F52," &amp; ",H52," &amp; ",J52," &amp; ",L52," &amp; ",N52," &amp; ",P52," &amp; ",R52," &amp; ", T52," &amp; ", V52, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E52," &amp; ",G52," &amp; ",I52," &amp; ",K52," &amp; ",M52," &amp; ",O52," &amp; ",Q52," &amp; ",S52," &amp; ",U52," &amp; ",W52," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -48133,8 +47044,8 @@
       <c r="V53" s="127"/>
       <c r="W53" s="127"/>
       <c r="Y53" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A53,"} &amp; ",$X$1,B53,"} &amp; ",$D$1," &amp; ",D53," &amp; ",F53," &amp; ",H53," &amp; ",J53," &amp; ",L53," &amp; ",N53," &amp; ",P53," &amp; ",R53," &amp; ", T53," &amp; ", V53, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E53," &amp; ",G53," &amp; ",I53," &amp; ",K53," &amp; ",M53," &amp; ",O53," &amp; ",Q53," &amp; ",S53," &amp; ",U53," &amp; ",W53," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -48162,8 +47073,8 @@
       <c r="V54" s="127"/>
       <c r="W54" s="127"/>
       <c r="Y54" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A54,"} &amp; ",$X$1,B54,"} &amp; ",$D$1," &amp; ",D54," &amp; ",F54," &amp; ",H54," &amp; ",J54," &amp; ",L54," &amp; ",N54," &amp; ",P54," &amp; ",R54," &amp; ", T54," &amp; ", V54, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E54," &amp; ",G54," &amp; ",I54," &amp; ",K54," &amp; ",M54," &amp; ",O54," &amp; ",Q54," &amp; ",S54," &amp; ",U54," &amp; ",W54," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -48191,8 +47102,8 @@
       <c r="V55" s="127"/>
       <c r="W55" s="127"/>
       <c r="Y55" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A55,"} &amp; ",$X$1,B55,"} &amp; ",$D$1," &amp; ",D55," &amp; ",F55," &amp; ",H55," &amp; ",J55," &amp; ",L55," &amp; ",N55," &amp; ",P55," &amp; ",R55," &amp; ", T55," &amp; ", V55, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E55," &amp; ",G55," &amp; ",I55," &amp; ",K55," &amp; ",M55," &amp; ",O55," &amp; ",Q55," &amp; ",S55," &amp; ",U55," &amp; ",W55," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -48220,8 +47131,8 @@
       <c r="V56" s="127"/>
       <c r="W56" s="127"/>
       <c r="Y56" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A56,"} &amp; ",$X$1,B56,"} &amp; ",$D$1," &amp; ",D56," &amp; ",F56," &amp; ",H56," &amp; ",J56," &amp; ",L56," &amp; ",N56," &amp; ",P56," &amp; ",R56," &amp; ", T56," &amp; ", V56, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E56," &amp; ",G56," &amp; ",I56," &amp; ",K56," &amp; ",M56," &amp; ",O56," &amp; ",Q56," &amp; ",S56," &amp; ",U56," &amp; ",W56," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -48249,8 +47160,8 @@
       <c r="V57" s="127"/>
       <c r="W57" s="127"/>
       <c r="Y57" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A57,"} &amp; ",$X$1,B57,"} &amp; ",$D$1," &amp; ",D57," &amp; ",F57," &amp; ",H57," &amp; ",J57," &amp; ",L57," &amp; ",N57," &amp; ",P57," &amp; ",R57," &amp; ", T57," &amp; ", V57, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E57," &amp; ",G57," &amp; ",I57," &amp; ",K57," &amp; ",M57," &amp; ",O57," &amp; ",Q57," &amp; ",S57," &amp; ",U57," &amp; ",W57," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -48278,8 +47189,8 @@
       <c r="V58" s="127"/>
       <c r="W58" s="127"/>
       <c r="Y58" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A58,"} &amp; ",$X$1,B58,"} &amp; ",$D$1," &amp; ",D58," &amp; ",F58," &amp; ",H58," &amp; ",J58," &amp; ",L58," &amp; ",N58," &amp; ",P58," &amp; ",R58," &amp; ", T58," &amp; ", V58, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E58," &amp; ",G58," &amp; ",I58," &amp; ",K58," &amp; ",M58," &amp; ",O58," &amp; ",Q58," &amp; ",S58," &amp; ",U58," &amp; ",W58," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -48307,8 +47218,8 @@
       <c r="V59" s="127"/>
       <c r="W59" s="127"/>
       <c r="Y59" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A59,"} &amp; ",$X$1,B59,"} &amp; ",$D$1," &amp; ",D59," &amp; ",F59," &amp; ",H59," &amp; ",J59," &amp; ",L59," &amp; ",N59," &amp; ",P59," &amp; ",R59," &amp; ", T59," &amp; ", V59, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E59," &amp; ",G59," &amp; ",I59," &amp; ",K59," &amp; ",M59," &amp; ",O59," &amp; ",Q59," &amp; ",S59," &amp; ",U59," &amp; ",W59," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -48336,8 +47247,8 @@
       <c r="V60" s="127"/>
       <c r="W60" s="127"/>
       <c r="Y60" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A60,"} &amp; ",$X$1,B60,"} &amp; ",$D$1," &amp; ",D60," &amp; ",F60," &amp; ",H60," &amp; ",J60," &amp; ",L60," &amp; ",N60," &amp; ",P60," &amp; ",R60," &amp; ", T60," &amp; ", V60, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E60," &amp; ",G60," &amp; ",I60," &amp; ",K60," &amp; ",M60," &amp; ",O60," &amp; ",Q60," &amp; ",S60," &amp; ",U60," &amp; ",W60," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -48365,8 +47276,8 @@
       <c r="V61" s="127"/>
       <c r="W61" s="127"/>
       <c r="Y61" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A61,"} &amp; ",$X$1,B61,"} &amp; ",$D$1," &amp; ",D61," &amp; ",F61," &amp; ",H61," &amp; ",J61," &amp; ",L61," &amp; ",N61," &amp; ",P61," &amp; ",R61," &amp; ", T61," &amp; ", V61, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E61," &amp; ",G61," &amp; ",I61," &amp; ",K61," &amp; ",M61," &amp; ",O61," &amp; ",Q61," &amp; ",S61," &amp; ",U61," &amp; ",W61," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -48394,8 +47305,8 @@
       <c r="V62" s="127"/>
       <c r="W62" s="127"/>
       <c r="Y62" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A62,"} &amp; ",$X$1,B62,"} &amp; ",$D$1," &amp; ",D62," &amp; ",F62," &amp; ",H62," &amp; ",J62," &amp; ",L62," &amp; ",N62," &amp; ",P62," &amp; ",R62," &amp; ", T62," &amp; ", V62, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E62," &amp; ",G62," &amp; ",I62," &amp; ",K62," &amp; ",M62," &amp; ",O62," &amp; ",Q62," &amp; ",S62," &amp; ",U62," &amp; ",W62," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -48423,8 +47334,8 @@
       <c r="V63" s="127"/>
       <c r="W63" s="127"/>
       <c r="Y63" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A63,"} &amp; ",$X$1,B63,"} &amp; ",$D$1," &amp; ",D63," &amp; ",F63," &amp; ",H63," &amp; ",J63," &amp; ",L63," &amp; ",N63," &amp; ",P63," &amp; ",R63," &amp; ", T63," &amp; ", V63, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E63," &amp; ",G63," &amp; ",I63," &amp; ",K63," &amp; ",M63," &amp; ",O63," &amp; ",Q63," &amp; ",S63," &amp; ",U63," &amp; ",W63," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -48452,8 +47363,8 @@
       <c r="V64" s="127"/>
       <c r="W64" s="127"/>
       <c r="Y64" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A64,"} &amp; ",$X$1,B64,"} &amp; ",$D$1," &amp; ",D64," &amp; ",F64," &amp; ",H64," &amp; ",J64," &amp; ",L64," &amp; ",N64," &amp; ",P64," &amp; ",R64," &amp; ", T64," &amp; ", V64, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E64," &amp; ",G64," &amp; ",I64," &amp; ",K64," &amp; ",M64," &amp; ",O64," &amp; ",Q64," &amp; ",S64," &amp; ",U64," &amp; ",W64," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -48481,8 +47392,8 @@
       <c r="V65" s="127"/>
       <c r="W65" s="127"/>
       <c r="Y65" s="128" t="str">
-        <f t="shared" si="1"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A65,"} &amp; ",$X$1,B65,"} &amp; ",$D$1," &amp; ",D65," &amp; ",F65," &amp; ",H65," &amp; ",J65," &amp; ",L65," &amp; ",N65," &amp; ",P65," &amp; ",R65," &amp; ", T65," &amp; ", V65, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E65," &amp; ",G65," &amp; ",I65," &amp; ",K65," &amp; ",M65," &amp; ",O65," &amp; ",Q65," &amp; ",S65," &amp; ",U65," &amp; ",W65," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -48510,8 +47421,8 @@
       <c r="V66" s="127"/>
       <c r="W66" s="127"/>
       <c r="Y66" s="128" t="str">
-        <f t="shared" ref="Y66:Y97" si="2">CONCATENATE($X$1,A66,"} &amp; ",$X$1,B66,"} &amp; ",$D$1," &amp; ",D66," &amp; ",F66," &amp; ",H66," &amp; ",J66," &amp; ",L66," &amp; ",N66," &amp; ",P66," &amp; ",R66," &amp; ", T66," &amp; ", V66, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E66," &amp; ",G66," &amp; ",I66," &amp; ",K66," &amp; ",M66," &amp; ",O66," &amp; ",Q66," &amp; ",S66," &amp; ",U66," &amp; ",W66," \\ \hline")</f>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A66,"} &amp; ",$X$1,B66,"} &amp; ",$D$1," &amp; ",D66," &amp; ",F66," &amp; ",H66," &amp; ",J66," &amp; ",L66," &amp; ",N66," &amp; ",P66," &amp; ",R66," &amp; ", T66," &amp; ", V66, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E66," &amp; ",G66," &amp; ",I66," &amp; ",K66," &amp; ",M66," &amp; ",O66," &amp; ",Q66," &amp; ",S66," &amp; ",U66," &amp; ",W66," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -48539,8 +47450,8 @@
       <c r="V67" s="127"/>
       <c r="W67" s="127"/>
       <c r="Y67" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A67,"} &amp; ",$X$1,B67,"} &amp; ",$D$1," &amp; ",D67," &amp; ",F67," &amp; ",H67," &amp; ",J67," &amp; ",L67," &amp; ",N67," &amp; ",P67," &amp; ",R67," &amp; ", T67," &amp; ", V67, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E67," &amp; ",G67," &amp; ",I67," &amp; ",K67," &amp; ",M67," &amp; ",O67," &amp; ",Q67," &amp; ",S67," &amp; ",U67," &amp; ",W67," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -48568,8 +47479,8 @@
       <c r="V68" s="127"/>
       <c r="W68" s="127"/>
       <c r="Y68" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A68,"} &amp; ",$X$1,B68,"} &amp; ",$D$1," &amp; ",D68," &amp; ",F68," &amp; ",H68," &amp; ",J68," &amp; ",L68," &amp; ",N68," &amp; ",P68," &amp; ",R68," &amp; ", T68," &amp; ", V68, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E68," &amp; ",G68," &amp; ",I68," &amp; ",K68," &amp; ",M68," &amp; ",O68," &amp; ",Q68," &amp; ",S68," &amp; ",U68," &amp; ",W68," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -48597,8 +47508,8 @@
       <c r="V69" s="127"/>
       <c r="W69" s="127"/>
       <c r="Y69" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A69,"} &amp; ",$X$1,B69,"} &amp; ",$D$1," &amp; ",D69," &amp; ",F69," &amp; ",H69," &amp; ",J69," &amp; ",L69," &amp; ",N69," &amp; ",P69," &amp; ",R69," &amp; ", T69," &amp; ", V69, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E69," &amp; ",G69," &amp; ",I69," &amp; ",K69," &amp; ",M69," &amp; ",O69," &amp; ",Q69," &amp; ",S69," &amp; ",U69," &amp; ",W69," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -48626,8 +47537,8 @@
       <c r="V70" s="127"/>
       <c r="W70" s="127"/>
       <c r="Y70" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A70,"} &amp; ",$X$1,B70,"} &amp; ",$D$1," &amp; ",D70," &amp; ",F70," &amp; ",H70," &amp; ",J70," &amp; ",L70," &amp; ",N70," &amp; ",P70," &amp; ",R70," &amp; ", T70," &amp; ", V70, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E70," &amp; ",G70," &amp; ",I70," &amp; ",K70," &amp; ",M70," &amp; ",O70," &amp; ",Q70," &amp; ",S70," &amp; ",U70," &amp; ",W70," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -48655,8 +47566,8 @@
       <c r="V71" s="127"/>
       <c r="W71" s="127"/>
       <c r="Y71" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A71,"} &amp; ",$X$1,B71,"} &amp; ",$D$1," &amp; ",D71," &amp; ",F71," &amp; ",H71," &amp; ",J71," &amp; ",L71," &amp; ",N71," &amp; ",P71," &amp; ",R71," &amp; ", T71," &amp; ", V71, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E71," &amp; ",G71," &amp; ",I71," &amp; ",K71," &amp; ",M71," &amp; ",O71," &amp; ",Q71," &amp; ",S71," &amp; ",U71," &amp; ",W71," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -48684,8 +47595,8 @@
       <c r="V72" s="127"/>
       <c r="W72" s="127"/>
       <c r="Y72" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A72,"} &amp; ",$X$1,B72,"} &amp; ",$D$1," &amp; ",D72," &amp; ",F72," &amp; ",H72," &amp; ",J72," &amp; ",L72," &amp; ",N72," &amp; ",P72," &amp; ",R72," &amp; ", T72," &amp; ", V72, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E72," &amp; ",G72," &amp; ",I72," &amp; ",K72," &amp; ",M72," &amp; ",O72," &amp; ",Q72," &amp; ",S72," &amp; ",U72," &amp; ",W72," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -48713,8 +47624,8 @@
       <c r="V73" s="127"/>
       <c r="W73" s="127"/>
       <c r="Y73" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A73,"} &amp; ",$X$1,B73,"} &amp; ",$D$1," &amp; ",D73," &amp; ",F73," &amp; ",H73," &amp; ",J73," &amp; ",L73," &amp; ",N73," &amp; ",P73," &amp; ",R73," &amp; ", T73," &amp; ", V73, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E73," &amp; ",G73," &amp; ",I73," &amp; ",K73," &amp; ",M73," &amp; ",O73," &amp; ",Q73," &amp; ",S73," &amp; ",U73," &amp; ",W73," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -48742,8 +47653,8 @@
       <c r="V74" s="127"/>
       <c r="W74" s="127"/>
       <c r="Y74" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A74,"} &amp; ",$X$1,B74,"} &amp; ",$D$1," &amp; ",D74," &amp; ",F74," &amp; ",H74," &amp; ",J74," &amp; ",L74," &amp; ",N74," &amp; ",P74," &amp; ",R74," &amp; ", T74," &amp; ", V74, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E74," &amp; ",G74," &amp; ",I74," &amp; ",K74," &amp; ",M74," &amp; ",O74," &amp; ",Q74," &amp; ",S74," &amp; ",U74," &amp; ",W74," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -48771,8 +47682,8 @@
       <c r="V75" s="127"/>
       <c r="W75" s="127"/>
       <c r="Y75" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A75,"} &amp; ",$X$1,B75,"} &amp; ",$D$1," &amp; ",D75," &amp; ",F75," &amp; ",H75," &amp; ",J75," &amp; ",L75," &amp; ",N75," &amp; ",P75," &amp; ",R75," &amp; ", T75," &amp; ", V75, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E75," &amp; ",G75," &amp; ",I75," &amp; ",K75," &amp; ",M75," &amp; ",O75," &amp; ",Q75," &amp; ",S75," &amp; ",U75," &amp; ",W75," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -48800,8 +47711,8 @@
       <c r="V76" s="127"/>
       <c r="W76" s="127"/>
       <c r="Y76" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A76,"} &amp; ",$X$1,B76,"} &amp; ",$D$1," &amp; ",D76," &amp; ",F76," &amp; ",H76," &amp; ",J76," &amp; ",L76," &amp; ",N76," &amp; ",P76," &amp; ",R76," &amp; ", T76," &amp; ", V76, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E76," &amp; ",G76," &amp; ",I76," &amp; ",K76," &amp; ",M76," &amp; ",O76," &amp; ",Q76," &amp; ",S76," &amp; ",U76," &amp; ",W76," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -48829,8 +47740,8 @@
       <c r="V77" s="127"/>
       <c r="W77" s="127"/>
       <c r="Y77" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A77,"} &amp; ",$X$1,B77,"} &amp; ",$D$1," &amp; ",D77," &amp; ",F77," &amp; ",H77," &amp; ",J77," &amp; ",L77," &amp; ",N77," &amp; ",P77," &amp; ",R77," &amp; ", T77," &amp; ", V77, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E77," &amp; ",G77," &amp; ",I77," &amp; ",K77," &amp; ",M77," &amp; ",O77," &amp; ",Q77," &amp; ",S77," &amp; ",U77," &amp; ",W77," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -48858,8 +47769,8 @@
       <c r="V78" s="127"/>
       <c r="W78" s="127"/>
       <c r="Y78" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A78,"} &amp; ",$X$1,B78,"} &amp; ",$D$1," &amp; ",D78," &amp; ",F78," &amp; ",H78," &amp; ",J78," &amp; ",L78," &amp; ",N78," &amp; ",P78," &amp; ",R78," &amp; ", T78," &amp; ", V78, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E78," &amp; ",G78," &amp; ",I78," &amp; ",K78," &amp; ",M78," &amp; ",O78," &amp; ",Q78," &amp; ",S78," &amp; ",U78," &amp; ",W78," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -48887,8 +47798,8 @@
       <c r="V79" s="127"/>
       <c r="W79" s="127"/>
       <c r="Y79" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A79,"} &amp; ",$X$1,B79,"} &amp; ",$D$1," &amp; ",D79," &amp; ",F79," &amp; ",H79," &amp; ",J79," &amp; ",L79," &amp; ",N79," &amp; ",P79," &amp; ",R79," &amp; ", T79," &amp; ", V79, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E79," &amp; ",G79," &amp; ",I79," &amp; ",K79," &amp; ",M79," &amp; ",O79," &amp; ",Q79," &amp; ",S79," &amp; ",U79," &amp; ",W79," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -48916,8 +47827,8 @@
       <c r="V80" s="127"/>
       <c r="W80" s="127"/>
       <c r="Y80" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A80,"} &amp; ",$X$1,B80,"} &amp; ",$D$1," &amp; ",D80," &amp; ",F80," &amp; ",H80," &amp; ",J80," &amp; ",L80," &amp; ",N80," &amp; ",P80," &amp; ",R80," &amp; ", T80," &amp; ", V80, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E80," &amp; ",G80," &amp; ",I80," &amp; ",K80," &amp; ",M80," &amp; ",O80," &amp; ",Q80," &amp; ",S80," &amp; ",U80," &amp; ",W80," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -48945,8 +47856,8 @@
       <c r="V81" s="127"/>
       <c r="W81" s="127"/>
       <c r="Y81" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A81,"} &amp; ",$X$1,B81,"} &amp; ",$D$1," &amp; ",D81," &amp; ",F81," &amp; ",H81," &amp; ",J81," &amp; ",L81," &amp; ",N81," &amp; ",P81," &amp; ",R81," &amp; ", T81," &amp; ", V81, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E81," &amp; ",G81," &amp; ",I81," &amp; ",K81," &amp; ",M81," &amp; ",O81," &amp; ",Q81," &amp; ",S81," &amp; ",U81," &amp; ",W81," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -48974,8 +47885,8 @@
       <c r="V82" s="127"/>
       <c r="W82" s="127"/>
       <c r="Y82" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A82,"} &amp; ",$X$1,B82,"} &amp; ",$D$1," &amp; ",D82," &amp; ",F82," &amp; ",H82," &amp; ",J82," &amp; ",L82," &amp; ",N82," &amp; ",P82," &amp; ",R82," &amp; ", T82," &amp; ", V82, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E82," &amp; ",G82," &amp; ",I82," &amp; ",K82," &amp; ",M82," &amp; ",O82," &amp; ",Q82," &amp; ",S82," &amp; ",U82," &amp; ",W82," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -49003,8 +47914,8 @@
       <c r="V83" s="127"/>
       <c r="W83" s="127"/>
       <c r="Y83" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A83,"} &amp; ",$X$1,B83,"} &amp; ",$D$1," &amp; ",D83," &amp; ",F83," &amp; ",H83," &amp; ",J83," &amp; ",L83," &amp; ",N83," &amp; ",P83," &amp; ",R83," &amp; ", T83," &amp; ", V83, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E83," &amp; ",G83," &amp; ",I83," &amp; ",K83," &amp; ",M83," &amp; ",O83," &amp; ",Q83," &amp; ",S83," &amp; ",U83," &amp; ",W83," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -49032,8 +47943,8 @@
       <c r="V84" s="127"/>
       <c r="W84" s="127"/>
       <c r="Y84" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A84,"} &amp; ",$X$1,B84,"} &amp; ",$D$1," &amp; ",D84," &amp; ",F84," &amp; ",H84," &amp; ",J84," &amp; ",L84," &amp; ",N84," &amp; ",P84," &amp; ",R84," &amp; ", T84," &amp; ", V84, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E84," &amp; ",G84," &amp; ",I84," &amp; ",K84," &amp; ",M84," &amp; ",O84," &amp; ",Q84," &amp; ",S84," &amp; ",U84," &amp; ",W84," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -49061,8 +47972,8 @@
       <c r="V85" s="127"/>
       <c r="W85" s="127"/>
       <c r="Y85" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A85,"} &amp; ",$X$1,B85,"} &amp; ",$D$1," &amp; ",D85," &amp; ",F85," &amp; ",H85," &amp; ",J85," &amp; ",L85," &amp; ",N85," &amp; ",P85," &amp; ",R85," &amp; ", T85," &amp; ", V85, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E85," &amp; ",G85," &amp; ",I85," &amp; ",K85," &amp; ",M85," &amp; ",O85," &amp; ",Q85," &amp; ",S85," &amp; ",U85," &amp; ",W85," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -49090,8 +48001,8 @@
       <c r="V86" s="127"/>
       <c r="W86" s="127"/>
       <c r="Y86" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A86,"} &amp; ",$X$1,B86,"} &amp; ",$D$1," &amp; ",D86," &amp; ",F86," &amp; ",H86," &amp; ",J86," &amp; ",L86," &amp; ",N86," &amp; ",P86," &amp; ",R86," &amp; ", T86," &amp; ", V86, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E86," &amp; ",G86," &amp; ",I86," &amp; ",K86," &amp; ",M86," &amp; ",O86," &amp; ",Q86," &amp; ",S86," &amp; ",U86," &amp; ",W86," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -49119,8 +48030,8 @@
       <c r="V87" s="127"/>
       <c r="W87" s="127"/>
       <c r="Y87" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A87,"} &amp; ",$X$1,B87,"} &amp; ",$D$1," &amp; ",D87," &amp; ",F87," &amp; ",H87," &amp; ",J87," &amp; ",L87," &amp; ",N87," &amp; ",P87," &amp; ",R87," &amp; ", T87," &amp; ", V87, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E87," &amp; ",G87," &amp; ",I87," &amp; ",K87," &amp; ",M87," &amp; ",O87," &amp; ",Q87," &amp; ",S87," &amp; ",U87," &amp; ",W87," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -49148,8 +48059,8 @@
       <c r="V88" s="127"/>
       <c r="W88" s="127"/>
       <c r="Y88" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A88,"} &amp; ",$X$1,B88,"} &amp; ",$D$1," &amp; ",D88," &amp; ",F88," &amp; ",H88," &amp; ",J88," &amp; ",L88," &amp; ",N88," &amp; ",P88," &amp; ",R88," &amp; ", T88," &amp; ", V88, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E88," &amp; ",G88," &amp; ",I88," &amp; ",K88," &amp; ",M88," &amp; ",O88," &amp; ",Q88," &amp; ",S88," &amp; ",U88," &amp; ",W88," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -49177,8 +48088,8 @@
       <c r="V89" s="127"/>
       <c r="W89" s="127"/>
       <c r="Y89" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A89,"} &amp; ",$X$1,B89,"} &amp; ",$D$1," &amp; ",D89," &amp; ",F89," &amp; ",H89," &amp; ",J89," &amp; ",L89," &amp; ",N89," &amp; ",P89," &amp; ",R89," &amp; ", T89," &amp; ", V89, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E89," &amp; ",G89," &amp; ",I89," &amp; ",K89," &amp; ",M89," &amp; ",O89," &amp; ",Q89," &amp; ",S89," &amp; ",U89," &amp; ",W89," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -49206,8 +48117,8 @@
       <c r="V90" s="127"/>
       <c r="W90" s="127"/>
       <c r="Y90" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A90,"} &amp; ",$X$1,B90,"} &amp; ",$D$1," &amp; ",D90," &amp; ",F90," &amp; ",H90," &amp; ",J90," &amp; ",L90," &amp; ",N90," &amp; ",P90," &amp; ",R90," &amp; ", T90," &amp; ", V90, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E90," &amp; ",G90," &amp; ",I90," &amp; ",K90," &amp; ",M90," &amp; ",O90," &amp; ",Q90," &amp; ",S90," &amp; ",U90," &amp; ",W90," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -49235,8 +48146,8 @@
       <c r="V91" s="127"/>
       <c r="W91" s="127"/>
       <c r="Y91" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A91,"} &amp; ",$X$1,B91,"} &amp; ",$D$1," &amp; ",D91," &amp; ",F91," &amp; ",H91," &amp; ",J91," &amp; ",L91," &amp; ",N91," &amp; ",P91," &amp; ",R91," &amp; ", T91," &amp; ", V91, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E91," &amp; ",G91," &amp; ",I91," &amp; ",K91," &amp; ",M91," &amp; ",O91," &amp; ",Q91," &amp; ",S91," &amp; ",U91," &amp; ",W91," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -49264,8 +48175,8 @@
       <c r="V92" s="127"/>
       <c r="W92" s="127"/>
       <c r="Y92" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A92,"} &amp; ",$X$1,B92,"} &amp; ",$D$1," &amp; ",D92," &amp; ",F92," &amp; ",H92," &amp; ",J92," &amp; ",L92," &amp; ",N92," &amp; ",P92," &amp; ",R92," &amp; ", T92," &amp; ", V92, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E92," &amp; ",G92," &amp; ",I92," &amp; ",K92," &amp; ",M92," &amp; ",O92," &amp; ",Q92," &amp; ",S92," &amp; ",U92," &amp; ",W92," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -49293,8 +48204,8 @@
       <c r="V93" s="127"/>
       <c r="W93" s="127"/>
       <c r="Y93" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A93,"} &amp; ",$X$1,B93,"} &amp; ",$D$1," &amp; ",D93," &amp; ",F93," &amp; ",H93," &amp; ",J93," &amp; ",L93," &amp; ",N93," &amp; ",P93," &amp; ",R93," &amp; ", T93," &amp; ", V93, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E93," &amp; ",G93," &amp; ",I93," &amp; ",K93," &amp; ",M93," &amp; ",O93," &amp; ",Q93," &amp; ",S93," &amp; ",U93," &amp; ",W93," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -49322,8 +48233,8 @@
       <c r="V94" s="127"/>
       <c r="W94" s="127"/>
       <c r="Y94" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A94,"} &amp; ",$X$1,B94,"} &amp; ",$D$1," &amp; ",D94," &amp; ",F94," &amp; ",H94," &amp; ",J94," &amp; ",L94," &amp; ",N94," &amp; ",P94," &amp; ",R94," &amp; ", T94," &amp; ", V94, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E94," &amp; ",G94," &amp; ",I94," &amp; ",K94," &amp; ",M94," &amp; ",O94," &amp; ",Q94," &amp; ",S94," &amp; ",U94," &amp; ",W94," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -49351,8 +48262,8 @@
       <c r="V95" s="127"/>
       <c r="W95" s="127"/>
       <c r="Y95" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A95,"} &amp; ",$X$1,B95,"} &amp; ",$D$1," &amp; ",D95," &amp; ",F95," &amp; ",H95," &amp; ",J95," &amp; ",L95," &amp; ",N95," &amp; ",P95," &amp; ",R95," &amp; ", T95," &amp; ", V95, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E95," &amp; ",G95," &amp; ",I95," &amp; ",K95," &amp; ",M95," &amp; ",O95," &amp; ",Q95," &amp; ",S95," &amp; ",U95," &amp; ",W95," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -49380,8 +48291,8 @@
       <c r="V96" s="127"/>
       <c r="W96" s="127"/>
       <c r="Y96" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A96,"} &amp; ",$X$1,B96,"} &amp; ",$D$1," &amp; ",D96," &amp; ",F96," &amp; ",H96," &amp; ",J96," &amp; ",L96," &amp; ",N96," &amp; ",P96," &amp; ",R96," &amp; ", T96," &amp; ", V96, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E96," &amp; ",G96," &amp; ",I96," &amp; ",K96," &amp; ",M96," &amp; ",O96," &amp; ",Q96," &amp; ",S96," &amp; ",U96," &amp; ",W96," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -49409,8 +48320,8 @@
       <c r="V97" s="127"/>
       <c r="W97" s="127"/>
       <c r="Y97" s="128" t="str">
-        <f t="shared" si="2"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A97,"} &amp; ",$X$1,B97,"} &amp; ",$D$1," &amp; ",D97," &amp; ",F97," &amp; ",H97," &amp; ",J97," &amp; ",L97," &amp; ",N97," &amp; ",P97," &amp; ",R97," &amp; ", T97," &amp; ", V97, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E97," &amp; ",G97," &amp; ",I97," &amp; ",K97," &amp; ",M97," &amp; ",O97," &amp; ",Q97," &amp; ",S97," &amp; ",U97," &amp; ",W97," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -49438,8 +48349,8 @@
       <c r="V98" s="127"/>
       <c r="W98" s="127"/>
       <c r="Y98" s="128" t="str">
-        <f t="shared" ref="Y98:Y129" si="3">CONCATENATE($X$1,A98,"} &amp; ",$X$1,B98,"} &amp; ",$D$1," &amp; ",D98," &amp; ",F98," &amp; ",H98," &amp; ",J98," &amp; ",L98," &amp; ",N98," &amp; ",P98," &amp; ",R98," &amp; ", T98," &amp; ", V98, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E98," &amp; ",G98," &amp; ",I98," &amp; ",K98," &amp; ",M98," &amp; ",O98," &amp; ",Q98," &amp; ",S98," &amp; ",U98," &amp; ",W98," \\ \hline")</f>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A98,"} &amp; ",$X$1,B98,"} &amp; ",$D$1," &amp; ",D98," &amp; ",F98," &amp; ",H98," &amp; ",J98," &amp; ",L98," &amp; ",N98," &amp; ",P98," &amp; ",R98," &amp; ", T98," &amp; ", V98, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E98," &amp; ",G98," &amp; ",I98," &amp; ",K98," &amp; ",M98," &amp; ",O98," &amp; ",Q98," &amp; ",S98," &amp; ",U98," &amp; ",W98," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -49467,8 +48378,8 @@
       <c r="V99" s="127"/>
       <c r="W99" s="127"/>
       <c r="Y99" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A99,"} &amp; ",$X$1,B99,"} &amp; ",$D$1," &amp; ",D99," &amp; ",F99," &amp; ",H99," &amp; ",J99," &amp; ",L99," &amp; ",N99," &amp; ",P99," &amp; ",R99," &amp; ", T99," &amp; ", V99, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E99," &amp; ",G99," &amp; ",I99," &amp; ",K99," &amp; ",M99," &amp; ",O99," &amp; ",Q99," &amp; ",S99," &amp; ",U99," &amp; ",W99," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -49496,8 +48407,8 @@
       <c r="V100" s="127"/>
       <c r="W100" s="127"/>
       <c r="Y100" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A100,"} &amp; ",$X$1,B100,"} &amp; ",$D$1," &amp; ",D100," &amp; ",F100," &amp; ",H100," &amp; ",J100," &amp; ",L100," &amp; ",N100," &amp; ",P100," &amp; ",R100," &amp; ", T100," &amp; ", V100, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E100," &amp; ",G100," &amp; ",I100," &amp; ",K100," &amp; ",M100," &amp; ",O100," &amp; ",Q100," &amp; ",S100," &amp; ",U100," &amp; ",W100," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="101" spans="1:25">
@@ -49525,8 +48436,8 @@
       <c r="V101" s="127"/>
       <c r="W101" s="127"/>
       <c r="Y101" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A101,"} &amp; ",$X$1,B101,"} &amp; ",$D$1," &amp; ",D101," &amp; ",F101," &amp; ",H101," &amp; ",J101," &amp; ",L101," &amp; ",N101," &amp; ",P101," &amp; ",R101," &amp; ", T101," &amp; ", V101, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E101," &amp; ",G101," &amp; ",I101," &amp; ",K101," &amp; ",M101," &amp; ",O101," &amp; ",Q101," &amp; ",S101," &amp; ",U101," &amp; ",W101," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -49554,8 +48465,8 @@
       <c r="V102" s="127"/>
       <c r="W102" s="127"/>
       <c r="Y102" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A102,"} &amp; ",$X$1,B102,"} &amp; ",$D$1," &amp; ",D102," &amp; ",F102," &amp; ",H102," &amp; ",J102," &amp; ",L102," &amp; ",N102," &amp; ",P102," &amp; ",R102," &amp; ", T102," &amp; ", V102, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E102," &amp; ",G102," &amp; ",I102," &amp; ",K102," &amp; ",M102," &amp; ",O102," &amp; ",Q102," &amp; ",S102," &amp; ",U102," &amp; ",W102," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="103" spans="1:25">
@@ -49583,8 +48494,8 @@
       <c r="V103" s="127"/>
       <c r="W103" s="127"/>
       <c r="Y103" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A103,"} &amp; ",$X$1,B103,"} &amp; ",$D$1," &amp; ",D103," &amp; ",F103," &amp; ",H103," &amp; ",J103," &amp; ",L103," &amp; ",N103," &amp; ",P103," &amp; ",R103," &amp; ", T103," &amp; ", V103, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E103," &amp; ",G103," &amp; ",I103," &amp; ",K103," &amp; ",M103," &amp; ",O103," &amp; ",Q103," &amp; ",S103," &amp; ",U103," &amp; ",W103," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:25">
@@ -49612,8 +48523,8 @@
       <c r="V104" s="127"/>
       <c r="W104" s="127"/>
       <c r="Y104" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A104,"} &amp; ",$X$1,B104,"} &amp; ",$D$1," &amp; ",D104," &amp; ",F104," &amp; ",H104," &amp; ",J104," &amp; ",L104," &amp; ",N104," &amp; ",P104," &amp; ",R104," &amp; ", T104," &amp; ", V104, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E104," &amp; ",G104," &amp; ",I104," &amp; ",K104," &amp; ",M104," &amp; ",O104," &amp; ",Q104," &amp; ",S104," &amp; ",U104," &amp; ",W104," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -49641,8 +48552,8 @@
       <c r="V105" s="127"/>
       <c r="W105" s="127"/>
       <c r="Y105" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A105,"} &amp; ",$X$1,B105,"} &amp; ",$D$1," &amp; ",D105," &amp; ",F105," &amp; ",H105," &amp; ",J105," &amp; ",L105," &amp; ",N105," &amp; ",P105," &amp; ",R105," &amp; ", T105," &amp; ", V105, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E105," &amp; ",G105," &amp; ",I105," &amp; ",K105," &amp; ",M105," &amp; ",O105," &amp; ",Q105," &amp; ",S105," &amp; ",U105," &amp; ",W105," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:25">
@@ -49670,8 +48581,8 @@
       <c r="V106" s="127"/>
       <c r="W106" s="127"/>
       <c r="Y106" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A106,"} &amp; ",$X$1,B106,"} &amp; ",$D$1," &amp; ",D106," &amp; ",F106," &amp; ",H106," &amp; ",J106," &amp; ",L106," &amp; ",N106," &amp; ",P106," &amp; ",R106," &amp; ", T106," &amp; ", V106, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E106," &amp; ",G106," &amp; ",I106," &amp; ",K106," &amp; ",M106," &amp; ",O106," &amp; ",Q106," &amp; ",S106," &amp; ",U106," &amp; ",W106," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="107" spans="1:25">
@@ -49699,8 +48610,8 @@
       <c r="V107" s="127"/>
       <c r="W107" s="127"/>
       <c r="Y107" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A107,"} &amp; ",$X$1,B107,"} &amp; ",$D$1," &amp; ",D107," &amp; ",F107," &amp; ",H107," &amp; ",J107," &amp; ",L107," &amp; ",N107," &amp; ",P107," &amp; ",R107," &amp; ", T107," &amp; ", V107, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E107," &amp; ",G107," &amp; ",I107," &amp; ",K107," &amp; ",M107," &amp; ",O107," &amp; ",Q107," &amp; ",S107," &amp; ",U107," &amp; ",W107," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -49728,8 +48639,8 @@
       <c r="V108" s="127"/>
       <c r="W108" s="127"/>
       <c r="Y108" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A108,"} &amp; ",$X$1,B108,"} &amp; ",$D$1," &amp; ",D108," &amp; ",F108," &amp; ",H108," &amp; ",J108," &amp; ",L108," &amp; ",N108," &amp; ",P108," &amp; ",R108," &amp; ", T108," &amp; ", V108, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E108," &amp; ",G108," &amp; ",I108," &amp; ",K108," &amp; ",M108," &amp; ",O108," &amp; ",Q108," &amp; ",S108," &amp; ",U108," &amp; ",W108," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="109" spans="1:25">
@@ -49757,8 +48668,8 @@
       <c r="V109" s="127"/>
       <c r="W109" s="127"/>
       <c r="Y109" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A109,"} &amp; ",$X$1,B109,"} &amp; ",$D$1," &amp; ",D109," &amp; ",F109," &amp; ",H109," &amp; ",J109," &amp; ",L109," &amp; ",N109," &amp; ",P109," &amp; ",R109," &amp; ", T109," &amp; ", V109, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E109," &amp; ",G109," &amp; ",I109," &amp; ",K109," &amp; ",M109," &amp; ",O109," &amp; ",Q109," &amp; ",S109," &amp; ",U109," &amp; ",W109," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:25">
@@ -49786,8 +48697,8 @@
       <c r="V110" s="127"/>
       <c r="W110" s="127"/>
       <c r="Y110" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A110,"} &amp; ",$X$1,B110,"} &amp; ",$D$1," &amp; ",D110," &amp; ",F110," &amp; ",H110," &amp; ",J110," &amp; ",L110," &amp; ",N110," &amp; ",P110," &amp; ",R110," &amp; ", T110," &amp; ", V110, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E110," &amp; ",G110," &amp; ",I110," &amp; ",K110," &amp; ",M110," &amp; ",O110," &amp; ",Q110," &amp; ",S110," &amp; ",U110," &amp; ",W110," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:25">
@@ -49815,8 +48726,8 @@
       <c r="V111" s="127"/>
       <c r="W111" s="127"/>
       <c r="Y111" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A111,"} &amp; ",$X$1,B111,"} &amp; ",$D$1," &amp; ",D111," &amp; ",F111," &amp; ",H111," &amp; ",J111," &amp; ",L111," &amp; ",N111," &amp; ",P111," &amp; ",R111," &amp; ", T111," &amp; ", V111, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E111," &amp; ",G111," &amp; ",I111," &amp; ",K111," &amp; ",M111," &amp; ",O111," &amp; ",Q111," &amp; ",S111," &amp; ",U111," &amp; ",W111," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:25">
@@ -49844,8 +48755,8 @@
       <c r="V112" s="127"/>
       <c r="W112" s="127"/>
       <c r="Y112" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A112,"} &amp; ",$X$1,B112,"} &amp; ",$D$1," &amp; ",D112," &amp; ",F112," &amp; ",H112," &amp; ",J112," &amp; ",L112," &amp; ",N112," &amp; ",P112," &amp; ",R112," &amp; ", T112," &amp; ", V112, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E112," &amp; ",G112," &amp; ",I112," &amp; ",K112," &amp; ",M112," &amp; ",O112," &amp; ",Q112," &amp; ",S112," &amp; ",U112," &amp; ",W112," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -49873,8 +48784,8 @@
       <c r="V113" s="127"/>
       <c r="W113" s="127"/>
       <c r="Y113" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A113,"} &amp; ",$X$1,B113,"} &amp; ",$D$1," &amp; ",D113," &amp; ",F113," &amp; ",H113," &amp; ",J113," &amp; ",L113," &amp; ",N113," &amp; ",P113," &amp; ",R113," &amp; ", T113," &amp; ", V113, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E113," &amp; ",G113," &amp; ",I113," &amp; ",K113," &amp; ",M113," &amp; ",O113," &amp; ",Q113," &amp; ",S113," &amp; ",U113," &amp; ",W113," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="114" spans="1:25">
@@ -49902,8 +48813,8 @@
       <c r="V114" s="127"/>
       <c r="W114" s="127"/>
       <c r="Y114" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A114,"} &amp; ",$X$1,B114,"} &amp; ",$D$1," &amp; ",D114," &amp; ",F114," &amp; ",H114," &amp; ",J114," &amp; ",L114," &amp; ",N114," &amp; ",P114," &amp; ",R114," &amp; ", T114," &amp; ", V114, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E114," &amp; ",G114," &amp; ",I114," &amp; ",K114," &amp; ",M114," &amp; ",O114," &amp; ",Q114," &amp; ",S114," &amp; ",U114," &amp; ",W114," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="115" spans="1:25">
@@ -49931,8 +48842,8 @@
       <c r="V115" s="127"/>
       <c r="W115" s="127"/>
       <c r="Y115" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A115,"} &amp; ",$X$1,B115,"} &amp; ",$D$1," &amp; ",D115," &amp; ",F115," &amp; ",H115," &amp; ",J115," &amp; ",L115," &amp; ",N115," &amp; ",P115," &amp; ",R115," &amp; ", T115," &amp; ", V115, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E115," &amp; ",G115," &amp; ",I115," &amp; ",K115," &amp; ",M115," &amp; ",O115," &amp; ",Q115," &amp; ",S115," &amp; ",U115," &amp; ",W115," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="116" spans="1:25">
@@ -49960,8 +48871,8 @@
       <c r="V116" s="127"/>
       <c r="W116" s="127"/>
       <c r="Y116" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A116,"} &amp; ",$X$1,B116,"} &amp; ",$D$1," &amp; ",D116," &amp; ",F116," &amp; ",H116," &amp; ",J116," &amp; ",L116," &amp; ",N116," &amp; ",P116," &amp; ",R116," &amp; ", T116," &amp; ", V116, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E116," &amp; ",G116," &amp; ",I116," &amp; ",K116," &amp; ",M116," &amp; ",O116," &amp; ",Q116," &amp; ",S116," &amp; ",U116," &amp; ",W116," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="117" spans="1:25">
@@ -49989,8 +48900,8 @@
       <c r="V117" s="127"/>
       <c r="W117" s="127"/>
       <c r="Y117" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A117,"} &amp; ",$X$1,B117,"} &amp; ",$D$1," &amp; ",D117," &amp; ",F117," &amp; ",H117," &amp; ",J117," &amp; ",L117," &amp; ",N117," &amp; ",P117," &amp; ",R117," &amp; ", T117," &amp; ", V117, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E117," &amp; ",G117," &amp; ",I117," &amp; ",K117," &amp; ",M117," &amp; ",O117," &amp; ",Q117," &amp; ",S117," &amp; ",U117," &amp; ",W117," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -50018,8 +48929,8 @@
       <c r="V118" s="127"/>
       <c r="W118" s="127"/>
       <c r="Y118" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A118,"} &amp; ",$X$1,B118,"} &amp; ",$D$1," &amp; ",D118," &amp; ",F118," &amp; ",H118," &amp; ",J118," &amp; ",L118," &amp; ",N118," &amp; ",P118," &amp; ",R118," &amp; ", T118," &amp; ", V118, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E118," &amp; ",G118," &amp; ",I118," &amp; ",K118," &amp; ",M118," &amp; ",O118," &amp; ",Q118," &amp; ",S118," &amp; ",U118," &amp; ",W118," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -50047,8 +48958,8 @@
       <c r="V119" s="127"/>
       <c r="W119" s="127"/>
       <c r="Y119" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A119,"} &amp; ",$X$1,B119,"} &amp; ",$D$1," &amp; ",D119," &amp; ",F119," &amp; ",H119," &amp; ",J119," &amp; ",L119," &amp; ",N119," &amp; ",P119," &amp; ",R119," &amp; ", T119," &amp; ", V119, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E119," &amp; ",G119," &amp; ",I119," &amp; ",K119," &amp; ",M119," &amp; ",O119," &amp; ",Q119," &amp; ",S119," &amp; ",U119," &amp; ",W119," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="120" spans="1:25">
@@ -50076,8 +48987,8 @@
       <c r="V120" s="127"/>
       <c r="W120" s="127"/>
       <c r="Y120" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A120,"} &amp; ",$X$1,B120,"} &amp; ",$D$1," &amp; ",D120," &amp; ",F120," &amp; ",H120," &amp; ",J120," &amp; ",L120," &amp; ",N120," &amp; ",P120," &amp; ",R120," &amp; ", T120," &amp; ", V120, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E120," &amp; ",G120," &amp; ",I120," &amp; ",K120," &amp; ",M120," &amp; ",O120," &amp; ",Q120," &amp; ",S120," &amp; ",U120," &amp; ",W120," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -50105,8 +49016,8 @@
       <c r="V121" s="127"/>
       <c r="W121" s="127"/>
       <c r="Y121" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A121,"} &amp; ",$X$1,B121,"} &amp; ",$D$1," &amp; ",D121," &amp; ",F121," &amp; ",H121," &amp; ",J121," &amp; ",L121," &amp; ",N121," &amp; ",P121," &amp; ",R121," &amp; ", T121," &amp; ", V121, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E121," &amp; ",G121," &amp; ",I121," &amp; ",K121," &amp; ",M121," &amp; ",O121," &amp; ",Q121," &amp; ",S121," &amp; ",U121," &amp; ",W121," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:25">
@@ -50134,8 +49045,8 @@
       <c r="V122" s="127"/>
       <c r="W122" s="127"/>
       <c r="Y122" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A122,"} &amp; ",$X$1,B122,"} &amp; ",$D$1," &amp; ",D122," &amp; ",F122," &amp; ",H122," &amp; ",J122," &amp; ",L122," &amp; ",N122," &amp; ",P122," &amp; ",R122," &amp; ", T122," &amp; ", V122, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E122," &amp; ",G122," &amp; ",I122," &amp; ",K122," &amp; ",M122," &amp; ",O122," &amp; ",Q122," &amp; ",S122," &amp; ",U122," &amp; ",W122," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:25">
@@ -50163,8 +49074,8 @@
       <c r="V123" s="127"/>
       <c r="W123" s="127"/>
       <c r="Y123" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A123,"} &amp; ",$X$1,B123,"} &amp; ",$D$1," &amp; ",D123," &amp; ",F123," &amp; ",H123," &amp; ",J123," &amp; ",L123," &amp; ",N123," &amp; ",P123," &amp; ",R123," &amp; ", T123," &amp; ", V123, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E123," &amp; ",G123," &amp; ",I123," &amp; ",K123," &amp; ",M123," &amp; ",O123," &amp; ",Q123," &amp; ",S123," &amp; ",U123," &amp; ",W123," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="124" spans="1:25">
@@ -50192,8 +49103,8 @@
       <c r="V124" s="127"/>
       <c r="W124" s="127"/>
       <c r="Y124" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A124,"} &amp; ",$X$1,B124,"} &amp; ",$D$1," &amp; ",D124," &amp; ",F124," &amp; ",H124," &amp; ",J124," &amp; ",L124," &amp; ",N124," &amp; ",P124," &amp; ",R124," &amp; ", T124," &amp; ", V124, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E124," &amp; ",G124," &amp; ",I124," &amp; ",K124," &amp; ",M124," &amp; ",O124," &amp; ",Q124," &amp; ",S124," &amp; ",U124," &amp; ",W124," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="125" spans="1:25">
@@ -50221,8 +49132,8 @@
       <c r="V125" s="127"/>
       <c r="W125" s="127"/>
       <c r="Y125" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A125,"} &amp; ",$X$1,B125,"} &amp; ",$D$1," &amp; ",D125," &amp; ",F125," &amp; ",H125," &amp; ",J125," &amp; ",L125," &amp; ",N125," &amp; ",P125," &amp; ",R125," &amp; ", T125," &amp; ", V125, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E125," &amp; ",G125," &amp; ",I125," &amp; ",K125," &amp; ",M125," &amp; ",O125," &amp; ",Q125," &amp; ",S125," &amp; ",U125," &amp; ",W125," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="126" spans="1:25">
@@ -50250,8 +49161,8 @@
       <c r="V126" s="127"/>
       <c r="W126" s="127"/>
       <c r="Y126" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A126,"} &amp; ",$X$1,B126,"} &amp; ",$D$1," &amp; ",D126," &amp; ",F126," &amp; ",H126," &amp; ",J126," &amp; ",L126," &amp; ",N126," &amp; ",P126," &amp; ",R126," &amp; ", T126," &amp; ", V126, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E126," &amp; ",G126," &amp; ",I126," &amp; ",K126," &amp; ",M126," &amp; ",O126," &amp; ",Q126," &amp; ",S126," &amp; ",U126," &amp; ",W126," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="127" spans="1:25">
@@ -50279,8 +49190,8 @@
       <c r="V127" s="127"/>
       <c r="W127" s="127"/>
       <c r="Y127" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A127,"} &amp; ",$X$1,B127,"} &amp; ",$D$1," &amp; ",D127," &amp; ",F127," &amp; ",H127," &amp; ",J127," &amp; ",L127," &amp; ",N127," &amp; ",P127," &amp; ",R127," &amp; ", T127," &amp; ", V127, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E127," &amp; ",G127," &amp; ",I127," &amp; ",K127," &amp; ",M127," &amp; ",O127," &amp; ",Q127," &amp; ",S127," &amp; ",U127," &amp; ",W127," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="128" spans="1:25">
@@ -50308,8 +49219,8 @@
       <c r="V128" s="127"/>
       <c r="W128" s="127"/>
       <c r="Y128" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A128,"} &amp; ",$X$1,B128,"} &amp; ",$D$1," &amp; ",D128," &amp; ",F128," &amp; ",H128," &amp; ",J128," &amp; ",L128," &amp; ",N128," &amp; ",P128," &amp; ",R128," &amp; ", T128," &amp; ", V128, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E128," &amp; ",G128," &amp; ",I128," &amp; ",K128," &amp; ",M128," &amp; ",O128," &amp; ",Q128," &amp; ",S128," &amp; ",U128," &amp; ",W128," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="129" spans="1:25">
@@ -50337,8 +49248,8 @@
       <c r="V129" s="127"/>
       <c r="W129" s="127"/>
       <c r="Y129" s="128" t="str">
-        <f t="shared" si="3"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A129,"} &amp; ",$X$1,B129,"} &amp; ",$D$1," &amp; ",D129," &amp; ",F129," &amp; ",H129," &amp; ",J129," &amp; ",L129," &amp; ",N129," &amp; ",P129," &amp; ",R129," &amp; ", T129," &amp; ", V129, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E129," &amp; ",G129," &amp; ",I129," &amp; ",K129," &amp; ",M129," &amp; ",O129," &amp; ",Q129," &amp; ",S129," &amp; ",U129," &amp; ",W129," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="130" spans="1:25">
@@ -50366,8 +49277,8 @@
       <c r="V130" s="127"/>
       <c r="W130" s="127"/>
       <c r="Y130" s="128" t="str">
-        <f t="shared" ref="Y130:Y148" si="4">CONCATENATE($X$1,A130,"} &amp; ",$X$1,B130,"} &amp; ",$D$1," &amp; ",D130," &amp; ",F130," &amp; ",H130," &amp; ",J130," &amp; ",L130," &amp; ",N130," &amp; ",P130," &amp; ",R130," &amp; ", T130," &amp; ", V130, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E130," &amp; ",G130," &amp; ",I130," &amp; ",K130," &amp; ",M130," &amp; ",O130," &amp; ",Q130," &amp; ",S130," &amp; ",U130," &amp; ",W130," \\ \hline")</f>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A130,"} &amp; ",$X$1,B130,"} &amp; ",$D$1," &amp; ",D130," &amp; ",F130," &amp; ",H130," &amp; ",J130," &amp; ",L130," &amp; ",N130," &amp; ",P130," &amp; ",R130," &amp; ", T130," &amp; ", V130, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E130," &amp; ",G130," &amp; ",I130," &amp; ",K130," &amp; ",M130," &amp; ",O130," &amp; ",Q130," &amp; ",S130," &amp; ",U130," &amp; ",W130," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="131" spans="1:25">
@@ -50395,8 +49306,8 @@
       <c r="V131" s="127"/>
       <c r="W131" s="127"/>
       <c r="Y131" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A131,"} &amp; ",$X$1,B131,"} &amp; ",$D$1," &amp; ",D131," &amp; ",F131," &amp; ",H131," &amp; ",J131," &amp; ",L131," &amp; ",N131," &amp; ",P131," &amp; ",R131," &amp; ", T131," &amp; ", V131, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E131," &amp; ",G131," &amp; ",I131," &amp; ",K131," &amp; ",M131," &amp; ",O131," &amp; ",Q131," &amp; ",S131," &amp; ",U131," &amp; ",W131," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="132" spans="1:25">
@@ -50424,8 +49335,8 @@
       <c r="V132" s="127"/>
       <c r="W132" s="127"/>
       <c r="Y132" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A132,"} &amp; ",$X$1,B132,"} &amp; ",$D$1," &amp; ",D132," &amp; ",F132," &amp; ",H132," &amp; ",J132," &amp; ",L132," &amp; ",N132," &amp; ",P132," &amp; ",R132," &amp; ", T132," &amp; ", V132, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E132," &amp; ",G132," &amp; ",I132," &amp; ",K132," &amp; ",M132," &amp; ",O132," &amp; ",Q132," &amp; ",S132," &amp; ",U132," &amp; ",W132," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="133" spans="1:25">
@@ -50453,8 +49364,8 @@
       <c r="V133" s="127"/>
       <c r="W133" s="127"/>
       <c r="Y133" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A133,"} &amp; ",$X$1,B133,"} &amp; ",$D$1," &amp; ",D133," &amp; ",F133," &amp; ",H133," &amp; ",J133," &amp; ",L133," &amp; ",N133," &amp; ",P133," &amp; ",R133," &amp; ", T133," &amp; ", V133, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E133," &amp; ",G133," &amp; ",I133," &amp; ",K133," &amp; ",M133," &amp; ",O133," &amp; ",Q133," &amp; ",S133," &amp; ",U133," &amp; ",W133," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="134" spans="1:25">
@@ -50482,8 +49393,8 @@
       <c r="V134" s="127"/>
       <c r="W134" s="127"/>
       <c r="Y134" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A134,"} &amp; ",$X$1,B134,"} &amp; ",$D$1," &amp; ",D134," &amp; ",F134," &amp; ",H134," &amp; ",J134," &amp; ",L134," &amp; ",N134," &amp; ",P134," &amp; ",R134," &amp; ", T134," &amp; ", V134, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E134," &amp; ",G134," &amp; ",I134," &amp; ",K134," &amp; ",M134," &amp; ",O134," &amp; ",Q134," &amp; ",S134," &amp; ",U134," &amp; ",W134," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="135" spans="1:25">
@@ -50511,8 +49422,8 @@
       <c r="V135" s="127"/>
       <c r="W135" s="127"/>
       <c r="Y135" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A135,"} &amp; ",$X$1,B135,"} &amp; ",$D$1," &amp; ",D135," &amp; ",F135," &amp; ",H135," &amp; ",J135," &amp; ",L135," &amp; ",N135," &amp; ",P135," &amp; ",R135," &amp; ", T135," &amp; ", V135, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E135," &amp; ",G135," &amp; ",I135," &amp; ",K135," &amp; ",M135," &amp; ",O135," &amp; ",Q135," &amp; ",S135," &amp; ",U135," &amp; ",W135," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="136" spans="1:25">
@@ -50540,8 +49451,8 @@
       <c r="V136" s="127"/>
       <c r="W136" s="127"/>
       <c r="Y136" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A136,"} &amp; ",$X$1,B136,"} &amp; ",$D$1," &amp; ",D136," &amp; ",F136," &amp; ",H136," &amp; ",J136," &amp; ",L136," &amp; ",N136," &amp; ",P136," &amp; ",R136," &amp; ", T136," &amp; ", V136, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E136," &amp; ",G136," &amp; ",I136," &amp; ",K136," &amp; ",M136," &amp; ",O136," &amp; ",Q136," &amp; ",S136," &amp; ",U136," &amp; ",W136," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="137" spans="1:25">
@@ -50569,8 +49480,8 @@
       <c r="V137" s="127"/>
       <c r="W137" s="127"/>
       <c r="Y137" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A137,"} &amp; ",$X$1,B137,"} &amp; ",$D$1," &amp; ",D137," &amp; ",F137," &amp; ",H137," &amp; ",J137," &amp; ",L137," &amp; ",N137," &amp; ",P137," &amp; ",R137," &amp; ", T137," &amp; ", V137, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E137," &amp; ",G137," &amp; ",I137," &amp; ",K137," &amp; ",M137," &amp; ",O137," &amp; ",Q137," &amp; ",S137," &amp; ",U137," &amp; ",W137," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="138" spans="1:25">
@@ -50598,8 +49509,8 @@
       <c r="V138" s="127"/>
       <c r="W138" s="127"/>
       <c r="Y138" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A138,"} &amp; ",$X$1,B138,"} &amp; ",$D$1," &amp; ",D138," &amp; ",F138," &amp; ",H138," &amp; ",J138," &amp; ",L138," &amp; ",N138," &amp; ",P138," &amp; ",R138," &amp; ", T138," &amp; ", V138, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E138," &amp; ",G138," &amp; ",I138," &amp; ",K138," &amp; ",M138," &amp; ",O138," &amp; ",Q138," &amp; ",S138," &amp; ",U138," &amp; ",W138," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="139" spans="1:25">
@@ -50627,8 +49538,8 @@
       <c r="V139" s="127"/>
       <c r="W139" s="127"/>
       <c r="Y139" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A139,"} &amp; ",$X$1,B139,"} &amp; ",$D$1," &amp; ",D139," &amp; ",F139," &amp; ",H139," &amp; ",J139," &amp; ",L139," &amp; ",N139," &amp; ",P139," &amp; ",R139," &amp; ", T139," &amp; ", V139, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E139," &amp; ",G139," &amp; ",I139," &amp; ",K139," &amp; ",M139," &amp; ",O139," &amp; ",Q139," &amp; ",S139," &amp; ",U139," &amp; ",W139," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="140" spans="1:25">
@@ -50656,8 +49567,8 @@
       <c r="V140" s="127"/>
       <c r="W140" s="127"/>
       <c r="Y140" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A140,"} &amp; ",$X$1,B140,"} &amp; ",$D$1," &amp; ",D140," &amp; ",F140," &amp; ",H140," &amp; ",J140," &amp; ",L140," &amp; ",N140," &amp; ",P140," &amp; ",R140," &amp; ", T140," &amp; ", V140, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E140," &amp; ",G140," &amp; ",I140," &amp; ",K140," &amp; ",M140," &amp; ",O140," &amp; ",Q140," &amp; ",S140," &amp; ",U140," &amp; ",W140," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="141" spans="1:25">
@@ -50685,8 +49596,8 @@
       <c r="V141" s="127"/>
       <c r="W141" s="127"/>
       <c r="Y141" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A141,"} &amp; ",$X$1,B141,"} &amp; ",$D$1," &amp; ",D141," &amp; ",F141," &amp; ",H141," &amp; ",J141," &amp; ",L141," &amp; ",N141," &amp; ",P141," &amp; ",R141," &amp; ", T141," &amp; ", V141, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E141," &amp; ",G141," &amp; ",I141," &amp; ",K141," &amp; ",M141," &amp; ",O141," &amp; ",Q141," &amp; ",S141," &amp; ",U141," &amp; ",W141," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="142" spans="1:25">
@@ -50714,8 +49625,8 @@
       <c r="V142" s="127"/>
       <c r="W142" s="127"/>
       <c r="Y142" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A142,"} &amp; ",$X$1,B142,"} &amp; ",$D$1," &amp; ",D142," &amp; ",F142," &amp; ",H142," &amp; ",J142," &amp; ",L142," &amp; ",N142," &amp; ",P142," &amp; ",R142," &amp; ", T142," &amp; ", V142, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E142," &amp; ",G142," &amp; ",I142," &amp; ",K142," &amp; ",M142," &amp; ",O142," &amp; ",Q142," &amp; ",S142," &amp; ",U142," &amp; ",W142," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="143" spans="1:25">
@@ -50743,8 +49654,8 @@
       <c r="V143" s="127"/>
       <c r="W143" s="127"/>
       <c r="Y143" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A143,"} &amp; ",$X$1,B143,"} &amp; ",$D$1," &amp; ",D143," &amp; ",F143," &amp; ",H143," &amp; ",J143," &amp; ",L143," &amp; ",N143," &amp; ",P143," &amp; ",R143," &amp; ", T143," &amp; ", V143, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E143," &amp; ",G143," &amp; ",I143," &amp; ",K143," &amp; ",M143," &amp; ",O143," &amp; ",Q143," &amp; ",S143," &amp; ",U143," &amp; ",W143," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="144" spans="1:25">
@@ -50772,8 +49683,8 @@
       <c r="V144" s="127"/>
       <c r="W144" s="127"/>
       <c r="Y144" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A144,"} &amp; ",$X$1,B144,"} &amp; ",$D$1," &amp; ",D144," &amp; ",F144," &amp; ",H144," &amp; ",J144," &amp; ",L144," &amp; ",N144," &amp; ",P144," &amp; ",R144," &amp; ", T144," &amp; ", V144, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E144," &amp; ",G144," &amp; ",I144," &amp; ",K144," &amp; ",M144," &amp; ",O144," &amp; ",Q144," &amp; ",S144," &amp; ",U144," &amp; ",W144," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="145" spans="1:25">
@@ -50801,8 +49712,8 @@
       <c r="V145" s="127"/>
       <c r="W145" s="127"/>
       <c r="Y145" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A145,"} &amp; ",$X$1,B145,"} &amp; ",$D$1," &amp; ",D145," &amp; ",F145," &amp; ",H145," &amp; ",J145," &amp; ",L145," &amp; ",N145," &amp; ",P145," &amp; ",R145," &amp; ", T145," &amp; ", V145, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E145," &amp; ",G145," &amp; ",I145," &amp; ",K145," &amp; ",M145," &amp; ",O145," &amp; ",Q145," &amp; ",S145," &amp; ",U145," &amp; ",W145," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="146" spans="1:25">
@@ -50830,8 +49741,8 @@
       <c r="V146" s="127"/>
       <c r="W146" s="127"/>
       <c r="Y146" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A146,"} &amp; ",$X$1,B146,"} &amp; ",$D$1," &amp; ",D146," &amp; ",F146," &amp; ",H146," &amp; ",J146," &amp; ",L146," &amp; ",N146," &amp; ",P146," &amp; ",R146," &amp; ", T146," &amp; ", V146, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E146," &amp; ",G146," &amp; ",I146," &amp; ",K146," &amp; ",M146," &amp; ",O146," &amp; ",Q146," &amp; ",S146," &amp; ",U146," &amp; ",W146," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="147" spans="1:25">
@@ -50859,8 +49770,8 @@
       <c r="V147" s="127"/>
       <c r="W147" s="127"/>
       <c r="Y147" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A147,"} &amp; ",$X$1,B147,"} &amp; ",$D$1," &amp; ",D147," &amp; ",F147," &amp; ",H147," &amp; ",J147," &amp; ",L147," &amp; ",N147," &amp; ",P147," &amp; ",R147," &amp; ", T147," &amp; ", V147, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E147," &amp; ",G147," &amp; ",I147," &amp; ",K147," &amp; ",M147," &amp; ",O147," &amp; ",Q147," &amp; ",S147," &amp; ",U147," &amp; ",W147," \\ \hline")</f>
+        <v/>
       </c>
     </row>
     <row r="148" spans="1:25">
@@ -50888,8 +49799,8 @@
       <c r="V148" s="127"/>
       <c r="W148" s="127"/>
       <c r="Y148" s="128" t="str">
-        <f t="shared" si="4"/>
-        <v>\multirow{2}{*}{} &amp; \multirow{2}{*}{} &amp; Case &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\*  &amp;   &amp; Coeff. &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  &amp;  \\ \hline</v>
+        <f>CONCATENATE($X$1,A148,"} &amp; ",$X$1,B148,"} &amp; ",$D$1," &amp; ",D148," &amp; ",F148," &amp; ",H148," &amp; ",J148," &amp; ",L148," &amp; ",N148," &amp; ",P148," &amp; ",R148," &amp; ", T148," &amp; ", V148, " \\*"," "," &amp; "," "," &amp; ",$E$1," &amp; ",E148," &amp; ",G148," &amp; ",I148," &amp; ",K148," &amp; ",M148," &amp; ",O148," &amp; ",Q148," &amp; ",S148," &amp; ",U148," &amp; ",W148," \\ \hline")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
